--- a/Covid_19_Dataset_and_References/References/18.xlsx
+++ b/Covid_19_Dataset_and_References/References/18.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="199">
   <si>
     <t>Doi</t>
   </si>
@@ -940,6 +940,86 @@
   </si>
   <si>
     <t>PMC7454332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+This study aimed to observe the efficacy of corticosteroids in non-severe COVID-19 pneumonia.
+Methods
+id="Par2"&gt;A retrospective study based on propensity score matching was designed to explore the effects of corticosteroids.
+ Primary outcomes included the rate of patients who developed severe disease and mortality.
+ Secondary outcomes included duration of fever, virus clearance time, length of hospital stay, and the use of antibiotics.
+Results
+id="Par3"&gt;A total of 475 patients with non-severe COVID-19 pneumonia were enrolled, 55 patients received early, low-dose, and short-term corticosteroids therapy, 420 patients received non-corticosteroids therapy.
+ Compared to the non-corticosteroids group, there was a prolonged duration of fever (median 5 vs 3 days, p &amp;lt; 0.001), virus clearance time (median 18 vs 11 days, p &amp;lt; 0.001), and length of hospital stay (median 23 vs 15 days, p &amp;lt; 0.001) in the corticosteroids group.
+ The percentages of antibiotics therapy (89.1% vs 23.6%, p &amp;lt; 0.001), use of at least two antibiotics (38.2% vs 12.7%, p = 0.002), and antifungal therapy (7.3% vs 0, p = 0.042) were higher in the corticosteroids group than those in the non-corticosteroids group.
+ Compared to the non-corticosteroids group, more patients developed severe disease (12.7% vs 1.8%, p = 0.028) in the corticosteroids group.
+ There was no significant difference between the two groups in mortality (1.8% vs 0, p = 0.315).
+Conclusion
+id="Par4"&gt;In adult patients with non-severe COVID-19 pneumonia, early, low-dose, and short-term corticosteroids therapy was associated with worse clinical outcomes.
+</t>
+  </si>
+  <si>
+    <t>[Qiang%Li%NULL%1,  Weixia%Li%NULL%1,  Yinpeng%Jin%NULL%1,  Wei%Xu%NULL%0,  Chenlu%Huang%NULL%1,  Li%Li%NULL%0,  Yuxian%Huang%NULL%1,  Qingchun%Fu%fuqingchun@shphc.org.cn%1,  Liang%Chen%chenliang@shphc.org.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+This study aimed to observe the efficacy of corticosteroids in non-severe COVID-19 pneumonia.
+Methods
+A retrospective study based on propensity score matching was designed to explore the effects of corticosteroids.
+ Primary outcomes included the rate of patients who developed severe disease and mortality.
+ Secondary outcomes included duration of fever, virus clearance time, length of hospital stay, and the use of antibiotics.
+Results
+id="Par3"&gt;A total of 475 patients with non-severe COVID-19 pneumonia were enrolled, 55 patients received early, low-dose, and short-term corticosteroids therapy, 420 patients received non-corticosteroids therapy.
+ Compared to the non-corticosteroids group, there was a prolonged duration of fever (median 5 vs 3 days, p &amp;lt; 0.001), virus clearance time (median 18 vs 11 days, p &amp;lt; 0.001), and length of hospital stay (median 23 vs 15 days, p &amp;lt; 0.001) in the corticosteroids group.
+ The percentages of antibiotics therapy (89.1% vs 23.6%, p &amp;lt; 0.001), use of at least two antibiotics (38.2% vs 12.7%, p = 0.002), and antifungal therapy (7.3% vs 0, p = 0.042) were higher in the corticosteroids group than those in the non-corticosteroids group.
+ Compared to the non-corticosteroids group, more patients developed severe disease (12.7% vs 1.8%, p = 0.028) in the corticosteroids group.
+ There was no significant difference between the two groups in mortality (1.8% vs 0, p = 0.315).
+Conclusion
+id="Par4"&gt;In adult patients with non-severe COVID-19 pneumonia, early, low-dose, and short-term corticosteroids therapy was associated with worse clinical outcomes.
+</t>
+  </si>
+  <si>
+    <t>[Qiang%Li%NULL%1,   Weixia%Li%NULL%1,   Yinpeng%Jin%NULL%1,   Wei%Xu%NULL%1,   Chenlu%Huang%NULL%1,   Li%Li%NULL%0,   Yuxian%Huang%NULL%1,   Qingchun%Fu%fuqingchun@shphc.org.cn%1,   Liang%Chen%chenliang@shphc.org.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+This study aimed to observe the efficacy of corticosteroids in non-severe COVID-19 pneumonia.
+Methods
+A retrospective study based on propensity score matching was designed to explore the effects of corticosteroids.
+ Primary outcomes included the rate of patients who developed severe disease and mortality.
+ Secondary outcomes included duration of fever, virus clearance time, length of hospital stay, and the use of antibiotics.
+Results
+A total of 475 patients with non-severe COVID-19 pneumonia were enrolled, 55 patients received early, low-dose, and short-term corticosteroids therapy, 420 patients received non-corticosteroids therapy.
+ Compared to the non-corticosteroids group, there was a prolonged duration of fever (median 5 vs 3 days, p &amp;lt; 0.001), virus clearance time (median 18 vs 11 days, p &amp;lt; 0.001), and length of hospital stay (median 23 vs 15 days, p &amp;lt; 0.001) in the corticosteroids group.
+ The percentages of antibiotics therapy (89.1% vs 23.6%, p &amp;lt; 0.001), use of at least two antibiotics (38.2% vs 12.7%, p = 0.002), and antifungal therapy (7.3% vs 0, p = 0.042) were higher in the corticosteroids group than those in the non-corticosteroids group.
+ Compared to the non-corticosteroids group, more patients developed severe disease (12.7% vs 1.8%, p = 0.028) in the corticosteroids group.
+ There was no significant difference between the two groups in mortality (1.8% vs 0, p = 0.315).
+Conclusion
+id="Par4"&gt;In adult patients with non-severe COVID-19 pneumonia, early, low-dose, and short-term corticosteroids therapy was associated with worse clinical outcomes.
+</t>
+  </si>
+  <si>
+    <t>[Qiang%Li%NULL%1,    Weixia%Li%NULL%1,    Yinpeng%Jin%NULL%1,    Wei%Xu%NULL%1,    Chenlu%Huang%NULL%1,    Li%Li%NULL%2,    Yuxian%Huang%NULL%1,    Qingchun%Fu%fuqingchun@shphc.org.cn%1,    Liang%Chen%chenliang@shphc.org.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+This study aimed to observe the efficacy of corticosteroids in non-severe COVID-19 pneumonia.
+Methods
+A retrospective study based on propensity score matching was designed to explore the effects of corticosteroids.
+ Primary outcomes included the rate of patients who developed severe disease and mortality.
+ Secondary outcomes included duration of fever, virus clearance time, length of hospital stay, and the use of antibiotics.
+Results
+A total of 475 patients with non-severe COVID-19 pneumonia were enrolled, 55 patients received early, low-dose, and short-term corticosteroids therapy, 420 patients received non-corticosteroids therapy.
+ Compared to the non-corticosteroids group, there was a prolonged duration of fever (median 5 vs 3 days, p &amp;lt; 0.001), virus clearance time (median 18 vs 11 days, p &amp;lt; 0.001), and length of hospital stay (median 23 vs 15 days, p &amp;lt; 0.001) in the corticosteroids group.
+ The percentages of antibiotics therapy (89.1% vs 23.6%, p &amp;lt; 0.001), use of at least two antibiotics (38.2% vs 12.7%, p = 0.002), and antifungal therapy (7.3% vs 0, p = 0.042) were higher in the corticosteroids group than those in the non-corticosteroids group.
+ Compared to the non-corticosteroids group, more patients developed severe disease (12.7% vs 1.8%, p = 0.028) in the corticosteroids group.
+ There was no significant difference between the two groups in mortality (1.8% vs 0, p = 0.315).
+Conclusion
+In adult patients with non-severe COVID-19 pneumonia, early, low-dose, and short-term corticosteroids therapy was associated with worse clinical outcomes.
+</t>
+  </si>
+  <si>
+    <t>[Qiang%Li%NULL%1,     Weixia%Li%NULL%1,     Yinpeng%Jin%NULL%1,     Wei%Xu%NULL%2,     Chenlu%Huang%NULL%1,     Li%Li%NULL%4,     Yuxian%Huang%NULL%1,     Qingchun%Fu%fuqingchun@shphc.org.cn%1,     Liang%Chen%chenliang@shphc.org.cn%1]</t>
   </si>
 </sst>
 </file>
@@ -2240,10 +2320,10 @@
         <v>180</v>
       </c>
       <c r="D37" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="E37" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="F37" t="s">
         <v>183</v>

--- a/Covid_19_Dataset_and_References/References/18.xlsx
+++ b/Covid_19_Dataset_and_References/References/18.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="191">
   <si>
     <t>Doi</t>
   </si>
@@ -940,86 +940,6 @@
   </si>
   <si>
     <t>PMC7454332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-This study aimed to observe the efficacy of corticosteroids in non-severe COVID-19 pneumonia.
-Methods
-id="Par2"&gt;A retrospective study based on propensity score matching was designed to explore the effects of corticosteroids.
- Primary outcomes included the rate of patients who developed severe disease and mortality.
- Secondary outcomes included duration of fever, virus clearance time, length of hospital stay, and the use of antibiotics.
-Results
-id="Par3"&gt;A total of 475 patients with non-severe COVID-19 pneumonia were enrolled, 55 patients received early, low-dose, and short-term corticosteroids therapy, 420 patients received non-corticosteroids therapy.
- Compared to the non-corticosteroids group, there was a prolonged duration of fever (median 5 vs 3 days, p &amp;lt; 0.001), virus clearance time (median 18 vs 11 days, p &amp;lt; 0.001), and length of hospital stay (median 23 vs 15 days, p &amp;lt; 0.001) in the corticosteroids group.
- The percentages of antibiotics therapy (89.1% vs 23.6%, p &amp;lt; 0.001), use of at least two antibiotics (38.2% vs 12.7%, p = 0.002), and antifungal therapy (7.3% vs 0, p = 0.042) were higher in the corticosteroids group than those in the non-corticosteroids group.
- Compared to the non-corticosteroids group, more patients developed severe disease (12.7% vs 1.8%, p = 0.028) in the corticosteroids group.
- There was no significant difference between the two groups in mortality (1.8% vs 0, p = 0.315).
-Conclusion
-id="Par4"&gt;In adult patients with non-severe COVID-19 pneumonia, early, low-dose, and short-term corticosteroids therapy was associated with worse clinical outcomes.
-</t>
-  </si>
-  <si>
-    <t>[Qiang%Li%NULL%1,  Weixia%Li%NULL%1,  Yinpeng%Jin%NULL%1,  Wei%Xu%NULL%0,  Chenlu%Huang%NULL%1,  Li%Li%NULL%0,  Yuxian%Huang%NULL%1,  Qingchun%Fu%fuqingchun@shphc.org.cn%1,  Liang%Chen%chenliang@shphc.org.cn%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-This study aimed to observe the efficacy of corticosteroids in non-severe COVID-19 pneumonia.
-Methods
-A retrospective study based on propensity score matching was designed to explore the effects of corticosteroids.
- Primary outcomes included the rate of patients who developed severe disease and mortality.
- Secondary outcomes included duration of fever, virus clearance time, length of hospital stay, and the use of antibiotics.
-Results
-id="Par3"&gt;A total of 475 patients with non-severe COVID-19 pneumonia were enrolled, 55 patients received early, low-dose, and short-term corticosteroids therapy, 420 patients received non-corticosteroids therapy.
- Compared to the non-corticosteroids group, there was a prolonged duration of fever (median 5 vs 3 days, p &amp;lt; 0.001), virus clearance time (median 18 vs 11 days, p &amp;lt; 0.001), and length of hospital stay (median 23 vs 15 days, p &amp;lt; 0.001) in the corticosteroids group.
- The percentages of antibiotics therapy (89.1% vs 23.6%, p &amp;lt; 0.001), use of at least two antibiotics (38.2% vs 12.7%, p = 0.002), and antifungal therapy (7.3% vs 0, p = 0.042) were higher in the corticosteroids group than those in the non-corticosteroids group.
- Compared to the non-corticosteroids group, more patients developed severe disease (12.7% vs 1.8%, p = 0.028) in the corticosteroids group.
- There was no significant difference between the two groups in mortality (1.8% vs 0, p = 0.315).
-Conclusion
-id="Par4"&gt;In adult patients with non-severe COVID-19 pneumonia, early, low-dose, and short-term corticosteroids therapy was associated with worse clinical outcomes.
-</t>
-  </si>
-  <si>
-    <t>[Qiang%Li%NULL%1,   Weixia%Li%NULL%1,   Yinpeng%Jin%NULL%1,   Wei%Xu%NULL%1,   Chenlu%Huang%NULL%1,   Li%Li%NULL%0,   Yuxian%Huang%NULL%1,   Qingchun%Fu%fuqingchun@shphc.org.cn%1,   Liang%Chen%chenliang@shphc.org.cn%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-This study aimed to observe the efficacy of corticosteroids in non-severe COVID-19 pneumonia.
-Methods
-A retrospective study based on propensity score matching was designed to explore the effects of corticosteroids.
- Primary outcomes included the rate of patients who developed severe disease and mortality.
- Secondary outcomes included duration of fever, virus clearance time, length of hospital stay, and the use of antibiotics.
-Results
-A total of 475 patients with non-severe COVID-19 pneumonia were enrolled, 55 patients received early, low-dose, and short-term corticosteroids therapy, 420 patients received non-corticosteroids therapy.
- Compared to the non-corticosteroids group, there was a prolonged duration of fever (median 5 vs 3 days, p &amp;lt; 0.001), virus clearance time (median 18 vs 11 days, p &amp;lt; 0.001), and length of hospital stay (median 23 vs 15 days, p &amp;lt; 0.001) in the corticosteroids group.
- The percentages of antibiotics therapy (89.1% vs 23.6%, p &amp;lt; 0.001), use of at least two antibiotics (38.2% vs 12.7%, p = 0.002), and antifungal therapy (7.3% vs 0, p = 0.042) were higher in the corticosteroids group than those in the non-corticosteroids group.
- Compared to the non-corticosteroids group, more patients developed severe disease (12.7% vs 1.8%, p = 0.028) in the corticosteroids group.
- There was no significant difference between the two groups in mortality (1.8% vs 0, p = 0.315).
-Conclusion
-id="Par4"&gt;In adult patients with non-severe COVID-19 pneumonia, early, low-dose, and short-term corticosteroids therapy was associated with worse clinical outcomes.
-</t>
-  </si>
-  <si>
-    <t>[Qiang%Li%NULL%1,    Weixia%Li%NULL%1,    Yinpeng%Jin%NULL%1,    Wei%Xu%NULL%1,    Chenlu%Huang%NULL%1,    Li%Li%NULL%2,    Yuxian%Huang%NULL%1,    Qingchun%Fu%fuqingchun@shphc.org.cn%1,    Liang%Chen%chenliang@shphc.org.cn%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-This study aimed to observe the efficacy of corticosteroids in non-severe COVID-19 pneumonia.
-Methods
-A retrospective study based on propensity score matching was designed to explore the effects of corticosteroids.
- Primary outcomes included the rate of patients who developed severe disease and mortality.
- Secondary outcomes included duration of fever, virus clearance time, length of hospital stay, and the use of antibiotics.
-Results
-A total of 475 patients with non-severe COVID-19 pneumonia were enrolled, 55 patients received early, low-dose, and short-term corticosteroids therapy, 420 patients received non-corticosteroids therapy.
- Compared to the non-corticosteroids group, there was a prolonged duration of fever (median 5 vs 3 days, p &amp;lt; 0.001), virus clearance time (median 18 vs 11 days, p &amp;lt; 0.001), and length of hospital stay (median 23 vs 15 days, p &amp;lt; 0.001) in the corticosteroids group.
- The percentages of antibiotics therapy (89.1% vs 23.6%, p &amp;lt; 0.001), use of at least two antibiotics (38.2% vs 12.7%, p = 0.002), and antifungal therapy (7.3% vs 0, p = 0.042) were higher in the corticosteroids group than those in the non-corticosteroids group.
- Compared to the non-corticosteroids group, more patients developed severe disease (12.7% vs 1.8%, p = 0.028) in the corticosteroids group.
- There was no significant difference between the two groups in mortality (1.8% vs 0, p = 0.315).
-Conclusion
-In adult patients with non-severe COVID-19 pneumonia, early, low-dose, and short-term corticosteroids therapy was associated with worse clinical outcomes.
-</t>
-  </si>
-  <si>
-    <t>[Qiang%Li%NULL%1,     Weixia%Li%NULL%1,     Yinpeng%Jin%NULL%1,     Wei%Xu%NULL%2,     Chenlu%Huang%NULL%1,     Li%Li%NULL%4,     Yuxian%Huang%NULL%1,     Qingchun%Fu%fuqingchun@shphc.org.cn%1,     Liang%Chen%chenliang@shphc.org.cn%1]</t>
   </si>
 </sst>
 </file>
@@ -2320,10 +2240,10 @@
         <v>180</v>
       </c>
       <c r="D37" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="F37" t="s">
         <v>183</v>

--- a/Covid_19_Dataset_and_References/References/18.xlsx
+++ b/Covid_19_Dataset_and_References/References/18.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="227">
   <si>
     <t>Doi</t>
   </si>
@@ -940,6 +940,114 @@
   </si>
   <si>
     <t>PMC7454332</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,  Bohan%Yang%NULL%1,  Qianwen%Li%NULL%1,  Lu%Wen%NULL%1,  Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%2,  Zhiguo%Zhang%NULL%2,  Zhiguo%Zhang%NULL%0,  Muqing%Yu%NULL%1,  Yu%Tao%NULL%1,  Min%Xie%xie_m@126.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Jianfeng%Wu%NULL%1,  Jianqiang%Huang%NULL%1,  Guochao%Zhu%NULL%1,  Yihao%Liu%NULL%1,  Han%Xiao%NULL%1,  Qian%Zhou%NULL%1,  Xiang%Si%NULL%1,  Hui%Yi%NULL%1,  Cuiping%Wang%NULL%1,  Daya%Yang%NULL%1,  Shuling%Chen%NULL%1,  Xin%Liu%NULL%1,  Zelong%Liu%NULL%1,  Qiongya%Wang%NULL%1,  Qingquan%Lv%NULL%1,  Ying%Huang%NULL%1,  Yang%Yu%NULL%1,  Xiangdong%Guan%NULL%1,  Yanbing%Li%NULL%1,  Krishnarajah%Nirantharakumar%NULL%2,  KarKeung%Cheng%NULL%1,  Sui%Peng%pengsui@vip.163.com%1,  Haipeng%Xiao%xiaohp@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kaijin%Xu%NULL%1,  Yanfei%Chen%NULL%1,  Jing%Yuan%NULL%2,  Ping%Yi%NULL%1,  Cheng%Ding%NULL%1,  Wenrui%Wu%NULL%2,  Yongtao%Li%NULL%1,  Qin%Ni%NULL%1,  Rongrong%Zou%NULL%1,  Xiaohe%Li%NULL%1,  Min%Xu%NULL%1,  Ying%Zhang%NULL%1,  Hong%Zhao%NULL%1,  Xuan%Zhang%NULL%1,  Liang%Yu%NULL%1,  Junwei%Su%NULL%1,  Guanjing%Lang%NULL%1,  Jun%Liu%NULL%2,  Xiaoxin%Wu%NULL%1,  Yongzheng%Guo%NULL%1,  Jingjing%Tao%NULL%1,  Ding%Shi%NULL%1,  Ling%Yu%NULL%1,  Qing%Cao%NULL%1,  Bing%Ruan%NULL%1,  Lei%Liu%NULL%4,  Zhaoqin%Wang%NULL%2,  Yan%Xu%NULL%1,  Yingxia%Liu%NULL%0,  Jifang%Sheng%NULL%3,  Lanjuan%Li%ljli@zju.edu.cn%4]</t>
+  </si>
+  <si>
+    <t>[Stephen Su%Yang%stephen.yang@mail.mcgill.ca%1,  Jed%Lipes%NULL%2,  Jed%Lipes%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%2,  Shirong%Li%NULL%1,  Lingling%Pan%NULL%1,  Boris%Tefsen%NULL%1,  Yeshan%Li%NULL%1,  Neil%French%NULL%1,  Liyun%Chen%NULL%1,  Gang%Yang%NULL%1,  Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Salton%NULL%1,  Paola%Confalonieri%NULL%1,  G Umberto%Meduri%NULL%1,  Pierachille%Santus%NULL%1,  Sergio%Harari%NULL%1,  Raffaele%Scala%NULL%1,  Simone%Lanini%NULL%1,  Valentina%Vertui%NULL%1,  Tiberio%Oggionni%NULL%1,  Antonella%Caminati%NULL%1,  Vincenzo%Patruno%NULL%1,  Mario%Tamburrini%NULL%1,  Alessandro%Scartabellati%NULL%1,  Mara%Parati%NULL%1,  Massimiliano%Villani%NULL%1,  Dejan%Radovanovic%NULL%1,  Sara%Tomassetti%NULL%1,  Claudia%Ravaglia%NULL%1,  Venerino%Poletti%NULL%1,  Andrea%Vianello%NULL%1,  Anna Talia%Gaccione%NULL%1,  Luca%Guidelli%NULL%1,  Rita%Raccanelli%NULL%1,  Paolo%Lucernoni%NULL%1,  Donato%Lacedonia%NULL%1,  Maria Pia%Foschino Barbaro%NULL%1,  Stefano%Centanni%NULL%1,  Michele%Mondoni%NULL%1,  Matteo%Davì%NULL%1,  Alberto%Fantin%NULL%1,  Xueyuan%Cao%NULL%1,  Lucio%Torelli%NULL%1,  Antonella%Zucchetto%NULL%1,  Marcella%Montico%NULL%1,  Annalisa%Casarin%NULL%1,  Micaela%Romagnoli%NULL%1,  Stefano%Gasparini%NULL%1,  Martina%Bonifazi%NULL%1,  Pierlanfranco%D’Agaro%NULL%1,  Alessandro%Marcello%NULL%1,  Danilo%Licastro%NULL%1,  Barbara%Ruaro%NULL%1,  Maria Concetta%Volpe%NULL%1,  Reba%Umberger%NULL%1,  Marco%Confalonieri%mconfalonieri@units.it%1]</t>
+  </si>
+  <si>
+    <t>[Yinzhong%Shen%NULL%2,  Fang%Zheng%NULL%2,  Fang%Zheng%NULL%0,  Danfeng%Sun%NULL%1,  Yun%Ling%NULL%5,  Jun%Chen%NULL%2,  Feng%Li%NULL%3,  Feng%Li%NULL%0,  Tao%Li%NULL%3,  Zhiping%Qian%NULL%2,  Yuyi%Zhang%NULL%2,  Qingnian%Xu%NULL%2,  Li%Liu%NULL%2,  Qin%Huang%NULL%1,  Fei%Shan%NULL%2,  Lie%Xu%NULL%1,  Jun%Wu%NULL%1,  Zhaoqin%Zhu%NULL%1,  Zhigang%Song%NULL%2,  Shenyang%Li%NULL%1,  Yuxin%Shi%NULL%4,  Jianliang%Zhang%NULL%1,  Xueyun%Wu%NULL%1,  Joshua B.%Mendelsohn%NULL%2,  Joshua B.%Mendelsohn%NULL%0,  Tongyu%Zhu%NULL%2,  Hongzhou%Lu%NULL%5]</t>
+  </si>
+  <si>
+    <t>[José Luis%Callejas Rubio%jlcalleja@telefonica.net%1,  Juan de Dios%Luna del Castillo%NULL%1,  Javier%de la Hera Fernández%NULL%1,  Emilio%Guirao Arrabal%NULL%1,  Manuel%Colmenero Ruiz%NULL%1,  Norberto%Ortego Centeno%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Ding%Shi%NULL%1,  Wenrui%Wu%NULL%0,  Qing%Wang%NULL%1,  Kaijin%Xu%NULL%1,  Jiaojiao%Xie%NULL%1,  Jingjing%Wu%NULL%1,  Longxian%Lv%NULL%1,  Jifang%Sheng%NULL%0,  Jing%Guo%NULL%1,  Kaicen%Wang%NULL%1,  Daiqiong%Fang%NULL%1,  Yating%Li%NULL%1,  Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%2,  Weiwei%Jiang%NULL%1,  Qi%He%NULL%1,  Cheng%Wang%NULL%1,  Baoju%Wang%NULL%1,  Pan%Zhou%NULL%1,  Nianguo%Dong%dongnianguo63@gmail.com%1,  Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%3,  Xian%Zhou%NULL%1,  Tao%Li%NULL%0,  Shiji%Chan%NULL%1,  Yiqi%Yu%NULL%1,  Jing-Wen%Ai%NULL%1,  Haocheng%Zhang%NULL%1,  Feng%Sun%NULL%1,  Qiran%Zhang%NULL%1,  Lei%Zhu%NULL%1,  Lingyun%Shao%NULL%1,  Bin%Xu%NULL%1,  Wenhong%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Liu%NULL%1,  Xiaobin%Zheng%NULL%1,  Yiying%Huang%NULL%1,  Hong%Shan%shanhong@mail.sysu.edu.cn%5,  Jin%Huang%hjin@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiang-Hong%Yang%NULL%1,  Ran-Ran%Li%NULL%1,  Ren-Hua%Sun%NULL%1,  Jiao%Liu%NULL%1,  De-Chang%Chen%NULL%1,  Peng%Lyu%NULL%2,  Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%2,  Taige%Chen%NULL%1,  Yang%Wang%NULL%1,  Jun%Wang%NULL%1,  Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yiming%Ma%NULL%1,  Huihui%Zeng%NULL%1,  Zijie%Zhan%NULL%1,  Huanhuan%Lu%NULL%1,  Zihang%Zeng%NULL%1,  Chenjie%He%NULL%1,  Xiangming%Liu%NULL%1,  Chen%Chen%NULL%1,  Qingwu%Qin%NULL%1,  Jia%He%NULL%1,  Zhiguo%Zhou%NULL%1,  Peng%Huang%NULL%2,  Mingyan%Jiang%NULL%1,  Dingding%Deng%NULL%1,  Xin%Liao%NULL%1,  Zhi%Xiang%NULL%1,  Xiaoying%Huang%NULL%1,  Yan%Chen%NULL%1,  Ping%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Monil%Majmundar%NULL%1,  Tikal%Kansara%NULL%2,  Tikal%Kansara%NULL%0,  Joanna Marta%Lenik%NULL%1,  Hansang%Park%NULL%1,  Kuldeep%Ghosh%NULL%1,  Rajkumar%Doshi%NULL%1,  Palak%Shah%NULL%1,  Ashish%Kumar%NULL%1,  Hossam%Amin%NULL%2,  Hossam%Amin%NULL%0,  Shobhana%Chaudhari%NULL%1,  Imnett%Habtes%NULL%1,  Muhammad%Adrish%NULL%8,  Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Malgorzata%Mikulska%NULL%1,  Laura Ambra%Nicolini%NULL%2,  Laura Ambra%Nicolini%NULL%0,  Alessio%Signori%NULL%1,  Antonio%Di Biagio%NULL%1,  Chiara%Sepulcri%NULL%2,  Chiara%Sepulcri%NULL%0,  Chiara%Russo%NULL%1,  Silvia%Dettori%NULL%1,  Marco%Berruti%NULL%1,  Maria Pia%Sormani%NULL%1,  Daniele Roberto%Giacobbe%NULL%1,  Antonio%Vena%NULL%2,  Antonio%Vena%NULL%0,  Andrea%De Maria%NULL%1,  Chiara%Dentone%NULL%1,  Lucia%Taramasso%NULL%1,  Michele%Mirabella%NULL%2,  Michele%Mirabella%NULL%0,  Laura%Magnasco%NULL%1,  Sara%Mora%NULL%1,  Emanuele%Delfino%NULL%1,  Federica%Toscanini%NULL%1,  Elisa%Balletto%NULL%1,  Anna Ida%Alessandrini%NULL%1,  Federico%Baldi%NULL%1,  Federica%Briano%NULL%1,  Marco%Camera%NULL%1,  Ferdinando%Dodi%NULL%1,  Antonio%Ferrazin%NULL%1,  Laura%Labate%NULL%1,  Giovanni%Mazzarello%NULL%1,  Rachele%Pincino%NULL%1,  Federica%Portunato%NULL%1,  Stefania%Tutino%NULL%1,  Emanuela%Barisione%NULL%1,  Bianca%Bruzzone%NULL%1,  Andrea%Orsi%NULL%1,  Eva%Schenone%NULL%1,  Nirmala%Rosseti%NULL%1,  Elisabetta%Sasso%NULL%1,  Giorgio%Da Rin%NULL%1,  Paolo%Pelosi%NULL%1,  Sabrina%Beltramini%NULL%1,  Mauro%Giacomini%NULL%1,  Giancarlo%Icardi%NULL%2,  Giancarlo%Icardi%NULL%0,  Angelo%Gratarola%NULL%1,  Matteo%Bassetti%NULL%1,  Muhammad%Adrish%NULL%0,  Muhammad%Adrish%NULL%0,  Muhammad%Adrish%NULL%0,  Muhammad%Adrish%NULL%0,  Muhammad%Adrish%NULL%0,  Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mao%Huang%NULL%2,  Yi%Yang%NULL%1,  Futai%Shang%NULL%1,  Yishan%Zheng%NULL%1,  Wenjing%Zhao%NULL%1,  Liang%Luo%NULL%1,  Xudong%Han%NULL%1,  Aihua%Lin%NULL%1,  Hongsheng%Zhao%NULL%1,  Qing%Gu%NULL%1,  Yi%Shi%NULL%1,  Jun%Li%NULL%1,  Xingxiang%Xu%NULL%1,  Kexi%Liu%NULL%1,  YiJun%Deng%NULL%1,  Quan%Cao%NULL%1,  Weiwei%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%4,  Yun%Ling%NULL%0,  Yun%Ling%NULL%0,  Tao%Bai%NULL%2,  Tao%Bai%NULL%0,  Yusang%Xie%NULL%1,  Jie%Huang%NULL%2,  Jie%Huang%NULL%0,  Jian%Li%NULL%1,  Weining%Xiong%NULL%1,  Dexiang%Yang%NULL%1,  Rong%Chen%NULL%2,  Fangying%Lu%NULL%1,  Yunfei%Lu%NULL%1,  Xuhui%Liu%NULL%1,  Yuqing%Chen%NULL%2,  Yuqing%Chen%NULL%0,  Xin%Li%NULL%1,  Yong%Li%NULL%1,  Hanssa Dwarka%Summah%NULL%1,  Huihuang%Lin%NULL%1,  Jiayang%Yan%NULL%1,  Min%Zhou%NULL%5,  Hongzhou%Lu%NULL%0,  Hongzhou%Lu%NULL%0,  Jieming%Qu%NULL%5,  Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana%Fernández-Cruz%NULL%1,  Belén%Ruiz-Antorán%NULL%2,  Belén%Ruiz-Antorán%NULL%0,  Ana%Muñoz-Gómez%NULL%1,  Aránzazu%Sancho-López%NULL%1,  Patricia%Mills-Sánchez%NULL%1,  Gustavo Adolfo%Centeno-Soto%NULL%1,  Silvia%Blanco-Alonso%NULL%1,  Laura%Javaloyes-Garachana%NULL%1,  Amy%Galán-Gómez%NULL%1,  Ángela%Valencia-Alijo%NULL%1,  Javier%Gómez-Irusta%NULL%1,  Concepción%Payares-Herrera%NULL%1,  Ignacio%Morrás-Torre%NULL%1,  Enrique%Sánchez-Chica%NULL%1,  Laura%Delgado-Téllez-de-Cepeda%NULL%1,  Alejandro%Callejas-Díaz%NULL%1,  Antonio%Ramos-Martínez%NULL%1,  Elena%Múñez-Rubio%NULL%2,  Elena%Múñez-Rubio%NULL%0,  Cristina%Avendaño-Solá%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmine%Gazzaruso%c.gazzaruso@gmail.com%1,  Nicoletta%Carlo Stella%NULL%2,  Nicoletta%Carlo Stella%NULL%0,  Giuseppe%Mariani%NULL%1,  Anna%Tamburlini%NULL%1,  Pietro%Garini%NULL%1,  Elena%Freddi%NULL%1,  Carolina%Ravetto%NULL%1,  Adriana%Coppola%NULL%1,  Pietro%Gallotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Hu%NULL%2,  Tingping%Wang%NULL%2,  Zhimin%Hu%NULL%2,  Xuan%Wang%NULL%2,  Zhengbin%Zhang%NULL%2,  Li%Li%NULL%9,  Peng%Peng%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Yan%Hu%NULL%0,  Tingping%Wang%NULL%0,  Zhimin%Hu%NULL%0,  Xuan%Wang%NULL%0,  Zhengbin%Zhang%NULL%0,  Li%Li%NULL%0,  Peng%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,  Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%2,  Wenlin%Cheng%NULL%2,  Lei%Yu%NULL%2,  Ya-Kun%Liu%NULL%2,  Xiaoyong%Hu%NULL%2,  Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Firouzé%Bani-Sadr%NULL%1,  Maxime%Hentzien%NULL%1,  Madeline%Pascard%NULL%1,  Yohan%N'Guyen%NULL%1,  Amélie%Servettaz%NULL%1,  Laurent%Andreoletti%NULL%1,  Lukshe%Kanagaratnam%NULL%1,  Damien%Jolly%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%2,  Austin R%Morrison%NULL%1,  Amit%Vahia%NULL%1,  Zachary R%Smith%NULL%1,  Zohra%Chaudhry%NULL%1,  Pallavi%Bhargava%NULL%1,  Joseph%Miller%NULL%1,  Rachel M%Kenney%NULL%1,  George%Alangaden%NULL%1,  Mayur S%Ramesh%mramesh1@hfhs.org%1,  Varidhi%Nauriyal%NULL%1,  Jayanth%Lakshmikanth%NULL%1,  Asif%Abdul Hamed%NULL%1,  Owais%Nadeem%NULL%1,  Kristin%Griebe%NULL%1,  Joseph M%Johnson%NULL%1,  Patrick%Bradley%NULL%1,  Junior%Uduman%NULL%1,  Sara%Hegab%NULL%1,  Jennifer%Swiderek%NULL%1,  Amanda%Godfrey%NULL%1,  Jeffrey%Jennings%NULL%1,  Jayna%Gardner-Gray%NULL%1,  Adam%Ackerman%NULL%1,  Jonathan%Lezotte%NULL%1,  Joseph%Ruhala%NULL%1,  Linoj%Samuel%NULL%1,  Robert J%Tibbetts%NULL%1,  Indira%Brar%NULL%1,  John%McKinnon%NULL%1,  Geehan%Suleyman%NULL%1,  Nicholas%Yared%NULL%1,  Erica%Herc%NULL%1,  Jonathan%Williams%NULL%1,  Odaliz Abreu%Lanfranco%NULL%1,  Anne%Chen%NULL%1,  Marcus%Zervos%NULL%1,  Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tomasz%Chroboczek%tchroboczek@gmail.com%1,  Marie%Lacoste%NULL%2,  Marie%Lacoste%NULL%0,  Chloe%Wackenheim%NULL%1,  Thibaut%Challan-Belval%NULL%1,  Benjamin%Amar%NULL%1,  Thomas%Boisson%NULL%1,  Jason%Hubac%NULL%1,  Dominique%Leduc%NULL%1,  Colleen%Masse%NULL%1,  Victor%Dechaene%NULL%1,  Laetitia%Touihri-Maximin%NULL%1,  Sandrine%Megessier%NULL%1,  Camille%Lassale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christiane Maria Prado%Jeronimo%NULL%2,  Maria Eduarda Leão%Farias%NULL%1,  Fernando Fonseca Almeida%Val%NULL%1,  Vanderson Souza%Sampaio%NULL%1,  Marcia Almeida Araújo%Alexandre%NULL%1,  Gisely Cardoso%Melo%NULL%1,  Izabella Picinin%Safe%NULL%1,  Mayla Gabriela Silva%Borba%NULL%1,  Rebeca Linhares%Abreu-Netto%NULL%1,  Alex Bezerra Silva%Maciel%NULL%1,  João Ricardo Silva%Neto%NULL%1,  Lucas Barbosa%Oliveira%NULL%1,  Erick Frota Gomes%Figueiredo%NULL%1,  Kelry Mazurega Oliveira%Dinelly%NULL%1,  Maria Gabriela de Almeida%Rodrigues%NULL%1,  Marcelo%Brito%NULL%1,  Maria Paula Gomes%Mourão%NULL%1,  Guilherme Augusto%Pivoto João%NULL%1,  Ludhmila Abrahão%Hajjar%NULL%1,  Quique%Bassat%NULL%1,  Gustavo Adolfo Sierra%Romero%NULL%1,  Felipe Gomes%Naveca%NULL%1,  Heline Lira%Vasconcelos%NULL%1,  Michel de Araújo%Tavares%NULL%1,  José Diego%Brito-Sousa%NULL%1,  Fabio Trindade Maranhão%Costa%NULL%1,  Maurício Lacerda%Nogueira%NULL%1,  Djane%Baía-da-Silva%NULL%1,  Mariana Simão%Xavier%NULL%1,  Wuelton Marcelo%Monteiro%NULL%1,  Marcus Vinícius Guimarães%Lacerda%marcuslacerda.br@gmail.com%1,  NULL%NULL%NULL%22]</t>
+  </si>
+  <si>
+    <t>[Qiang%Li%NULL%1,  Weixia%Li%NULL%1,  Yinpeng%Jin%NULL%1,  Wei%Xu%NULL%1,  Chenlu%Huang%NULL%1,  Li%Li%NULL%0,  Yuxian%Huang%NULL%1,  Qingchun%Fu%fuqingchun@shphc.org.cn%1,  Liang%Chen%chenliang@shphc.org.cn%1]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%2,  Zhigang%Hu%NULL%1,  Xinyu%Song%songxinyu@ctgu.edu.cn%2,  Xinyu%Song%songxinyu@ctgu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Brian C%Nelson%brn9016@nyp.org%1,  Justin%Laracy%NULL%1,  Sherif%Shoucri%NULL%1,  Donald%Dietz%NULL%1,  Jason%Zucker%NULL%1,  Nina%Patel%NULL%1,  Magdalena E%Sobieszczyk%NULL%2,  Christine J%Kubin%NULL%1,  Angela%Gomez-Simmonds%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1318,6 +1426,9 @@
       <c r="H1" t="s">
         <v>50</v>
       </c>
+      <c r="I1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1344,6 +1455,9 @@
       <c r="H2" t="s">
         <v>51</v>
       </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -1359,7 +1473,7 @@
         <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
@@ -1369,6 +1483,9 @@
       </c>
       <c r="H3" t="s">
         <v>51</v>
+      </c>
+      <c r="I3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="4">
@@ -1385,7 +1502,7 @@
         <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>194</v>
       </c>
       <c r="F4" t="s">
         <v>60</v>
@@ -1395,6 +1512,9 @@
       </c>
       <c r="H4" t="s">
         <v>61</v>
+      </c>
+      <c r="I4" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="5">
@@ -1411,7 +1531,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="F5" t="s">
         <v>65</v>
@@ -1421,6 +1541,9 @@
       </c>
       <c r="H5" t="s">
         <v>51</v>
+      </c>
+      <c r="I5" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="6">
@@ -1437,7 +1560,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="F6" t="s">
         <v>69</v>
@@ -1447,6 +1570,9 @@
       </c>
       <c r="H6" t="s">
         <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="7">
@@ -1463,7 +1589,7 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -1473,6 +1599,9 @@
       </c>
       <c r="H7" t="s">
         <v>73</v>
+      </c>
+      <c r="I7" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="8">
@@ -1489,7 +1618,7 @@
         <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="F8" t="s">
         <v>77</v>
@@ -1499,6 +1628,9 @@
       </c>
       <c r="H8" t="s">
         <v>78</v>
+      </c>
+      <c r="I8" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="9">
@@ -1515,7 +1647,7 @@
         <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="F9" t="s">
         <v>82</v>
@@ -1525,6 +1657,9 @@
       </c>
       <c r="H9" t="s">
         <v>83</v>
+      </c>
+      <c r="I9" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="10">
@@ -1541,7 +1676,7 @@
         <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>201</v>
       </c>
       <c r="F10" t="s">
         <v>87</v>
@@ -1551,6 +1686,9 @@
       </c>
       <c r="H10" t="s">
         <v>51</v>
+      </c>
+      <c r="I10" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="11">
@@ -1567,7 +1705,7 @@
         <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>202</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -1577,6 +1715,9 @@
       </c>
       <c r="H11" t="s">
         <v>92</v>
+      </c>
+      <c r="I11" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="12">
@@ -1593,7 +1734,7 @@
         <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="F12" t="s">
         <v>96</v>
@@ -1603,6 +1744,9 @@
       </c>
       <c r="H12" t="s">
         <v>97</v>
+      </c>
+      <c r="I12" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="13">
@@ -1619,7 +1763,7 @@
         <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="F13" t="s">
         <v>100</v>
@@ -1629,6 +1773,9 @@
       </c>
       <c r="H13" t="s">
         <v>101</v>
+      </c>
+      <c r="I13" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="14">
@@ -1645,7 +1792,7 @@
         <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>206</v>
       </c>
       <c r="F14" t="s">
         <v>105</v>
@@ -1655,6 +1802,9 @@
       </c>
       <c r="H14" t="s">
         <v>51</v>
+      </c>
+      <c r="I14" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="15">
@@ -1671,7 +1821,7 @@
         <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="F15" t="s">
         <v>108</v>
@@ -1681,6 +1831,9 @@
       </c>
       <c r="H15" t="s">
         <v>51</v>
+      </c>
+      <c r="I15" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="16">
@@ -1708,6 +1861,9 @@
       <c r="H16" t="s">
         <v>51</v>
       </c>
+      <c r="I16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
@@ -1723,7 +1879,7 @@
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>208</v>
       </c>
       <c r="F17" t="s">
         <v>111</v>
@@ -1733,6 +1889,9 @@
       </c>
       <c r="H17" t="s">
         <v>51</v>
+      </c>
+      <c r="I17" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="18">
@@ -1749,7 +1908,7 @@
         <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="F18" t="s">
         <v>114</v>
@@ -1759,6 +1918,9 @@
       </c>
       <c r="H18" t="s">
         <v>115</v>
+      </c>
+      <c r="I18" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="19">
@@ -1775,7 +1937,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -1785,6 +1947,9 @@
       </c>
       <c r="H19" t="s">
         <v>120</v>
+      </c>
+      <c r="I19" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="20">
@@ -1801,7 +1966,7 @@
         <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -1811,6 +1976,9 @@
       </c>
       <c r="H20" t="s">
         <v>125</v>
+      </c>
+      <c r="I20" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="21">
@@ -1827,7 +1995,7 @@
         <v>127</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="F21" t="s">
         <v>129</v>
@@ -1837,6 +2005,9 @@
       </c>
       <c r="H21" t="s">
         <v>130</v>
+      </c>
+      <c r="I21" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="22">
@@ -1853,7 +2024,7 @@
         <v>132</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="F22" t="s">
         <v>134</v>
@@ -1863,6 +2034,9 @@
       </c>
       <c r="H22" t="s">
         <v>135</v>
+      </c>
+      <c r="I22" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="23">
@@ -1879,7 +2053,7 @@
         <v>137</v>
       </c>
       <c r="E23" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="F23" t="s">
         <v>139</v>
@@ -1889,6 +2063,9 @@
       </c>
       <c r="H23" t="s">
         <v>140</v>
+      </c>
+      <c r="I23" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="24">
@@ -1905,7 +2082,7 @@
         <v>142</v>
       </c>
       <c r="E24" t="s">
-        <v>143</v>
+        <v>215</v>
       </c>
       <c r="F24" t="s">
         <v>144</v>
@@ -1915,6 +2092,9 @@
       </c>
       <c r="H24" t="s">
         <v>145</v>
+      </c>
+      <c r="I24" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="25">
@@ -1931,7 +2111,7 @@
         <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="F25" t="s">
         <v>148</v>
@@ -1941,6 +2121,9 @@
       </c>
       <c r="H25" t="s">
         <v>149</v>
+      </c>
+      <c r="I25" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="26">
@@ -1957,7 +2140,7 @@
         <v>151</v>
       </c>
       <c r="E26" t="s">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="F26" t="s">
         <v>153</v>
@@ -1967,6 +2150,9 @@
       </c>
       <c r="H26" t="s">
         <v>154</v>
+      </c>
+      <c r="I26" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="27">
@@ -1994,6 +2180,9 @@
       <c r="H27" t="s">
         <v>51</v>
       </c>
+      <c r="I27" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -2009,7 +2198,7 @@
         <v>151</v>
       </c>
       <c r="E28" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="F28" t="s">
         <v>153</v>
@@ -2019,6 +2208,9 @@
       </c>
       <c r="H28" t="s">
         <v>154</v>
+      </c>
+      <c r="I28" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="29">
@@ -2035,7 +2227,7 @@
         <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="F29" t="s">
         <v>163</v>
@@ -2045,6 +2237,9 @@
       </c>
       <c r="H29" t="s">
         <v>51</v>
+      </c>
+      <c r="I29" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="30">
@@ -2072,6 +2267,9 @@
       <c r="H30" t="s">
         <v>51</v>
       </c>
+      <c r="I30" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -2087,7 +2285,7 @@
         <v>165</v>
       </c>
       <c r="E31" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="F31" t="s">
         <v>167</v>
@@ -2097,6 +2295,9 @@
       </c>
       <c r="H31" t="s">
         <v>51</v>
+      </c>
+      <c r="I31" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="32">
@@ -2124,6 +2325,9 @@
       <c r="H32" t="s">
         <v>51</v>
       </c>
+      <c r="I32" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="16" t="s">
@@ -2139,7 +2343,7 @@
         <v>169</v>
       </c>
       <c r="E33" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="F33" t="s">
         <v>171</v>
@@ -2149,6 +2353,9 @@
       </c>
       <c r="H33" t="s">
         <v>172</v>
+      </c>
+      <c r="I33" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="34">
@@ -2165,7 +2372,7 @@
         <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="F34" t="s">
         <v>175</v>
@@ -2175,6 +2382,9 @@
       </c>
       <c r="H34" t="s">
         <v>51</v>
+      </c>
+      <c r="I34" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="35">
@@ -2202,6 +2412,9 @@
       <c r="H35" t="s">
         <v>51</v>
       </c>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -2217,7 +2430,7 @@
         <v>177</v>
       </c>
       <c r="E36" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="F36" t="s">
         <v>179</v>
@@ -2227,6 +2440,9 @@
       </c>
       <c r="H36" t="s">
         <v>51</v>
+      </c>
+      <c r="I36" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="37">
@@ -2243,7 +2459,7 @@
         <v>181</v>
       </c>
       <c r="E37" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="F37" t="s">
         <v>183</v>
@@ -2253,6 +2469,9 @@
       </c>
       <c r="H37" t="s">
         <v>51</v>
+      </c>
+      <c r="I37" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="38">
@@ -2269,7 +2488,7 @@
         <v>58</v>
       </c>
       <c r="E38" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="F38" t="s">
         <v>186</v>
@@ -2279,6 +2498,9 @@
       </c>
       <c r="H38" t="s">
         <v>51</v>
+      </c>
+      <c r="I38" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="39">
@@ -2295,7 +2517,7 @@
         <v>188</v>
       </c>
       <c r="E39" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="F39" t="s">
         <v>190</v>
@@ -2305,6 +2527,9 @@
       </c>
       <c r="H39" t="s">
         <v>51</v>
+      </c>
+      <c r="I39" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="40">
@@ -2331,6 +2556,9 @@
       </c>
       <c r="H40" t="s">
         <v>51</v>
+      </c>
+      <c r="I40" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/18.xlsx
+++ b/Covid_19_Dataset_and_References/References/18.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="268">
   <si>
     <t>Doi</t>
   </si>
@@ -1048,6 +1048,162 @@
   </si>
   <si>
     <t>[Brian C%Nelson%brn9016@nyp.org%1,  Justin%Laracy%NULL%1,  Sherif%Shoucri%NULL%1,  Donald%Dietz%NULL%1,  Jason%Zucker%NULL%1,  Nina%Patel%NULL%1,  Magdalena E%Sobieszczyk%NULL%2,  Christine J%Kubin%NULL%1,  Angela%Gomez-Simmonds%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,   Bohan%Yang%NULL%1,   Qianwen%Li%NULL%1,   Lu%Wen%NULL%1,   Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%2,   Zhiguo%Zhang%NULL%0,   Zhiguo%Zhang%NULL%0,   Muqing%Yu%NULL%0,   Yu%Tao%NULL%0,   Min%Xie%xie_m@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Jianfeng%Wu%NULL%1,   Jianqiang%Huang%NULL%1,   Guochao%Zhu%NULL%1,   Yihao%Liu%NULL%1,   Han%Xiao%NULL%1,   Qian%Zhou%NULL%1,   Xiang%Si%NULL%1,   Hui%Yi%NULL%1,   Cuiping%Wang%NULL%1,   Daya%Yang%NULL%1,   Shuling%Chen%NULL%1,   Xin%Liu%NULL%0,   Zelong%Liu%NULL%1,   Qiongya%Wang%NULL%1,   Qingquan%Lv%NULL%1,   Ying%Huang%NULL%1,   Yang%Yu%NULL%1,   Xiangdong%Guan%NULL%1,   Yanbing%Li%NULL%1,   Krishnarajah%Nirantharakumar%NULL%2,   KarKeung%Cheng%NULL%1,   Sui%Peng%pengsui@vip.163.com%1,   Haipeng%Xiao%xiaohp@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kaijin%Xu%NULL%1,   Yanfei%Chen%NULL%1,   Jing%Yuan%NULL%0,   Ping%Yi%NULL%1,   Cheng%Ding%NULL%1,   Wenrui%Wu%NULL%2,   Yongtao%Li%NULL%1,   Qin%Ni%NULL%1,   Rongrong%Zou%NULL%1,   Xiaohe%Li%NULL%1,   Min%Xu%NULL%1,   Ying%Zhang%NULL%1,   Hong%Zhao%NULL%1,   Xuan%Zhang%NULL%1,   Liang%Yu%NULL%1,   Junwei%Su%NULL%1,   Guanjing%Lang%NULL%1,   Jun%Liu%NULL%0,   Xiaoxin%Wu%NULL%1,   Yongzheng%Guo%NULL%1,   Jingjing%Tao%NULL%1,   Ding%Shi%NULL%1,   Ling%Yu%NULL%1,   Qing%Cao%NULL%1,   Bing%Ruan%NULL%1,   Lei%Liu%NULL%0,   Zhaoqin%Wang%NULL%0,   Yan%Xu%NULL%1,   Yingxia%Liu%NULL%1,   Jifang%Sheng%NULL%3,   Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Stephen Su%Yang%stephen.yang@mail.mcgill.ca%1,   Jed%Lipes%NULL%2,   Jed%Lipes%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%2,   Shirong%Li%NULL%1,   Lingling%Pan%NULL%1,   Boris%Tefsen%NULL%1,   Yeshan%Li%NULL%1,   Neil%French%NULL%1,   Liyun%Chen%NULL%1,   Gang%Yang%NULL%1,   Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Salton%NULL%1,   Paola%Confalonieri%NULL%1,   G Umberto%Meduri%NULL%1,   Pierachille%Santus%NULL%1,   Sergio%Harari%NULL%1,   Raffaele%Scala%NULL%1,   Simone%Lanini%NULL%1,   Valentina%Vertui%NULL%1,   Tiberio%Oggionni%NULL%1,   Antonella%Caminati%NULL%1,   Vincenzo%Patruno%NULL%1,   Mario%Tamburrini%NULL%1,   Alessandro%Scartabellati%NULL%0,   Mara%Parati%NULL%1,   Massimiliano%Villani%NULL%1,   Dejan%Radovanovic%NULL%1,   Sara%Tomassetti%NULL%1,   Claudia%Ravaglia%NULL%1,   Venerino%Poletti%NULL%1,   Andrea%Vianello%NULL%1,   Anna Talia%Gaccione%NULL%1,   Luca%Guidelli%NULL%1,   Rita%Raccanelli%NULL%1,   Paolo%Lucernoni%NULL%1,   Donato%Lacedonia%NULL%1,   Maria Pia%Foschino Barbaro%NULL%1,   Stefano%Centanni%NULL%1,   Michele%Mondoni%NULL%1,   Matteo%Davì%NULL%1,   Alberto%Fantin%NULL%1,   Xueyuan%Cao%NULL%1,   Lucio%Torelli%NULL%1,   Antonella%Zucchetto%NULL%1,   Marcella%Montico%NULL%1,   Annalisa%Casarin%NULL%1,   Micaela%Romagnoli%NULL%1,   Stefano%Gasparini%NULL%1,   Martina%Bonifazi%NULL%1,   Pierlanfranco%D’Agaro%NULL%1,   Alessandro%Marcello%NULL%1,   Danilo%Licastro%NULL%1,   Barbara%Ruaro%NULL%1,   Maria Concetta%Volpe%NULL%1,   Reba%Umberger%NULL%1,   Marco%Confalonieri%mconfalonieri@units.it%1]</t>
+  </si>
+  <si>
+    <t>[Yinzhong%Shen%NULL%2,   Fang%Zheng%NULL%2,   Fang%Zheng%NULL%0,   Danfeng%Sun%NULL%1,   Yun%Ling%NULL%0,   Jun%Chen%NULL%2,   Feng%Li%NULL%0,   Feng%Li%NULL%0,   Tao%Li%NULL%0,   Zhiping%Qian%NULL%0,   Yuyi%Zhang%NULL%0,   Qingnian%Xu%NULL%0,   Li%Liu%NULL%0,   Qin%Huang%NULL%1,   Fei%Shan%NULL%2,   Lie%Xu%NULL%1,   Jun%Wu%NULL%1,   Zhaoqin%Zhu%NULL%1,   Zhigang%Song%NULL%0,   Shenyang%Li%NULL%1,   Yuxin%Shi%NULL%0,   Jianliang%Zhang%NULL%1,   Xueyun%Wu%NULL%1,   Joshua B.%Mendelsohn%NULL%2,   Joshua B.%Mendelsohn%NULL%0,   Tongyu%Zhu%NULL%0,   Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[José Luis%Callejas Rubio%jlcalleja@telefonica.net%1,   Juan de Dios%Luna del Castillo%NULL%1,   Javier%de la Hera Fernández%NULL%1,   Emilio%Guirao Arrabal%NULL%1,   Manuel%Colmenero Ruiz%NULL%1,   Norberto%Ortego Centeno%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ding%Shi%NULL%1,   Wenrui%Wu%NULL%0,   Qing%Wang%NULL%1,   Kaijin%Xu%NULL%1,   Jiaojiao%Xie%NULL%1,   Jingjing%Wu%NULL%1,   Longxian%Lv%NULL%1,   Jifang%Sheng%NULL%0,   Jing%Guo%NULL%1,   Kaicen%Wang%NULL%1,   Daiqiong%Fang%NULL%1,   Yating%Li%NULL%1,   Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%2,   Weiwei%Jiang%NULL%1,   Qi%He%NULL%1,   Cheng%Wang%NULL%1,   Baoju%Wang%NULL%1,   Pan%Zhou%NULL%1,   Nianguo%Dong%dongnianguo63@gmail.com%1,   Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%3,   Xian%Zhou%NULL%1,   Tao%Li%NULL%0,   Shiji%Chan%NULL%1,   Yiqi%Yu%NULL%1,   Jing-Wen%Ai%NULL%1,   Haocheng%Zhang%NULL%1,   Feng%Sun%NULL%1,   Qiran%Zhang%NULL%1,   Lei%Zhu%NULL%1,   Lingyun%Shao%NULL%1,   Bin%Xu%NULL%1,   Wenhong%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Liu%NULL%1,   Xiaobin%Zheng%NULL%1,   Yiying%Huang%NULL%1,   Hong%Shan%shanhong@mail.sysu.edu.cn%0,   Jin%Huang%hjin@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiang-Hong%Yang%NULL%1,   Ran-Ran%Li%NULL%1,   Ren-Hua%Sun%NULL%1,   Jiao%Liu%NULL%1,   De-Chang%Chen%NULL%1,   Peng%Lyu%NULL%2,   Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%2,   Taige%Chen%NULL%1,   Yang%Wang%NULL%1,   Jun%Wang%NULL%1,   Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yiming%Ma%NULL%1,   Huihui%Zeng%NULL%1,   Zijie%Zhan%NULL%1,   Huanhuan%Lu%NULL%1,   Zihang%Zeng%NULL%1,   Chenjie%He%NULL%1,   Xiangming%Liu%NULL%1,   Chen%Chen%NULL%1,   Qingwu%Qin%NULL%1,   Jia%He%NULL%1,   Zhiguo%Zhou%NULL%1,   Peng%Huang%NULL%2,   Mingyan%Jiang%NULL%1,   Dingding%Deng%NULL%1,   Xin%Liao%NULL%1,   Zhi%Xiang%NULL%1,   Xiaoying%Huang%NULL%1,   Yan%Chen%NULL%1,   Ping%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Monil%Majmundar%NULL%1,   Tikal%Kansara%NULL%2,   Tikal%Kansara%NULL%0,   Joanna Marta%Lenik%NULL%1,   Hansang%Park%NULL%1,   Kuldeep%Ghosh%NULL%1,   Rajkumar%Doshi%NULL%1,   Palak%Shah%NULL%1,   Ashish%Kumar%NULL%1,   Hossam%Amin%NULL%2,   Hossam%Amin%NULL%0,   Shobhana%Chaudhari%NULL%1,   Imnett%Habtes%NULL%1,   Muhammad%Adrish%NULL%8,   Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Malgorzata%Mikulska%NULL%1,   Laura Ambra%Nicolini%NULL%2,   Laura Ambra%Nicolini%NULL%0,   Alessio%Signori%NULL%1,   Antonio%Di Biagio%NULL%1,   Chiara%Sepulcri%NULL%2,   Chiara%Sepulcri%NULL%0,   Chiara%Russo%NULL%1,   Silvia%Dettori%NULL%1,   Marco%Berruti%NULL%1,   Maria Pia%Sormani%NULL%1,   Daniele Roberto%Giacobbe%NULL%1,   Antonio%Vena%NULL%2,   Antonio%Vena%NULL%0,   Andrea%De Maria%NULL%1,   Chiara%Dentone%NULL%1,   Lucia%Taramasso%NULL%1,   Michele%Mirabella%NULL%2,   Michele%Mirabella%NULL%0,   Laura%Magnasco%NULL%1,   Sara%Mora%NULL%1,   Emanuele%Delfino%NULL%1,   Federica%Toscanini%NULL%1,   Elisa%Balletto%NULL%1,   Anna Ida%Alessandrini%NULL%1,   Federico%Baldi%NULL%1,   Federica%Briano%NULL%1,   Marco%Camera%NULL%1,   Ferdinando%Dodi%NULL%1,   Antonio%Ferrazin%NULL%1,   Laura%Labate%NULL%1,   Giovanni%Mazzarello%NULL%1,   Rachele%Pincino%NULL%1,   Federica%Portunato%NULL%1,   Stefania%Tutino%NULL%1,   Emanuela%Barisione%NULL%1,   Bianca%Bruzzone%NULL%1,   Andrea%Orsi%NULL%1,   Eva%Schenone%NULL%1,   Nirmala%Rosseti%NULL%1,   Elisabetta%Sasso%NULL%1,   Giorgio%Da Rin%NULL%1,   Paolo%Pelosi%NULL%1,   Sabrina%Beltramini%NULL%1,   Mauro%Giacomini%NULL%1,   Giancarlo%Icardi%NULL%2,   Giancarlo%Icardi%NULL%0,   Angelo%Gratarola%NULL%1,   Matteo%Bassetti%NULL%1,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mao%Huang%NULL%2,   Yi%Yang%NULL%1,   Futai%Shang%NULL%1,   Yishan%Zheng%NULL%0,   Wenjing%Zhao%NULL%1,   Liang%Luo%NULL%1,   Xudong%Han%NULL%1,   Aihua%Lin%NULL%1,   Hongsheng%Zhao%NULL%1,   Qing%Gu%NULL%1,   Yi%Shi%NULL%1,   Jun%Li%NULL%1,   Xingxiang%Xu%NULL%1,   Kexi%Liu%NULL%1,   YiJun%Deng%NULL%1,   Quan%Cao%NULL%1,   Weiwei%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%4,   Yun%Ling%NULL%0,   Yun%Ling%NULL%0,   Tao%Bai%NULL%2,   Tao%Bai%NULL%0,   Yusang%Xie%NULL%1,   Jie%Huang%NULL%2,   Jie%Huang%NULL%0,   Jian%Li%NULL%1,   Weining%Xiong%NULL%1,   Dexiang%Yang%NULL%1,   Rong%Chen%NULL%0,   Fangying%Lu%NULL%1,   Yunfei%Lu%NULL%1,   Xuhui%Liu%NULL%1,   Yuqing%Chen%NULL%2,   Yuqing%Chen%NULL%0,   Xin%Li%NULL%1,   Yong%Li%NULL%1,   Hanssa Dwarka%Summah%NULL%1,   Huihuang%Lin%NULL%1,   Jiayang%Yan%NULL%1,   Min%Zhou%NULL%0,   Hongzhou%Lu%NULL%0,   Hongzhou%Lu%NULL%0,   Jieming%Qu%NULL%0,   Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana%Fernández-Cruz%NULL%1,   Belén%Ruiz-Antorán%NULL%2,   Belén%Ruiz-Antorán%NULL%0,   Ana%Muñoz-Gómez%NULL%1,   Aránzazu%Sancho-López%NULL%1,   Patricia%Mills-Sánchez%NULL%1,   Gustavo Adolfo%Centeno-Soto%NULL%1,   Silvia%Blanco-Alonso%NULL%1,   Laura%Javaloyes-Garachana%NULL%1,   Amy%Galán-Gómez%NULL%1,   Ángela%Valencia-Alijo%NULL%1,   Javier%Gómez-Irusta%NULL%1,   Concepción%Payares-Herrera%NULL%1,   Ignacio%Morrás-Torre%NULL%1,   Enrique%Sánchez-Chica%NULL%1,   Laura%Delgado-Téllez-de-Cepeda%NULL%1,   Alejandro%Callejas-Díaz%NULL%1,   Antonio%Ramos-Martínez%NULL%1,   Elena%Múñez-Rubio%NULL%2,   Elena%Múñez-Rubio%NULL%0,   Cristina%Avendaño-Solá%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmine%Gazzaruso%c.gazzaruso@gmail.com%1,   Nicoletta%Carlo Stella%NULL%2,   Nicoletta%Carlo Stella%NULL%0,   Giuseppe%Mariani%NULL%1,   Anna%Tamburlini%NULL%1,   Pietro%Garini%NULL%1,   Elena%Freddi%NULL%1,   Carolina%Ravetto%NULL%1,   Adriana%Coppola%NULL%1,   Pietro%Gallotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Hu%NULL%2,   Tingping%Wang%NULL%2,   Zhimin%Hu%NULL%2,   Xuan%Wang%NULL%2,   Zhengbin%Zhang%NULL%2,   Li%Li%NULL%9,   Peng%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Hu%NULL%0,   Tingping%Wang%NULL%0,   Zhimin%Hu%NULL%0,   Xuan%Wang%NULL%0,   Zhengbin%Zhang%NULL%0,   Li%Li%NULL%0,   Peng%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,   Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,   Wenlin%Cheng%NULL%0,   Lei%Yu%NULL%0,   Ya-Kun%Liu%NULL%0,   Xiaoyong%Hu%NULL%0,   Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>Effect of Hydrocortisone on Mortality and Organ Support in Patients With Severe COVID-19: The REMAP-CAP COVID-19 Corticosteroid Domain Randomized Clinical Trial.</t>
+  </si>
+  <si>
+    <t>Importance: Evidence regarding corticosteroid use for severe coronavirus disease 2019 (COVID-19) is limited.
+ Objective: To determine whether hydrocortisone improves outcome for patients with severe COVID-19. Design, Setting, and Participants: An ongoing adaptive platform trial testing multiple interventions within multiple therapeutic domains, for example, antiviral agents, corticosteroids, or immunoglobulin.
+ Between March 9 and June 17, 2020, 614 adult patients with suspected or confirmed COVID-19 were enrolled and randomized within at least 1 domain following admission to an intensive care unit (ICU) for respiratory or cardiovascular organ support at 121 sites in 8 countries.
+ Of these, 403 were randomized to open-label interventions within the corticosteroid domain.
+ The domain was halted after results from another trial were released.
+ Follow-up ended August 12, 2020. Interventions: The corticosteroid domain randomized participants to a fixed 7-day course of intravenous hydrocortisone (50 mg or 100 mg every 6 hours) (n\u2009=\u2009143), a shock-dependent course (50 mg every 6 hours when shock was clinically evident) (n\u2009=\u2009152), or no hydrocortisone (n\u2009=\u2009108).
+ Main Outcomes and Measures: The primary end point was organ support-free days (days alive and free of ICU-based respiratory or cardiovascular support) within 21 days, where patients who died were assigned -1 day.
+ The primary analysis was a bayesian cumulative logistic model that included all patients enrolled with severe COVID-19, adjusting for age, sex, site, region, time, assignment to interventions within other domains, and domain and intervention eligibility.
+ Superiority was defined as the posterior probability of an odds ratio greater than 1 (threshold for trial conclusion of superiority \u003E99%).
+ Results: After excluding 19 participants who withdrew consent, there were 384 patients (mean age, 60 years; 29% female) randomized to the fixed-dose (n\u2009=\u2009137), shock-dependent (n\u2009=\u2009146), and no (n\u2009=\u2009101) hydrocortisone groups; 379 (99%) completed the study and were included in the analysis.
+ The mean age for the 3 groups ranged between 59.5 and 60.4 years; most patients were male (range, 70.6%-71.5%); mean body mass index ranged between 29.7 and 30.9; and patients receiving mechanical ventilation ranged between 50.0% and 63.5%.
+ For the fixed-dose, shock-dependent, and no hydrocortisone groups, respectively, the median organ support-free days were 0 (IQR, -1 to 15), 0 (IQR, -1 to 13), and 0 (-1 to 11) days (composed of 30%, 26%, and 33% mortality rates and 11.5, 9.5, and 6 median organ support-free days among survivors).
+ The median adjusted odds ratio and bayesian probability of superiority were 1.43 (95% credible interval, 0.91-2.27) and 93% for fixed-dose hydrocortisone, respectively, and were 1.22 (95% credible interval, 0.76-1.94) and 80% for shock-dependent hydrocortisone compared with no hydrocortisone.
+ Serious adverse events were reported in 4 (3%), 5 (3%), and 1 (1%) patients in the fixed-dose, shock-dependent, and no hydrocortisone groups, respectively.
+ Conclusions and Relevance: Among patients with severe COVID-19, treatment with a 7-day fixed-dose course of hydrocortisone or shock-dependent dosing of hydrocortisone, compared with no hydrocortisone, resulted in 93% and 80% probabilities of superiority with regard to the odds of improvement in organ support-free days within 21 days.
+ However, the trial was stopped early and no treatment strategy met prespecified criteria for statistical superiority, precluding definitive conclusions.
+ Trial Registration: ClinicalTrials.
+gov Identifier: NCT02735707</t>
+  </si>
+  <si>
+    <t>[Abbass%H%coreGivesNoEmail%0, Adhikari%N%coreGivesNoEmail%1, Affleck%J%coreGivesNoEmail%1, Agno%Sathianathan R%coreGivesNoEmail%1, Ahmad%N%coreGivesNoEmail%1, Ahmed%I%coreGivesNoEmail%1, Ainscough%K%coreGivesNoEmail%1, Al%Qasim E%coreGivesNoEmail%1, Al%Swaidan L%coreGivesNoEmail%1, Al-Bassam%W%coreGivesNoEmail%1, Al-Beidh%F%coreGivesNoEmail%2, Al-Beidh%F%coreGivesNoEmail%0, Albert%M%coreGivesNoEmail%1, Alegria%A%coreGivesNoEmail%1, Alexander%B%coreGivesNoEmail%1, Alexander%P%coreGivesNoEmail%1, Allan%A%coreGivesNoEmail%1, Allan%E%coreGivesNoEmail%1, Allen%L%coreGivesNoEmail%1, Allibone%S%coreGivesNoEmail%1, Amaro%dos Santos Catorze T%coreGivesNoEmail%1, Anderson%T%coreGivesNoEmail%1, Andric%Z%coreGivesNoEmail%1, Angus%D%coreGivesNoEmail%1, Angus%DC%coreGivesNoEmail%1, Anjum%A%coreGivesNoEmail%1, Ankert%J%coreGivesNoEmail%1, Annane%D%coreGivesNoEmail%2, Annane%D%coreGivesNoEmail%0, Anstey%M%coreGivesNoEmail%1, Antcliffe%D%coreGivesNoEmail%1, Aparicio%C%coreGivesNoEmail%1, Appelt%P%coreGivesNoEmail%1, Arabi%Y%coreGivesNoEmail%2, Arabi%Y%coreGivesNoEmail%0, Arbane%G%coreGivesNoEmail%1, Archer%S%coreGivesNoEmail%1, Aref%N%coreGivesNoEmail%1, Arias%A-M%coreGivesNoEmail%1, Arishi%H%coreGivesNoEmail%1, Arnold%D%coreGivesNoEmail%1, Asghar%A%coreGivesNoEmail%1, Ashelford%A%coreGivesNoEmail%1, Attwood%B%coreGivesNoEmail%1, Austin%K%coreGivesNoEmail%1, Aysel%Florescu S%coreGivesNoEmail%1, Azaiz%A%coreGivesNoEmail%1, Babel%J%coreGivesNoEmail%1, Babio-Galan%M%coreGivesNoEmail%1, Badie%J%coreGivesNoEmail%1, Bagshaw%S%coreGivesNoEmail%1, Baillie%K%coreGivesNoEmail%1, Baker%E%coreGivesNoEmail%1, Bakthavatsalam%D%coreGivesNoEmail%1, Bamford%P%coreGivesNoEmail%1, Banach%D%coreGivesNoEmail%1, Bannard-Smith%J%coreGivesNoEmail%1, Barbazza%L%coreGivesNoEmail%1, Barber%R%coreGivesNoEmail%1, Barge%D%coreGivesNoEmail%1, Barnes%N%coreGivesNoEmail%1, Bar\u0161i\u0107%B%coreGivesNoEmail%1, Bashyal%A%coreGivesNoEmail%1, Basile%K%coreGivesNoEmail%1, Bass%F%coreGivesNoEmail%1, Bates%M%coreGivesNoEmail%1, Bauchmuller%K%coreGivesNoEmail%1, Bean%S%coreGivesNoEmail%1, Beane%A%coreGivesNoEmail%2, Beane%A%coreGivesNoEmail%0, Beasley%R%coreGivesNoEmail%1, Begin%P%coreGivesNoEmail%1, Bellemare%D%coreGivesNoEmail%1, Benettaib%F%coreGivesNoEmail%1, Benzekri%D%coreGivesNoEmail%1, Berdaguer%FD%coreGivesNoEmail%1, Bergin%C%coreGivesNoEmail%1, Berry%L%coreGivesNoEmail%2, Berry%L%coreGivesNoEmail%0, Berry%S%coreGivesNoEmail%2, Berry%S%coreGivesNoEmail%0, Bhimani%Z%coreGivesNoEmail%2, Bhimani%Z%coreGivesNoEmail%0, Bihari%S%coreGivesNoEmail%2, Bihari%S%coreGivesNoEmail%0, Binnie%A%coreGivesNoEmail%1, Bion%J%coreGivesNoEmail%1, Biradar%V%coreGivesNoEmail%1, Birch%J%coreGivesNoEmail%2, Birch%J%coreGivesNoEmail%0, Birchall%K%coreGivesNoEmail%1, Birkinshaw%I%coreGivesNoEmail%1, Black%E%coreGivesNoEmail%1, Bloos%F%coreGivesNoEmail%1, Board%J%coreGivesNoEmail%1, Bone%A%coreGivesNoEmail%1, Bonner%S%coreGivesNoEmail%1, Bonten%M%coreGivesNoEmail%2, Bonten%M%coreGivesNoEmail%0, Borgatta%B%coreGivesNoEmail%1, Borrill%Z%coreGivesNoEmail%1, Bosch%Ziekenhuis J%coreGivesNoEmail%1, Boschert%C%coreGivesNoEmail%1, Bossard%I%coreGivesNoEmail%1, Boumahni%D%coreGivesNoEmail%1, Bourgoin%C%coreGivesNoEmail%1, Bourne%M%coreGivesNoEmail%1, Bourne%R%coreGivesNoEmail%1, Bouwman%W%coreGivesNoEmail%1, Bowler%H%coreGivesNoEmail%1, Boyd%C%coreGivesNoEmail%1, Bracke%S%coreGivesNoEmail%1, Bradbury%C%coreGivesNoEmail%2, Bradbury%C%coreGivesNoEmail%0, Bradley-Potts%J%coreGivesNoEmail%1, Brailsford%J%coreGivesNoEmail%1, Brain%M%coreGivesNoEmail%1, Brant%E%coreGivesNoEmail%1, Breen%P%coreGivesNoEmail%1, Brett%S%coreGivesNoEmail%1, Brewer%C%coreGivesNoEmail%1, Brickell%K%coreGivesNoEmail%1, Brightling%C%coreGivesNoEmail%1, Brillinger%N%coreGivesNoEmail%1, Brimfield%L%coreGivesNoEmail%1, Brinkerhoff%G%coreGivesNoEmail%1, Brochard%L%coreGivesNoEmail%1, Brohi%F%coreGivesNoEmail%1, Browne%T%coreGivesNoEmail%1, Brunkhorst%F%coreGivesNoEmail%2, Brunkhorst%F%coreGivesNoEmail%0, Budd%J%coreGivesNoEmail%1, Buehner%U%coreGivesNoEmail%1, Buhr%H%coreGivesNoEmail%1, Bullman%L%coreGivesNoEmail%1, Burns%K%coreGivesNoEmail%1, Burt%K%coreGivesNoEmail%1, Buscher%H%coreGivesNoEmail%1, Butler%A%coreGivesNoEmail%1, Butler%M%coreGivesNoEmail%1, Buxton%M%coreGivesNoEmail%2, Buxton%M%coreGivesNoEmail%0, Buzgau%A%coreGivesNoEmail%1, Byrne%D%coreGivesNoEmail%1, Byrne%K%coreGivesNoEmail%1, B\u00e9lteczki%J%coreGivesNoEmail%1, Cabreros%L%coreGivesNoEmail%1, Calfee%C%coreGivesNoEmail%1, Callender%O%coreGivesNoEmail%1, Campbell%A%coreGivesNoEmail%1, Campbell%H%coreGivesNoEmail%1, Campbell%L%coreGivesNoEmail%1, Camsooksai%J%coreGivesNoEmail%1, Caplin%C%coreGivesNoEmail%1, Carbonneau%E%coreGivesNoEmail%1, Carmona%Flores R%coreGivesNoEmail%1, Carr-Knott%L%coreGivesNoEmail%1, Carrier%FM%coreGivesNoEmail%1, Carrier%M%coreGivesNoEmail%1, Cartner%B%coreGivesNoEmail%1, Casey%R%coreGivesNoEmail%1, Casey%S%coreGivesNoEmail%1, Castro%Ferreira RM%coreGivesNoEmail%1, Cate%H%coreGivesNoEmail%1, Cathcart%S%coreGivesNoEmail%1, Cavayas%A%coreGivesNoEmail%1, Cawley%K%coreGivesNoEmail%1, Cazzola%F%coreGivesNoEmail%1, Centofanti%J%coreGivesNoEmail%1, Chablani%M%coreGivesNoEmail%1, Chamara%Warnapura L%coreGivesNoEmail%1, Chan%C%coreGivesNoEmail%2, Chan%C%coreGivesNoEmail%0, Chan%P%coreGivesNoEmail%1, Charlewood%R%coreGivesNoEmail%1, Charron%C%coreGivesNoEmail%1, Chartier%D%coreGivesNoEmail%1, Chasse%M%coreGivesNoEmail%1, Chass\u00e9%M%coreGivesNoEmail%1, Chen%Y%coreGivesNoEmail%1, Cheng%A%coreGivesNoEmail%1, Cheng%AC%coreGivesNoEmail%1, Cherian%S%coreGivesNoEmail%1, Cheung%W%coreGivesNoEmail%1, Chhablani%M%coreGivesNoEmail%1, Chudeau%N%coreGivesNoEmail%1, Cirstea%E%coreGivesNoEmail%1, Clarey%E%coreGivesNoEmail%1, Claridge%H%coreGivesNoEmail%1, Clark%M%coreGivesNoEmail%1, Clark%S%coreGivesNoEmail%1, Claxton%A%coreGivesNoEmail%1, Clermont%G%coreGivesNoEmail%1, Cloutier%\u00c8%coreGivesNoEmail%1, Coburn%S%coreGivesNoEmail%1, Codreanu%D%coreGivesNoEmail%1, Coghlan%P%coreGivesNoEmail%1, Cole%J%coreGivesNoEmail%1, Coles%H%coreGivesNoEmail%1, Coles%J%coreGivesNoEmail%1, Colin%G%coreGivesNoEmail%1, Collier%D%coreGivesNoEmail%1, Collins%D%coreGivesNoEmail%1, Collins%E%coreGivesNoEmail%1, Collins%J%coreGivesNoEmail%1, Connor%J%coreGivesNoEmail%1, Cooke%J%coreGivesNoEmail%1, Cooper%J%coreGivesNoEmail%1, Cooper%M%coreGivesNoEmail%1, Cornell%S%coreGivesNoEmail%1, Cort%J%coreGivesNoEmail%1, Courtin%L%coreGivesNoEmail%1, Cowdrey%K-A%coreGivesNoEmail%1, Cowley%N%coreGivesNoEmail%1, Cowton%A%coreGivesNoEmail%1, Coyne%M%coreGivesNoEmail%1, Craner%M%coreGivesNoEmail%1, Craven%T%coreGivesNoEmail%1, Creagh-Brown%B%coreGivesNoEmail%1, Crisp%N%coreGivesNoEmail%1, Croft%M%coreGivesNoEmail%1, Cusack%R%coreGivesNoEmail%1, Cutler%S%coreGivesNoEmail%1, Cviljevic%S%coreGivesNoEmail%1, C\u00e1rcel%Fern\u00e1ndez S%coreGivesNoEmail%1, Daly%J%coreGivesNoEmail%1, Daly%Z%coreGivesNoEmail%1, Daneman%N%coreGivesNoEmail%1, Dark%P%coreGivesNoEmail%1, Darreau%C%coreGivesNoEmail%1, Dasgin%J%coreGivesNoEmail%1, Davey%M%coreGivesNoEmail%1, Davidson%N%coreGivesNoEmail%1, Davies%G%coreGivesNoEmail%1, Davies%L%coreGivesNoEmail%1, Davies%M%coreGivesNoEmail%1, Dawda%A%coreGivesNoEmail%1, Day%C%coreGivesNoEmail%1, De%Beaux F%coreGivesNoEmail%1, De%Bus L%coreGivesNoEmail%1, de%Courcy-Golder K%coreGivesNoEmail%1, de%Jager P%coreGivesNoEmail%1, de%Jong M%coreGivesNoEmail%1, De%Jong M%coreGivesNoEmail%1, de%Jonge E%coreGivesNoEmail%1, de%la Fuente Martos C%coreGivesNoEmail%1, de%Lima Pereira TNA%coreGivesNoEmail%1, de%Man A%coreGivesNoEmail%1, De%Waele J%coreGivesNoEmail%1, Dearden%J%coreGivesNoEmail%1, Dechert%W%coreGivesNoEmail%1, Deelchand%V%coreGivesNoEmail%1, Dela%Rosa A%coreGivesNoEmail%1, Dell%A%coreGivesNoEmail%1, Demetriou%C%coreGivesNoEmail%1, Depante%MT%coreGivesNoEmail%1, Depuydt%P%coreGivesNoEmail%1, Dequin%P%coreGivesNoEmail%1, Derde%L%coreGivesNoEmail%2, Derde%L%coreGivesNoEmail%0, Detry%M%coreGivesNoEmail%2, Detry%M%coreGivesNoEmail%0, Deye%N%coreGivesNoEmail%1, Digby%S%coreGivesNoEmail%1, Distler%M%coreGivesNoEmail%1, Doble%P%coreGivesNoEmail%1, Donnelly%A%coreGivesNoEmail%1, Donnison%P%coreGivesNoEmail%1, Doran%P%coreGivesNoEmail%1, Dragija%L%coreGivesNoEmail%1, Driscoll%A%coreGivesNoEmail%1, Drummond%A%coreGivesNoEmail%1, Duan%E%coreGivesNoEmail%1, Duffy%E%coreGivesNoEmail%1, Duke%G%coreGivesNoEmail%1, Duncan%T%coreGivesNoEmail%1, Duplaix%M%coreGivesNoEmail%1, Dushianthan%A%coreGivesNoEmail%1, Dyas%S%coreGivesNoEmail%1, D\u2019Aragon%F%coreGivesNoEmail%1, D\u2019Souza%R%coreGivesNoEmail%1, Effelaar%E%coreGivesNoEmail%1, Elhassan%M%coreGivesNoEmail%1, Elin%Hall R%coreGivesNoEmail%1, Ellis%C%coreGivesNoEmail%1, Elmahi%E%coreGivesNoEmail%1, Elsefi%T%coreGivesNoEmail%1, English%S%coreGivesNoEmail%1, Estcourt%L%coreGivesNoEmail%2, Estcourt%L%coreGivesNoEmail%0, Estensen%K%coreGivesNoEmail%1, Everitt%R%coreGivesNoEmail%1, Evers%M%coreGivesNoEmail%1, Farahi%N%coreGivesNoEmail%1, Fartoukh%M%coreGivesNoEmail%1, Faulkner%B%coreGivesNoEmail%1, Faulkner%M%coreGivesNoEmail%1, Fazekas%\u00c1%coreGivesNoEmail%1, Felton%T%coreGivesNoEmail%1, Ferguson%N%coreGivesNoEmail%1, Ferguson%S%coreGivesNoEmail%1, Fergusson%D%coreGivesNoEmail%1, Fern\u00e1ndez%de Pinedo Artaraz Z%coreGivesNoEmail%1, Ferrier%J%coreGivesNoEmail%1, Fierens%J%coreGivesNoEmail%1, Finn%A%coreGivesNoEmail%1, Finn%S%coreGivesNoEmail%1, Fischer%R%coreGivesNoEmail%1, Fitzgerald%M%coreGivesNoEmail%2, Fitzgerald%M%coreGivesNoEmail%0, Fletcher%S%coreGivesNoEmail%1, Flint%N%coreGivesNoEmail%1, Forbes%A%coreGivesNoEmail%1, Forbes%L%coreGivesNoEmail%1, Forton%D%coreGivesNoEmail%1, Fortune%L%coreGivesNoEmail%1, Fottrell-Gould%D%coreGivesNoEmail%1, Fowler%R%coreGivesNoEmail%2, Fowler%R%coreGivesNoEmail%0, Fox%C%coreGivesNoEmail%1, Francia%F%coreGivesNoEmail%1, Francoeur%C%coreGivesNoEmail%1, Frey%A%coreGivesNoEmail%1, Friedrich%Hinrichs C%coreGivesNoEmail%1, Frohlich%S%coreGivesNoEmail%1, Fysh%E%coreGivesNoEmail%1, Gallagher%LJ%coreGivesNoEmail%1, Ganguly%S%coreGivesNoEmail%1, Ganpat%R%coreGivesNoEmail%1, Garcia%R%coreGivesNoEmail%1, Gardiner-Hill%C%coreGivesNoEmail%1, Garrard%H%coreGivesNoEmail%1, Garrard%W%coreGivesNoEmail%1, Gates%S%coreGivesNoEmail%1, Gattas%D%coreGivesNoEmail%1, Gellamucho%M%coreGivesNoEmail%1, Gendall%E%coreGivesNoEmail%1, Genetu%RM%coreGivesNoEmail%1, Geng%W%coreGivesNoEmail%1, Geri%G%coreGivesNoEmail%1, Ghamraoui%A%coreGivesNoEmail%1, Ghosh%A%coreGivesNoEmail%1, Gibson%C%coreGivesNoEmail%1, Girard%T%coreGivesNoEmail%1, Girijadevi%D%coreGivesNoEmail%1, Gledhill%L%coreGivesNoEmail%1, Godement%M%coreGivesNoEmail%1, Golden%D%coreGivesNoEmail%1, Goligher%E%coreGivesNoEmail%1, Gomm%L%coreGivesNoEmail%1, Goodson%J%coreGivesNoEmail%1, Goodwin%J%coreGivesNoEmail%1, Goossens%H%coreGivesNoEmail%2, Goossens%H%coreGivesNoEmail%0, Gopal%S%coreGivesNoEmail%1, Gopinath%A%coreGivesNoEmail%1, Gordon%A%coreGivesNoEmail%1, Gordon%AC%coreGivesNoEmail%1, Gordon%E%coreGivesNoEmail%1, Gosbell%I%coreGivesNoEmail%1, Gould%R%coreGivesNoEmail%1, Grecu%I%coreGivesNoEmail%1, Green%C%coreGivesNoEmail%2, Green%C%coreGivesNoEmail%0, Gregory%J%coreGivesNoEmail%1, Gresha%R%coreGivesNoEmail%1, Grimmer%L%coreGivesNoEmail%1, Grimwade%K%coreGivesNoEmail%1, Guilder%E%coreGivesNoEmail%1, Guitton%C%coreGivesNoEmail%1, Hacking%D%coreGivesNoEmail%1, Hadebe%B%coreGivesNoEmail%1, Hagel%S%coreGivesNoEmail%1, Haidar%G%coreGivesNoEmail%1, Hall%A%coreGivesNoEmail%1, Hall%K%coreGivesNoEmail%1, Hamilton%DO%coreGivesNoEmail%1, Hamilton-Davies%C%coreGivesNoEmail%1, Hamlyn%V%coreGivesNoEmail%1, Hammond%N%coreGivesNoEmail%1, Haniffa%R%coreGivesNoEmail%2, Haniffa%R%coreGivesNoEmail%0, Hanson%J%coreGivesNoEmail%1, Harford%R%coreGivesNoEmail%1, Harland%C%coreGivesNoEmail%1, Harrington%K%coreGivesNoEmail%1, Harris%N%coreGivesNoEmail%1, Harrison%S%coreGivesNoEmail%1, Hart%C%coreGivesNoEmail%1, Harvala-Simmonds%H%coreGivesNoEmail%1, Harvey%D%coreGivesNoEmail%1, Harward%M%coreGivesNoEmail%1, Hawcutt%D%coreGivesNoEmail%1, Hawkins%N%coreGivesNoEmail%1, Hay%SK%coreGivesNoEmail%1, Hayes%K%coreGivesNoEmail%1, Hayes%L%coreGivesNoEmail%1, Hays%C%coreGivesNoEmail%1, Health%M%coreGivesNoEmail%1, Heinonen%J%coreGivesNoEmail%1, Heming%N%coreGivesNoEmail%1, Henderson%S%coreGivesNoEmail%2, Henderson%S%coreGivesNoEmail%0, Henning%J%coreGivesNoEmail%1, Henry%J%coreGivesNoEmail%1, Heritier%S%coreGivesNoEmail%1, Hickey%N%coreGivesNoEmail%1, Higgins%AM%coreGivesNoEmail%1, Higgins%L%coreGivesNoEmail%1, Hill%H%coreGivesNoEmail%1, Hills%T%coreGivesNoEmail%2, Hills%T%coreGivesNoEmail%0, Hird%C%coreGivesNoEmail%1, Hodgson%C%coreGivesNoEmail%1, Hoff%U%coreGivesNoEmail%1, Hoiting%O%coreGivesNoEmail%1, Holland%N%coreGivesNoEmail%1, Hollos%L%coreGivesNoEmail%1, Homes%J%coreGivesNoEmail%1, Hope%D%coreGivesNoEmail%1, Hopkins%P%coreGivesNoEmail%1, Hormis%A%coreGivesNoEmail%1, Horton%M%coreGivesNoEmail%1, Horton%S%coreGivesNoEmail%1, Horvat%C%coreGivesNoEmail%2, Horvat%C%coreGivesNoEmail%0, Howcroft%C%coreGivesNoEmail%1, Howle%R%coreGivesNoEmail%1, Huang%D%coreGivesNoEmail%1, Huckle%A%coreGivesNoEmail%1, Hughes%E%coreGivesNoEmail%1, Hugill%K%coreGivesNoEmail%1, Hullegie%S%coreGivesNoEmail%1, Hullegie%SJ%coreGivesNoEmail%1, Hulley%A%coreGivesNoEmail%1, Hulme%J%coreGivesNoEmail%1, Hunt%B%coreGivesNoEmail%1, Hunter%S%coreGivesNoEmail%1, Hutter%J%coreGivesNoEmail%1, Hutton%P%coreGivesNoEmail%1, Innes%R%coreGivesNoEmail%1, Ireland%J%coreGivesNoEmail%1, Isgro%G%coreGivesNoEmail%1, Ivatt%H%coreGivesNoEmail%1, Jackson%M%coreGivesNoEmail%1, Jackson%S%coreGivesNoEmail%2, Jackson%S%coreGivesNoEmail%0, Jacques%N%coreGivesNoEmail%1, Jacquier%S%coreGivesNoEmail%1, Jagannathan%V%coreGivesNoEmail%1, Janin%P%coreGivesNoEmail%1, Jarczak%D%coreGivesNoEmail%1, Jeblaoui%A%coreGivesNoEmail%1, Jeffrey%H%coreGivesNoEmail%1, Jenkins%S%coreGivesNoEmail%1, Jha%R%coreGivesNoEmail%1, Jhanji%S%coreGivesNoEmail%1, Johns%M%coreGivesNoEmail%1, Johnson%D%coreGivesNoEmail%1, Johnson%R%coreGivesNoEmail%1, Johnston%P%coreGivesNoEmail%1, Jones%A%coreGivesNoEmail%1, Jones%J%coreGivesNoEmail%1, Joseph%S%coreGivesNoEmail%1, Jos\u00e9%N%coreGivesNoEmail%1, Juhaz%V%coreGivesNoEmail%1, Kalchthaler%K%coreGivesNoEmail%1, Kalogirou%M%coreGivesNoEmail%1, Kamel%T%coreGivesNoEmail%1, Karachi%T%coreGivesNoEmail%1, Karlikowski%M%coreGivesNoEmail%1, Karlsson%S%coreGivesNoEmail%1, Kasipandian%V%coreGivesNoEmail%1, Kayani%A%coreGivesNoEmail%1, Kazemi%A%coreGivesNoEmail%1, Keen%A%coreGivesNoEmail%1, Keenan%S%coreGivesNoEmail%1, Keet%O%coreGivesNoEmail%1, Kell%K%coreGivesNoEmail%1, Kelly%M%coreGivesNoEmail%1, Kelsall%O%coreGivesNoEmail%1, Kernan%M%coreGivesNoEmail%1, Kersiake%I%coreGivesNoEmail%1, Khalid%I%coreGivesNoEmail%1, Khare%D%coreGivesNoEmail%1, Kiiski%H%coreGivesNoEmail%1, Kimpton%S%coreGivesNoEmail%1, King%A%coreGivesNoEmail%1, Kinney%F%coreGivesNoEmail%1, Kirkby%A%coreGivesNoEmail%1, Klinikum%Neuk\u00f6lln V%coreGivesNoEmail%1, Kluge%S%coreGivesNoEmail%1, Knott%C%coreGivesNoEmail%1, Kol%M%coreGivesNoEmail%1, Kolanos%S%coreGivesNoEmail%1, Koppen%C%coreGivesNoEmail%1, Kosa%AG%coreGivesNoEmail%1, Kotarski%V%coreGivesNoEmail%1, Kov\u00e1cs%S%coreGivesNoEmail%1, Kre\u00df%G%coreGivesNoEmail%1, Krishnamurthy%V%coreGivesNoEmail%1, Kruger%P%coreGivesNoEmail%2, Kruger%P%coreGivesNoEmail%0, Kuitunen%A%coreGivesNoEmail%1, Kumar%A%coreGivesNoEmail%1, Kumar%N%coreGivesNoEmail%1, Kunz%K%coreGivesNoEmail%1, Kurenda%C%coreGivesNoEmail%1, Kutle\u0161a%M%coreGivesNoEmail%1, Ku\u0161an%I%coreGivesNoEmail%1, KyereDiabour%T%coreGivesNoEmail%1, Kyeremeh%L%coreGivesNoEmail%1, Labbe%V%coreGivesNoEmail%1, Laffan%M%coreGivesNoEmail%1, Laffey%J%coreGivesNoEmail%1, Laha%S%coreGivesNoEmail%1, Lai%V%coreGivesNoEmail%1, Lamb%T%coreGivesNoEmail%1, Lamonagne%F%coreGivesNoEmail%1, Lamontagne%F%coreGivesNoEmail%3, Lamontagne%F%coreGivesNoEmail%0, Lamontagne%F%coreGivesNoEmail%0, Landais%M%coreGivesNoEmail%1, Lane%J-B%coreGivesNoEmail%1, Lankester%L%coreGivesNoEmail%1, Laver%R%coreGivesNoEmail%1, Lawler%P%coreGivesNoEmail%1, Lawler%PR%coreGivesNoEmail%1, Lawless%P%coreGivesNoEmail%1, Lazaro%JM%coreGivesNoEmail%1, Leaver%S%coreGivesNoEmail%1, Leblond%J%coreGivesNoEmail%1, Lee%K%coreGivesNoEmail%1, Lee%S%coreGivesNoEmail%1, Leparco%C%coreGivesNoEmail%1, Lesona%E%coreGivesNoEmail%1, Leszkoven%J%coreGivesNoEmail%1, Lewis%R%coreGivesNoEmail%1, Lewis%RJ%coreGivesNoEmail%1, Lewis%S%coreGivesNoEmail%1, Le\u00f3n%L\u00f3pez R%coreGivesNoEmail%1, Limb%J%coreGivesNoEmail%1, Linstrum%K%coreGivesNoEmail%2, Linstrum%K%coreGivesNoEmail%0, Litton%E%coreGivesNoEmail%3, Litton%E%coreGivesNoEmail%0, Litton%E%coreGivesNoEmail%0, Lomme%K%coreGivesNoEmail%1, London%E%coreGivesNoEmail%1, Lorenzi%E%coreGivesNoEmail%2, Lorenzi%E%coreGivesNoEmail%0, Lother%S%coreGivesNoEmail%1, Lowe%B%coreGivesNoEmail%1, Lowrey%J%coreGivesNoEmail%1, Luis%D%coreGivesNoEmail%1, Luk%T%coreGivesNoEmail%1, L\u2019Hotellier%S%coreGivesNoEmail%1, Mackay%C%coreGivesNoEmail%1, Mackay%E%coreGivesNoEmail%1, MacLennan%S%coreGivesNoEmail%1, Maguire%T%coreGivesNoEmail%1, Magyar%I%coreGivesNoEmail%1, Maiden%M%coreGivesNoEmail%1, Makowski%A%coreGivesNoEmail%1, Malakoutis%S%coreGivesNoEmail%1, Malfroy%S%coreGivesNoEmail%1, Malissin%I%coreGivesNoEmail%1, Maloney%C%coreGivesNoEmail%1, Manax%V%coreGivesNoEmail%1, Mandadapu%V%coreGivesNoEmail%1, Mangindaan%Y%coreGivesNoEmail%1, Maquigneau%N%coreGivesNoEmail%1, Marabi%Y%coreGivesNoEmail%1, Mariappa%V%coreGivesNoEmail%1, Marin-Corral%J%coreGivesNoEmail%1, Markgraf%R%coreGivesNoEmail%1, Marroquin%O%coreGivesNoEmail%1, Marshall%J%coreGivesNoEmail%2, Marshall%J%coreGivesNoEmail%0, Marshall%N%coreGivesNoEmail%1, Mart%E%coreGivesNoEmail%1, Marten%N%coreGivesNoEmail%1, Martin%J%coreGivesNoEmail%1, Martin%T%coreGivesNoEmail%1, Martynoga%R%coreGivesNoEmail%1, Maselli%A%coreGivesNoEmail%1, Masse%M-H%coreGivesNoEmail%1, Mateo%L\u00f3pez MI%coreGivesNoEmail%1, Matsa%R%coreGivesNoEmail%1, Mattocks%L%coreGivesNoEmail%1, Maxime%V%coreGivesNoEmail%1, Mc%Goldrick C%coreGivesNoEmail%1, Mc%Master M%coreGivesNoEmail%1, McArthur%C%coreGivesNoEmail%2, McArthur%C%coreGivesNoEmail%0, McAuley%D%coreGivesNoEmail%3, McAuley%D%coreGivesNoEmail%0, McAuley%D%coreGivesNoEmail%0, McCallum%P%coreGivesNoEmail%1, McClintock%D%coreGivesNoEmail%1, McConnochie%R%coreGivesNoEmail%1, McCracken%P%coreGivesNoEmail%1, McCue%C%coreGivesNoEmail%1, McCullagh%I%coreGivesNoEmail%1, McCullough%J%coreGivesNoEmail%1, McDyer%J%coreGivesNoEmail%1, McGhee%C%coreGivesNoEmail%1, McGlothin%A%coreGivesNoEmail%1, McGlothlin%A%coreGivesNoEmail%1, McGloughlin%S%coreGivesNoEmail%1, McGlynn%D%coreGivesNoEmail%1, McGuigan%P%coreGivesNoEmail%1, McGuinness%S%coreGivesNoEmail%2, McGuinness%S%coreGivesNoEmail%0, McIntyre%L%coreGivesNoEmail%1, McLachlan%D%coreGivesNoEmail%1, McMillan%A%coreGivesNoEmail%1, McNamara%R%coreGivesNoEmail%1, McNicholas%B%coreGivesNoEmail%1, McQuilten%Z%coreGivesNoEmail%1, McVerry%B%coreGivesNoEmail%2, McVerry%B%coreGivesNoEmail%0, McWilliam%S%coreGivesNoEmail%1, Megarbane%B%coreGivesNoEmail%1, Mehrtens%J%coreGivesNoEmail%1, Menon%D%coreGivesNoEmail%1, Menzies%D%coreGivesNoEmail%1, Mercier%E%coreGivesNoEmail%1, Mercier%R%coreGivesNoEmail%1, Meredith%M%coreGivesNoEmail%1, Metherell%S%coreGivesNoEmail%1, Mevavala%B%coreGivesNoEmail%1, Mew%L%coreGivesNoEmail%1, Meyer%J%coreGivesNoEmail%1, Mezher%C%coreGivesNoEmail%1, Mfuko%C%coreGivesNoEmail%1, Mguni%N%coreGivesNoEmail%1, Middeldopr%S%coreGivesNoEmail%1, Miezitis%S%coreGivesNoEmail%1, Millen%T%coreGivesNoEmail%1, Miller%E%coreGivesNoEmail%1, Mills%G%coreGivesNoEmail%1, Miln%R%coreGivesNoEmail%1, Mineall%S%coreGivesNoEmail%1, Mirkovi\u0107%G%coreGivesNoEmail%1, Misak%C%coreGivesNoEmail%1, Misztal%B%coreGivesNoEmail%1, Mitchard%S%coreGivesNoEmail%1, Moine%P%coreGivesNoEmail%1, Monchi%M%coreGivesNoEmail%1, Moneer%Hagazy M%coreGivesNoEmail%1, Montague%L%coreGivesNoEmail%1, Montgomery%S%coreGivesNoEmail%2, Montgomery%S%coreGivesNoEmail%0, Moore%L%coreGivesNoEmail%1, Morel%G%coreGivesNoEmail%1, Moreno%Cuesta J%coreGivesNoEmail%1, Morgan%M%coreGivesNoEmail%1, Morpeth%S%coreGivesNoEmail%1, Morris%S%coreGivesNoEmail%1, Morrison%L%coreGivesNoEmail%1, Mouncey%P%coreGivesNoEmail%2, Mouncey%P%coreGivesNoEmail%0, Moviat%M%coreGivesNoEmail%1, Mullan%D%coreGivesNoEmail%1, Muller%G%coreGivesNoEmail%1, Munt%S%coreGivesNoEmail%1, Murphy%S%coreGivesNoEmail%1, Murray%L%coreGivesNoEmail%1, Murthy%S%coreGivesNoEmail%2, Murthy%S%coreGivesNoEmail%0, Music%E%coreGivesNoEmail%1, Mu\u00f1oz-Berm\u00fadez%R%coreGivesNoEmail%1, Mwaura%E%coreGivesNoEmail%1, Myers%E%coreGivesNoEmail%1, Naiker%K%coreGivesNoEmail%1, Nair%P%coreGivesNoEmail%1, Nay%M-A%coreGivesNoEmail%1, Neal%M%coreGivesNoEmail%1, Nee%J%coreGivesNoEmail%1, Netea%M%coreGivesNoEmail%1, Netherton%K%coreGivesNoEmail%1, Neto%A%coreGivesNoEmail%1, Neves%Pessoa LM%coreGivesNoEmail%1, Newby%L%coreGivesNoEmail%1, Newman%T%coreGivesNoEmail%1, Nichol%A%coreGivesNoEmail%2, Nichol%A%coreGivesNoEmail%0, Nicholier%TB%coreGivesNoEmail%1, Nichols%L%coreGivesNoEmail%1, Nicholson%A%coreGivesNoEmail%1, Nicholson%S%coreGivesNoEmail%1, Nierhaus%A%coreGivesNoEmail%1, Nikitas%N%coreGivesNoEmail%1, Noble%H%coreGivesNoEmail%1, North%J%coreGivesNoEmail%1, Nortje%J%coreGivesNoEmail%1, Oakley%S%coreGivesNoEmail%1, Oborska%A%coreGivesNoEmail%1, Oczkowski%S%coreGivesNoEmail%1, Olatunji%S%coreGivesNoEmail%1, Orath%Prabakaran R%coreGivesNoEmail%1, Orford%N%coreGivesNoEmail%1, Oritz-Ruiz%de Gordoa L%coreGivesNoEmail%1, Orr%K%coreGivesNoEmail%1, Oza%D%coreGivesNoEmail%1, O\u2019Brien%J%coreGivesNoEmail%1, O\u2019Dywer%M%coreGivesNoEmail%1, O\u2019Kane%C%coreGivesNoEmail%1, O\u2019Kane%S%coreGivesNoEmail%1, O\u2019Malley%L%coreGivesNoEmail%1, O\u2019Neill%A%coreGivesNoEmail%1, Page%V%coreGivesNoEmail%1, Paling%A%coreGivesNoEmail%1, Panwar%R%coreGivesNoEmail%1, Paramasivam%E%coreGivesNoEmail%1, Parekh%D%coreGivesNoEmail%1, Parke%R%coreGivesNoEmail%2, Parke%R%coreGivesNoEmail%0, Parker%J%coreGivesNoEmail%1, Parker%L%coreGivesNoEmail%1, Parrilla%G\u00f3mez F%coreGivesNoEmail%1, Parsons%P%coreGivesNoEmail%1, Pasi%J%coreGivesNoEmail%1, Pasieka%B%coreGivesNoEmail%1, Patanwala%A%coreGivesNoEmail%1, Patch%S%coreGivesNoEmail%1, Patel%A%coreGivesNoEmail%1, Patel%K%coreGivesNoEmail%1, Pateman%K%coreGivesNoEmail%1, Paterson%D%coreGivesNoEmail%1, Patterson%L%coreGivesNoEmail%1, Peake%S%coreGivesNoEmail%1, Pearson%K%coreGivesNoEmail%1, Pegler%S%coreGivesNoEmail%1, Pellicano%A%coreGivesNoEmail%1, Pereira%Sousa Bastos JM%coreGivesNoEmail%1, Pereira%R%coreGivesNoEmail%1, Peters%AL%coreGivesNoEmail%1, Peters%M%coreGivesNoEmail%1, Peters%S%coreGivesNoEmail%1, Petros%S%coreGivesNoEmail%1, Pettil\u00e4%L%coreGivesNoEmail%1, Phalod%G%coreGivesNoEmail%1, Philbin%J%coreGivesNoEmail%1, Phillips%B%coreGivesNoEmail%1, Phull%M-K%coreGivesNoEmail%1, Pillai%S%coreGivesNoEmail%1, Pinder%M%coreGivesNoEmail%1, Pinnell%J%coreGivesNoEmail%1, Pitts%S%coreGivesNoEmail%1, Pletz%M%coreGivesNoEmail%2, Pletz%M%coreGivesNoEmail%0, Plumb%B%coreGivesNoEmail%1, Pogreban%T%coreGivesNoEmail%1, Pogson%D%coreGivesNoEmail%1, Polderman%F%coreGivesNoEmail%1, Polgarova%P%coreGivesNoEmail%1, Pomeroy%F%coreGivesNoEmail%1, Porteous%R%coreGivesNoEmail%1, Porter%D%coreGivesNoEmail%1, Potter%A%coreGivesNoEmail%1, Pourcine%F%coreGivesNoEmail%1, Powell%E%coreGivesNoEmail%1, Powell%M%coreGivesNoEmail%1, Presneill%J%coreGivesNoEmail%1, Pridee%N%coreGivesNoEmail%1, Prinssen%A%coreGivesNoEmail%1, Prout%R%coreGivesNoEmail%1, Pugh%R%coreGivesNoEmail%1, Pulletz%M%coreGivesNoEmail%1, Purandare%L%coreGivesNoEmail%1, Purohit%D%coreGivesNoEmail%1, Purvis%S%coreGivesNoEmail%1, Puthucheary%Z%coreGivesNoEmail%1, Puxty%K%coreGivesNoEmail%1, Quayle%R%coreGivesNoEmail%1, Quinn%K%coreGivesNoEmail%1, Qureshi%H%coreGivesNoEmail%1, Rad%L%coreGivesNoEmail%1, Rademaker%E%coreGivesNoEmail%1, Rae%N%coreGivesNoEmail%1, Raithatha%A%coreGivesNoEmail%1, Ramali%M%coreGivesNoEmail%1, Ramanan%M%coreGivesNoEmail%1, Ramos%L%coreGivesNoEmail%1, Randell%G%coreGivesNoEmail%1, Rauniyar%R%coreGivesNoEmail%1, Raymakers%K%coreGivesNoEmail%1, Reddy%A%coreGivesNoEmail%1, Reddy%H%coreGivesNoEmail%1, Rees%T%coreGivesNoEmail%1, Reeve%B%coreGivesNoEmail%1, Regli%A%coreGivesNoEmail%1, Reill%L%coreGivesNoEmail%1, Rengers%E%coreGivesNoEmail%1, Reschreiter%H%coreGivesNoEmail%1, Reynolds%C%coreGivesNoEmail%1, Reynolds%J%coreGivesNoEmail%1, Rhodes%J%coreGivesNoEmail%1, Richards-Belle%A%coreGivesNoEmail%1, Ricketts%D%coreGivesNoEmail%1, Rietveld%I%coreGivesNoEmail%1, Ristim\u00e4ki%S%coreGivesNoEmail%1, Ritzema%Carter J%coreGivesNoEmail%1, Robert%A%coreGivesNoEmail%1, Roberts%D%coreGivesNoEmail%1, Robertson%Y%coreGivesNoEmail%1, Robinson%M%coreGivesNoEmail%1, Robinson%P%coreGivesNoEmail%1, Rochwerg%B%coreGivesNoEmail%1, Rodden%N%coreGivesNoEmail%1, Rodriguez%Fernandez J%coreGivesNoEmail%1, Roedl%K%coreGivesNoEmail%1, Rohde%G%coreGivesNoEmail%1, Rojo%R%coreGivesNoEmail%1, Rook%C%coreGivesNoEmail%1, Rooney%K%coreGivesNoEmail%1, Rosaroso%LP%coreGivesNoEmail%1, Rose%S%coreGivesNoEmail%1, Rostron%A%coreGivesNoEmail%1, Rowan%K%coreGivesNoEmail%3, Rowan%K%coreGivesNoEmail%0, Rowan%K%coreGivesNoEmail%0, Rowland%M%coreGivesNoEmail%1, Roy%A%coreGivesNoEmail%1, Roynon-Reed%A%coreGivesNoEmail%1, Rozendaal%W%coreGivesNoEmail%1, Russell%R%coreGivesNoEmail%1, Ryalls%K%coreGivesNoEmail%1, Ryan%L%coreGivesNoEmail%1, Sagnier%A%coreGivesNoEmail%1, Salazar%Degracia A%coreGivesNoEmail%1, Salerno%T%coreGivesNoEmail%1, Salet%A%coreGivesNoEmail%1, Salisbury%S%coreGivesNoEmail%1, Sall%J%coreGivesNoEmail%1, Salmon%C%coreGivesNoEmail%1, Sandhu%G%coreGivesNoEmail%1, Sanil%A%coreGivesNoEmail%2, Sanil%A%coreGivesNoEmail%0, Santamaria%J%coreGivesNoEmail%1, Santos%F%coreGivesNoEmail%1, Santos%M%coreGivesNoEmail%2, Santos%M%coreGivesNoEmail%0, Saull%M%coreGivesNoEmail%1, Saunders%C%coreGivesNoEmail%2, Saunders%C%coreGivesNoEmail%0, Schischka%L%coreGivesNoEmail%1, Schneider%F%coreGivesNoEmail%1, Schotsman%J%coreGivesNoEmail%1, Schuster-Bruce%M%coreGivesNoEmail%1, Schutgens%R%coreGivesNoEmail%1, Schweikert%S%coreGivesNoEmail%1, Sch\u00fctze%B%coreGivesNoEmail%1, Scully%M%coreGivesNoEmail%1, Sellers%K%coreGivesNoEmail%1, Selvamoni%S%coreGivesNoEmail%1, Senya%HJ%coreGivesNoEmail%1, Seppelt%I%coreGivesNoEmail%1, Serri%K%coreGivesNoEmail%1, Sever%H%coreGivesNoEmail%1, Seymour%C%coreGivesNoEmail%2, Seymour%C%coreGivesNoEmail%0, Shah%A%coreGivesNoEmail%1, Shakih%A%coreGivesNoEmail%1, Shankar-Hari%M%coreGivesNoEmail%1, Shaw%D%coreGivesNoEmail%1, Shaw%J%coreGivesNoEmail%1, Shearer%A%coreGivesNoEmail%1, Sheffield%J%coreGivesNoEmail%1, Shehabi%Y%coreGivesNoEmail%1, Shovelton%C%coreGivesNoEmail%1, Shrestha%T%coreGivesNoEmail%1, Shyamsundar%M%coreGivesNoEmail%1, Siami%S%coreGivesNoEmail%1, Silversides%J%coreGivesNoEmail%1, Sim%M%coreGivesNoEmail%1, Simmonds%C%coreGivesNoEmail%1, Simons%K%coreGivesNoEmail%1, Simpson%J%coreGivesNoEmail%1, Simpson%S%coreGivesNoEmail%1, Singh%V%coreGivesNoEmail%1, Singleton%J%coreGivesNoEmail%1, Sinha%P%coreGivesNoEmail%1, Slevin%K%coreGivesNoEmail%1, Small%C%coreGivesNoEmail%1, Smallwood%A%coreGivesNoEmail%1, Smee%J%coreGivesNoEmail%1, Smith%J%coreGivesNoEmail%4, Smith%J%coreGivesNoEmail%0, Smith%J%coreGivesNoEmail%0, Smith%J%coreGivesNoEmail%0, Smith%K%coreGivesNoEmail%1, Smith%M%coreGivesNoEmail%1, Smith%R%coreGivesNoEmail%1, Smith%S%coreGivesNoEmail%1, Smith%T%coreGivesNoEmail%1, Smuts%S%coreGivesNoEmail%1, Smyth%M%coreGivesNoEmail%1, Soar%N%coreGivesNoEmail%1, Somerville%A%coreGivesNoEmail%1, Song%R%coreGivesNoEmail%1, Sousa%Arias S%coreGivesNoEmail%1, Southern%D%coreGivesNoEmail%1, Southin%S%coreGivesNoEmail%1, Spencer%T%coreGivesNoEmail%1, Spittle%N%coreGivesNoEmail%1, Spivey%M%coreGivesNoEmail%1, Stanciu%D%coreGivesNoEmail%1, Stanworth%S%coreGivesNoEmail%1, Sterba%M%coreGivesNoEmail%1, Stevenson%H%coreGivesNoEmail%1, Stewart%R%coreGivesNoEmail%1, Strzelecka%A%coreGivesNoEmail%1, Sundara%Raman A%coreGivesNoEmail%1, Sundaran%D%coreGivesNoEmail%1, Sutherland%H%coreGivesNoEmail%1, Sutterlin%L%coreGivesNoEmail%1, Sutu%M%coreGivesNoEmail%1, Sweet%K%coreGivesNoEmail%1, Szakmany%T%coreGivesNoEmail%1, Szigligeti%G%coreGivesNoEmail%1, Sz\u0151ke%V%coreGivesNoEmail%1, Tallott%M%coreGivesNoEmail%1, Tatham%KC%coreGivesNoEmail%1, Templeton%M%coreGivesNoEmail%1, Thomas%A%coreGivesNoEmail%1, Thomas%H%coreGivesNoEmail%1, Thomas%M%coreGivesNoEmail%2, Thomas%M%coreGivesNoEmail%0, Thompson%T%coreGivesNoEmail%1, Thomson%N%coreGivesNoEmail%1, Thrush%J%coreGivesNoEmail%1, Tilney%E%coreGivesNoEmail%1, Tinmouth%A%coreGivesNoEmail%1, Tong%S%coreGivesNoEmail%1, Tooley%J%coreGivesNoEmail%1, Touma%O%coreGivesNoEmail%1, Trapani%T%coreGivesNoEmail%1, Trask%K%coreGivesNoEmail%1, Triulzi%D%coreGivesNoEmail%1, Trodd%D%coreGivesNoEmail%1, Tsang%J%coreGivesNoEmail%1, Tully%R%coreGivesNoEmail%1, Turgeon%A%coreGivesNoEmail%1, Turki%S%coreGivesNoEmail%1, Turner%A%coreGivesNoEmail%2, Turner%A%coreGivesNoEmail%0, Turner-Bone%I%coreGivesNoEmail%1, Turns%M%coreGivesNoEmail%1, Uddin%R%coreGivesNoEmail%1, Udy%A%coreGivesNoEmail%1, Uyeki%T%coreGivesNoEmail%1, Vaara%S%coreGivesNoEmail%1, Vahtera%A%coreGivesNoEmail%1, Vamplew%L%coreGivesNoEmail%1, van%Bentum Puijk W%coreGivesNoEmail%1, van%Bentum-Puijk W%coreGivesNoEmail%2, van%Bentum-Puijk W%coreGivesNoEmail%0, van%Beurden M%coreGivesNoEmail%1, van%de Veerdonk F%coreGivesNoEmail%2, van%de Veerdonk F%coreGivesNoEmail%0, Van%Der Heyden K%coreGivesNoEmail%1, van%der Poll T%coreGivesNoEmail%1, van\u2019t%Hoff W%coreGivesNoEmail%1, Vates%J%coreGivesNoEmail%1, Vautier%S%coreGivesNoEmail%1, Vazquez-Grande%G%coreGivesNoEmail%1, Venkatesh%B%coreGivesNoEmail%2, Venkatesh%B%coreGivesNoEmail%0, Venz%E%coreGivesNoEmail%1, Verlander%M%coreGivesNoEmail%1, Verrier%N%coreGivesNoEmail%1, Victor%S%coreGivesNoEmail%1, Vieillard-Baron%A%coreGivesNoEmail%1, Voicu%S%coreGivesNoEmail%1, Vowell%E%coreGivesNoEmail%1, Vujaklija%Brajkovi\u0107 A%coreGivesNoEmail%1, Vuylsteke%A%coreGivesNoEmail%1, Wagh%A%coreGivesNoEmail%1, Walden%A%coreGivesNoEmail%1, Walker%R%coreGivesNoEmail%1, Walsh%J%coreGivesNoEmail%1, Walsh%T%coreGivesNoEmail%1, Walsham%J%coreGivesNoEmail%1, Ward%K%coreGivesNoEmail%1, Warnock%M%coreGivesNoEmail%1, Waterson%S%coreGivesNoEmail%1, Watkins%C%coreGivesNoEmail%1, Watpool%I%coreGivesNoEmail%1, Watters%M%coreGivesNoEmail%1, Waugh%V%coreGivesNoEmail%1, Webb%S%coreGivesNoEmail%1, Webb%SA%coreGivesNoEmail%1, Wedd%S%coreGivesNoEmail%1, Weismann%D%coreGivesNoEmail%1, Weissman%A%coreGivesNoEmail%1, Wells%C%coreGivesNoEmail%1, Welters%I%coreGivesNoEmail%1, Wetherill%B%coreGivesNoEmail%1, Whelan%R%coreGivesNoEmail%1, Whileman%A%coreGivesNoEmail%1, Whitbread%J%coreGivesNoEmail%1, White%H%coreGivesNoEmail%1, White%I%coreGivesNoEmail%1, White%K%coreGivesNoEmail%1, Whitehead%C%coreGivesNoEmail%1, Wibrow%B%coreGivesNoEmail%1, Wigbers%J%coreGivesNoEmail%1, Wilby%E%coreGivesNoEmail%1, Wild%L%coreGivesNoEmail%2, Wild%L%coreGivesNoEmail%0, Wilding%L%coreGivesNoEmail%1, Wiley%D%coreGivesNoEmail%1, Wilhelmsen%E%coreGivesNoEmail%1, Wilkinson%D%coreGivesNoEmail%1, Willams%F%coreGivesNoEmail%1, Williams%A%coreGivesNoEmail%1, Williams%E%coreGivesNoEmail%1, Williams%H%coreGivesNoEmail%1, Williams%K%coreGivesNoEmail%1, Williams%P%coreGivesNoEmail%3, Williams%P%coreGivesNoEmail%0, Williams%P%coreGivesNoEmail%0, Williams%T%coreGivesNoEmail%1, Williams%V%coreGivesNoEmail%1, Williamson%D%coreGivesNoEmail%1, Williamson%J%coreGivesNoEmail%1, Wilson%K%coreGivesNoEmail%1, Wilson%M%coreGivesNoEmail%1, Wiseman%S%coreGivesNoEmail%1, Wong%H%coreGivesNoEmail%1, Wood%E%coreGivesNoEmail%1, Wood%H%coreGivesNoEmail%1, Wood%T%coreGivesNoEmail%1, Woods%J%coreGivesNoEmail%1, Woods%L%coreGivesNoEmail%1, Worner%R%coreGivesNoEmail%1, Wren%J%coreGivesNoEmail%1, Wren%L%coreGivesNoEmail%1, Wrey%Brown C%coreGivesNoEmail%1, Writing%Committee for the REMAP-CAP Investigators%coreGivesNoEmail%1, Xavier%K%coreGivesNoEmail%1, Xia%Le Tai C%coreGivesNoEmail%1, Yarad%E%coreGivesNoEmail%1, Yates%D%coreGivesNoEmail%1, Young%C%coreGivesNoEmail%1, Young%I%coreGivesNoEmail%1, Young%M%coreGivesNoEmail%1, Young%P%coreGivesNoEmail%1, Yusuff%H%coreGivesNoEmail%1, Zaharia%MF%coreGivesNoEmail%1, Zaidi%A%coreGivesNoEmail%1, Zaki%A%coreGivesNoEmail%1, Zaman%M%coreGivesNoEmail%1, Zammit%C%coreGivesNoEmail%1, Zapalac%M%coreGivesNoEmail%1, Zarychanski%R%coreGivesNoEmail%2, Zarychanski%R%coreGivesNoEmail%0, Zhao%XB%coreGivesNoEmail%1, Zinzoni%V%coreGivesNoEmail%1, Zitter%L%coreGivesNoEmail%1, \u0110imoti%R%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>[Firouzé%Bani-Sadr%NULL%1,   Maxime%Hentzien%NULL%1,   Madeline%Pascard%NULL%1,   Yohan%N'Guyen%NULL%1,   Amélie%Servettaz%NULL%1,   Laurent%Andreoletti%NULL%1,   Lukshe%Kanagaratnam%NULL%1,   Damien%Jolly%NULL%1]</t>
+  </si>
+  <si>
+    <t>Effect of Hydrocortisone on 21-Day Mortality or Respiratory Support Among Critically Ill Patients With COVID-19</t>
+  </si>
+  <si>
+    <t>International audienceImportance: Coronavirus disease 2019 (COVID-19) is associated with severe lung damage.
+ Corticosteroids are a possible therapeutic option.
+Objective: To determine the effect of hydrocortisone on treatment failure on day 21 in critically ill patients with severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection and acute respiratory failure.
+Design, setting, and participants: Multicenter randomized double-blind sequential trial conducted in France, with interim analyses planned every 50 patients.
+ Patients admitted to the intensive care unit (ICU) for COVID-19-related acute respiratory failure were enrolled from March 7 to June 1, 2020, with last follow-up on June 29, 2020. The study intended to enroll 290 patients but was stopped early following the recommendation of the data and safety monitoring board.
+Interventions: Patients were randomized to receive low-dose hydrocortisone (n = 76) or placebo (n = 73).
+Main outcomes and measures: The primary outcome, treatment failure on day 21, was defined as death or persistent dependency on mechanical ventilation or high-flow oxygen therapy.
+ Prespecified secondary outcomes included the need for tracheal intubation (among patients not intubated at baseline); cumulative incidences (until day 21) of prone position sessions, extracorporeal membrane oxygenation, and inhaled nitric oxide; Pao2:Fio2 ratio measured daily from day 1 to day 7, then on days 14 and 21; and the proportion of patients with secondary infections during their ICU stay.
+Results: The study was stopped after 149 patients (mean age, 62.2 years; 30.2% women; 81.2% mechanically ventilated) were enrolled.
+ One hundred forty-eight patients (99.3%) completed the study, and there were 69 treatment failure events, including 11 deaths in the hydrocortisone group and 20 deaths in the placebo group.
+ The primary outcome, treatment failure on day 21, occurred in 32 of 76 patients (42.1%) in the hydrocortisone group compared with 37 of 73 (50.7%) in the placebo group (difference of proportions, -8.6% [95.48% CI, -24.9% to 7.7%]; P = .
+29).
+ Of the 4 prespecified secondary outcomes, none showed a significant difference.
+ No serious adverse events were related to the study treatment.
+Conclusions and relevance: In this study of critically ill patients with COVID-19 and acute respiratory failure, low-dose hydrocortisone, compared with placebo, did not significantly reduce treatment failure (defined as death or persistent respiratory support) at day 21. However, the study was stopped early and likely was underpowered to find a statistically and clinically important difference in the primary outcome.
+Trial registration: ClinicalTrials.
+gov Identifier: NCT02517489</t>
+  </si>
+  <si>
+    <t>[Annane%Djillali%coreGivesNoEmail%0, Aubron%C\u00e9cile%coreGivesNoEmail%1, Badi\u00e9%Julio%coreGivesNoEmail%1, Bourgoin%H\u00e9l\u00e8ne%coreGivesNoEmail%1, Caille-F\u00e9n\u00e9rol%Caroline%coreGivesNoEmail%1, Coffre%Carine%coreGivesNoEmail%1, Dequin%Pierre-Fran\u00e7ois%coreGivesNoEmail%1, Ehrmann%Stephan%coreGivesNoEmail%1, Fran\u00e7ois%Bruno%coreGivesNoEmail%1, Giraudeau%Bruno%coreGivesNoEmail%1, Guillon%Antoine%coreGivesNoEmail%1, Heming%Nicholas%coreGivesNoEmail%1, Jouan%Youenn%coreGivesNoEmail%1, Le%Gouge Am\u00e9lie%coreGivesNoEmail%1, Leclerc%Marie%coreGivesNoEmail%1, Lengell\u00e9%C\u00e9line%coreGivesNoEmail%1, Meziani%Ferhat%coreGivesNoEmail%1, Plantef\u00e8ve%Ga\u00ebtan%coreGivesNoEmail%1, Ricard%Jean-Damien%coreGivesNoEmail%1, Tavernier%Elsa%coreGivesNoEmail%1, Voiriot%Guillaume%coreGivesNoEmail%1, Zohar%Sarah%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%2,   Austin R%Morrison%NULL%1,   Amit%Vahia%NULL%1,   Zachary R%Smith%NULL%1,   Zohra%Chaudhry%NULL%1,   Pallavi%Bhargava%NULL%1,   Joseph%Miller%NULL%1,   Rachel M%Kenney%NULL%1,   George%Alangaden%NULL%1,   Mayur S%Ramesh%mramesh1@hfhs.org%1,   Varidhi%Nauriyal%NULL%1,   Jayanth%Lakshmikanth%NULL%1,   Asif%Abdul Hamed%NULL%1,   Owais%Nadeem%NULL%1,   Kristin%Griebe%NULL%1,   Joseph M%Johnson%NULL%1,   Patrick%Bradley%NULL%1,   Junior%Uduman%NULL%1,   Sara%Hegab%NULL%1,   Jennifer%Swiderek%NULL%1,   Amanda%Godfrey%NULL%1,   Jeffrey%Jennings%NULL%1,   Jayna%Gardner-Gray%NULL%1,   Adam%Ackerman%NULL%1,   Jonathan%Lezotte%NULL%1,   Joseph%Ruhala%NULL%1,   Linoj%Samuel%NULL%1,   Robert J%Tibbetts%NULL%1,   Indira%Brar%NULL%1,   John%McKinnon%NULL%1,   Geehan%Suleyman%NULL%1,   Nicholas%Yared%NULL%1,   Erica%Herc%NULL%1,   Jonathan%Williams%NULL%1,   Odaliz Abreu%Lanfranco%NULL%1,   Anne%Chen%NULL%1,   Marcus%Zervos%NULL%1,   Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tomasz%Chroboczek%tchroboczek@gmail.com%1,   Marie%Lacoste%NULL%2,   Marie%Lacoste%NULL%0,   Chloe%Wackenheim%NULL%1,   Thibaut%Challan-Belval%NULL%1,   Benjamin%Amar%NULL%1,   Thomas%Boisson%NULL%1,   Jason%Hubac%NULL%1,   Dominique%Leduc%NULL%1,   Colleen%Masse%NULL%1,   Victor%Dechaene%NULL%1,   Laetitia%Touihri-Maximin%NULL%1,   Sandrine%Megessier%NULL%1,   Camille%Lassale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christiane Maria Prado%Jeronimo%NULL%2,   Maria Eduarda Leão%Farias%NULL%2,   Fernando Fonseca Almeida%Val%NULL%2,   Vanderson Souza%Sampaio%NULL%2,   Marcia Almeida Araújo%Alexandre%NULL%2,   Gisely Cardoso%Melo%NULL%2,   Izabella Picinin%Safe%NULL%2,   Mayla Gabriela Silva%Borba%NULL%2,   Rebeca Linhares%Abreu-Netto%NULL%2,   Alex Bezerra Silva%Maciel%NULL%2,   João Ricardo Silva%Neto%NULL%2,   Lucas Barbosa%Oliveira%NULL%2,   Erick Frota Gomes%Figueiredo%NULL%2,   Kelry Mazurega Oliveira%Dinelly%NULL%2,   Maria Gabriela de Almeida%Rodrigues%NULL%2,   Marcelo%Brito%NULL%2,   Maria Paula Gomes%Mourão%NULL%2,   Guilherme Augusto%Pivoto João%NULL%2,   Ludhmila Abrahão%Hajjar%NULL%2,   Quique%Bassat%NULL%0,   Gustavo Adolfo Sierra%Romero%NULL%2,   Felipe Gomes%Naveca%NULL%2,   Heline Lira%Vasconcelos%NULL%2,   Michel de Araújo%Tavares%NULL%2,   José Diego%Brito-Sousa%NULL%2,   Fabio Trindade Maranhão%Costa%NULL%2,   Maurício Lacerda%Nogueira%NULL%2,   Djane%Baía-da-Silva%NULL%2,   Mariana Simão%Xavier%NULL%2,   Wuelton Marcelo%Monteiro%NULL%2,   Marcus Vinícius Guimarães%Lacerda%marcuslacerda.br@gmail.com%2,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiang%Li%NULL%1,   Weixia%Li%NULL%1,   Yinpeng%Jin%NULL%1,   Wei%Xu%NULL%0,   Chenlu%Huang%NULL%1,   Li%Li%NULL%0,   Yuxian%Huang%NULL%1,   Qingchun%Fu%fuqingchun@shphc.org.cn%1,   Liang%Chen%chenliang@shphc.org.cn%1]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%2,   Zhigang%Hu%NULL%1,   Xinyu%Song%songxinyu@ctgu.edu.cn%2,   Xinyu%Song%songxinyu@ctgu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Brian C%Nelson%brn9016@nyp.org%1,   Justin%Laracy%NULL%1,   Sherif%Shoucri%NULL%1,   Donald%Dietz%NULL%1,   Jason%Zucker%NULL%1,   Nina%Patel%NULL%1,   Magdalena E%Sobieszczyk%NULL%2,   Christine J%Kubin%NULL%1,   Angela%Gomez-Simmonds%NULL%1]</t>
+  </si>
+  <si>
+    <t>Effect of Dexamethasone on Days Alive and Ventilator-Free in Patients With Moderate or Severe Acute Respiratory Distress Syndrome and COVID-19</t>
+  </si>
+  <si>
+    <t>[Alexandre%B. Cavalcanti%coreGivesNoEmail%0, Alvaro%Avezum%coreGivesNoEmail%1, Andre%N. Costa%coreGivesNoEmail%1, Bruno%M. Tomazini%coreGivesNoEmail%1, Caio%C. F. Fernandes%coreGivesNoEmail%1, Cassia%Righy%coreGivesNoEmail%1, Cristina%P. Amendola%coreGivesNoEmail%1, Daniel%N. Forte%coreGivesNoEmail%1, Daniela%H. M. Freitas%coreGivesNoEmail%1, Douglas%Costa Morais%coreGivesNoEmail%1, Eduardo%L. V. Costa%coreGivesNoEmail%1, Fernando%G. Zampieri%coreGivesNoEmail%1, Flavia%R. Bueno%coreGivesNoEmail%1, Fl\u00e1via%R. Machado%coreGivesNoEmail%1, Fl\u00e1vio%G. R. Freitas%coreGivesNoEmail%1, Franca%P. Baldassare%coreGivesNoEmail%1, Gedealvares%F. S. Junior%coreGivesNoEmail%1, Guilherme%B. Olivato%coreGivesNoEmail%1, Israel%S. Maia%coreGivesNoEmail%1, Let\u00edcia%Kawano-Dourado%coreGivesNoEmail%1, Livia%M. G. Melro%coreGivesNoEmail%1, Lucas%P. Damiani%coreGivesNoEmail%1, Luciano%C. P. Azevedo%coreGivesNoEmail%1, Maria%Vitoria A. O. Silva%coreGivesNoEmail%1, Michele%O. Honorato%coreGivesNoEmail%1, Otavio%Berwanger%coreGivesNoEmail%1, Regis%G. Rosa%coreGivesNoEmail%1, Renato%D. Lopes%coreGivesNoEmail%1, Ricardo%A. B. Moura%coreGivesNoEmail%1, Roberta%M. L. Roepke%coreGivesNoEmail%1, Stevin%Zung%coreGivesNoEmail%1, Thiago%Lisboa%coreGivesNoEmail%1, Viviane%C. Veiga%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1629,7 @@
         <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
@@ -1502,7 +1658,7 @@
         <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="F4" t="s">
         <v>60</v>
@@ -1531,7 +1687,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="F5" t="s">
         <v>65</v>
@@ -1560,7 +1716,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="F6" t="s">
         <v>69</v>
@@ -1589,7 +1745,7 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -1618,7 +1774,7 @@
         <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="F8" t="s">
         <v>77</v>
@@ -1647,7 +1803,7 @@
         <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="F9" t="s">
         <v>82</v>
@@ -1676,7 +1832,7 @@
         <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="F10" t="s">
         <v>87</v>
@@ -1705,7 +1861,7 @@
         <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -1734,7 +1890,7 @@
         <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="F12" t="s">
         <v>96</v>
@@ -1763,7 +1919,7 @@
         <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F13" t="s">
         <v>100</v>
@@ -1792,7 +1948,7 @@
         <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="F14" t="s">
         <v>105</v>
@@ -1821,7 +1977,7 @@
         <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="F15" t="s">
         <v>108</v>
@@ -1879,7 +2035,7 @@
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="F17" t="s">
         <v>111</v>
@@ -1908,7 +2064,7 @@
         <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="F18" t="s">
         <v>114</v>
@@ -1937,7 +2093,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -1966,7 +2122,7 @@
         <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -1995,7 +2151,7 @@
         <v>127</v>
       </c>
       <c r="E21" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="F21" t="s">
         <v>129</v>
@@ -2024,7 +2180,7 @@
         <v>132</v>
       </c>
       <c r="E22" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="F22" t="s">
         <v>134</v>
@@ -2053,7 +2209,7 @@
         <v>137</v>
       </c>
       <c r="E23" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="F23" t="s">
         <v>139</v>
@@ -2082,7 +2238,7 @@
         <v>142</v>
       </c>
       <c r="E24" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="F24" t="s">
         <v>144</v>
@@ -2111,7 +2267,7 @@
         <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="F25" t="s">
         <v>148</v>
@@ -2140,7 +2296,7 @@
         <v>151</v>
       </c>
       <c r="E26" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="F26" t="s">
         <v>153</v>
@@ -2198,7 +2354,7 @@
         <v>151</v>
       </c>
       <c r="E28" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="F28" t="s">
         <v>153</v>
@@ -2227,7 +2383,7 @@
         <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F29" t="s">
         <v>163</v>
@@ -2250,19 +2406,19 @@
         <v>44110.0</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>252</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>253</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>254</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>255</v>
       </c>
       <c r="H30" t="s">
         <v>51</v>
@@ -2285,7 +2441,7 @@
         <v>165</v>
       </c>
       <c r="E31" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="F31" t="s">
         <v>167</v>
@@ -2308,19 +2464,19 @@
         <v>44076.0</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>257</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>258</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>259</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>49</v>
+        <v>255</v>
       </c>
       <c r="H32" t="s">
         <v>51</v>
@@ -2343,7 +2499,7 @@
         <v>169</v>
       </c>
       <c r="E33" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="F33" t="s">
         <v>171</v>
@@ -2372,7 +2528,7 @@
         <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F34" t="s">
         <v>175</v>
@@ -2430,7 +2586,7 @@
         <v>177</v>
       </c>
       <c r="E36" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="F36" t="s">
         <v>179</v>
@@ -2459,7 +2615,7 @@
         <v>181</v>
       </c>
       <c r="E37" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="F37" t="s">
         <v>183</v>
@@ -2488,7 +2644,7 @@
         <v>58</v>
       </c>
       <c r="E38" t="s">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="F38" t="s">
         <v>186</v>
@@ -2517,7 +2673,7 @@
         <v>188</v>
       </c>
       <c r="E39" t="s">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="F39" t="s">
         <v>190</v>
@@ -2540,19 +2696,19 @@
         <v>44110.0</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>266</v>
       </c>
       <c r="D40" t="s">
         <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>267</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>49</v>
+        <v>255</v>
       </c>
       <c r="H40" t="s">
         <v>51</v>

--- a/Covid_19_Dataset_and_References/References/18.xlsx
+++ b/Covid_19_Dataset_and_References/References/18.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="303">
   <si>
     <t>Doi</t>
   </si>
@@ -1204,6 +1204,111 @@
   </si>
   <si>
     <t>[Alexandre%B. Cavalcanti%coreGivesNoEmail%0, Alvaro%Avezum%coreGivesNoEmail%1, Andre%N. Costa%coreGivesNoEmail%1, Bruno%M. Tomazini%coreGivesNoEmail%1, Caio%C. F. Fernandes%coreGivesNoEmail%1, Cassia%Righy%coreGivesNoEmail%1, Cristina%P. Amendola%coreGivesNoEmail%1, Daniel%N. Forte%coreGivesNoEmail%1, Daniela%H. M. Freitas%coreGivesNoEmail%1, Douglas%Costa Morais%coreGivesNoEmail%1, Eduardo%L. V. Costa%coreGivesNoEmail%1, Fernando%G. Zampieri%coreGivesNoEmail%1, Flavia%R. Bueno%coreGivesNoEmail%1, Fl\u00e1via%R. Machado%coreGivesNoEmail%1, Fl\u00e1vio%G. R. Freitas%coreGivesNoEmail%1, Franca%P. Baldassare%coreGivesNoEmail%1, Gedealvares%F. S. Junior%coreGivesNoEmail%1, Guilherme%B. Olivato%coreGivesNoEmail%1, Israel%S. Maia%coreGivesNoEmail%1, Let\u00edcia%Kawano-Dourado%coreGivesNoEmail%1, Livia%M. G. Melro%coreGivesNoEmail%1, Lucas%P. Damiani%coreGivesNoEmail%1, Luciano%C. P. Azevedo%coreGivesNoEmail%1, Maria%Vitoria A. O. Silva%coreGivesNoEmail%1, Michele%O. Honorato%coreGivesNoEmail%1, Otavio%Berwanger%coreGivesNoEmail%1, Regis%G. Rosa%coreGivesNoEmail%1, Renato%D. Lopes%coreGivesNoEmail%1, Ricardo%A. B. Moura%coreGivesNoEmail%1, Roberta%M. L. Roepke%coreGivesNoEmail%1, Stevin%Zung%coreGivesNoEmail%1, Thiago%Lisboa%coreGivesNoEmail%1, Viviane%C. Veiga%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,    Bohan%Yang%NULL%1,    Qianwen%Li%NULL%1,    Lu%Wen%NULL%1,    Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%2,    Zhiguo%Zhang%NULL%2,    Zhiguo%Zhang%NULL%0,    Muqing%Yu%NULL%1,    Yu%Tao%NULL%1,    Min%Xie%xie_m@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Jianfeng%Wu%NULL%1,    Jianqiang%Huang%NULL%1,    Guochao%Zhu%NULL%1,    Yihao%Liu%NULL%1,    Han%Xiao%NULL%1,    Qian%Zhou%NULL%1,    Xiang%Si%NULL%1,    Hui%Yi%NULL%1,    Cuiping%Wang%NULL%1,    Daya%Yang%NULL%1,    Shuling%Chen%NULL%1,    Xin%Liu%NULL%1,    Zelong%Liu%NULL%1,    Qiongya%Wang%NULL%1,    Qingquan%Lv%NULL%1,    Ying%Huang%NULL%1,    Yang%Yu%NULL%1,    Xiangdong%Guan%NULL%1,    Yanbing%Li%NULL%1,    Krishnarajah%Nirantharakumar%NULL%1,    KarKeung%Cheng%NULL%1,    Sui%Peng%pengsui@vip.163.com%1,    Haipeng%Xiao%xiaohp@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kaijin%Xu%NULL%1,    Yanfei%Chen%NULL%1,    Jing%Yuan%NULL%1,    Ping%Yi%NULL%1,    Cheng%Ding%NULL%1,    Wenrui%Wu%NULL%2,    Yongtao%Li%NULL%1,    Qin%Ni%NULL%1,    Rongrong%Zou%NULL%1,    Xiaohe%Li%NULL%1,    Min%Xu%NULL%1,    Ying%Zhang%NULL%1,    Hong%Zhao%NULL%1,    Xuan%Zhang%NULL%1,    Liang%Yu%NULL%1,    Junwei%Su%NULL%1,    Guanjing%Lang%NULL%1,    Jun%Liu%NULL%1,    Xiaoxin%Wu%NULL%1,    Yongzheng%Guo%NULL%1,    Jingjing%Tao%NULL%1,    Ding%Shi%NULL%1,    Ling%Yu%NULL%1,    Qing%Cao%NULL%1,    Bing%Ruan%NULL%1,    Lei%Liu%NULL%1,    Zhaoqin%Wang%NULL%1,    Yan%Xu%NULL%1,    Yingxia%Liu%NULL%1,    Jifang%Sheng%NULL%2,    Lanjuan%Li%ljli@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Stephen Su%Yang%stephen.yang@mail.mcgill.ca%1,    Jed%Lipes%NULL%2,    Jed%Lipes%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%2,    Shirong%Li%NULL%1,    Lingling%Pan%NULL%1,    Boris%Tefsen%NULL%1,    Yeshan%Li%NULL%1,    Neil%French%NULL%1,    Liyun%Chen%NULL%1,    Gang%Yang%NULL%1,    Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Salton%NULL%1,    Paola%Confalonieri%NULL%1,    G Umberto%Meduri%NULL%1,    Pierachille%Santus%NULL%1,    Sergio%Harari%NULL%1,    Raffaele%Scala%NULL%1,    Simone%Lanini%NULL%1,    Valentina%Vertui%NULL%1,    Tiberio%Oggionni%NULL%1,    Antonella%Caminati%NULL%1,    Vincenzo%Patruno%NULL%1,    Mario%Tamburrini%NULL%1,    Alessandro%Scartabellati%NULL%1,    Mara%Parati%NULL%1,    Massimiliano%Villani%NULL%1,    Dejan%Radovanovic%NULL%1,    Sara%Tomassetti%NULL%1,    Claudia%Ravaglia%NULL%1,    Venerino%Poletti%NULL%1,    Andrea%Vianello%NULL%1,    Anna Talia%Gaccione%NULL%1,    Luca%Guidelli%NULL%1,    Rita%Raccanelli%NULL%1,    Paolo%Lucernoni%NULL%1,    Donato%Lacedonia%NULL%1,    Maria Pia%Foschino Barbaro%NULL%1,    Stefano%Centanni%NULL%1,    Michele%Mondoni%NULL%1,    Matteo%Davì%NULL%1,    Alberto%Fantin%NULL%1,    Xueyuan%Cao%NULL%1,    Lucio%Torelli%NULL%1,    Antonella%Zucchetto%NULL%1,    Marcella%Montico%NULL%1,    Annalisa%Casarin%NULL%1,    Micaela%Romagnoli%NULL%1,    Stefano%Gasparini%NULL%1,    Martina%Bonifazi%NULL%1,    Pierlanfranco%D’Agaro%NULL%1,    Alessandro%Marcello%NULL%1,    Danilo%Licastro%NULL%1,    Barbara%Ruaro%NULL%1,    Maria Concetta%Volpe%NULL%1,    Reba%Umberger%NULL%1,    Marco%Confalonieri%mconfalonieri@units.it%1]</t>
+  </si>
+  <si>
+    <t>[Yinzhong%Shen%NULL%2,    Fang%Zheng%NULL%2,    Fang%Zheng%NULL%0,    Danfeng%Sun%NULL%1,    Yun%Ling%NULL%3,    Jun%Chen%NULL%1,    Feng%Li%NULL%2,    Feng%Li%NULL%0,    Tao%Li%NULL%2,    Zhiping%Qian%NULL%1,    Yuyi%Zhang%NULL%1,    Qingnian%Xu%NULL%1,    Li%Liu%NULL%1,    Qin%Huang%NULL%1,    Fei%Shan%NULL%1,    Lie%Xu%NULL%1,    Jun%Wu%NULL%1,    Zhaoqin%Zhu%NULL%1,    Zhigang%Song%NULL%1,    Shenyang%Li%NULL%1,    Yuxin%Shi%NULL%1,    Jianliang%Zhang%NULL%1,    Xueyun%Wu%NULL%1,    Joshua B.%Mendelsohn%NULL%2,    Joshua B.%Mendelsohn%NULL%0,    Tongyu%Zhu%NULL%1,    Hongzhou%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[José Luis%Callejas Rubio%jlcalleja@telefonica.net%1,    Juan de Dios%Luna del Castillo%NULL%1,    Javier%de la Hera Fernández%NULL%1,    Emilio%Guirao Arrabal%NULL%1,    Manuel%Colmenero Ruiz%NULL%1,    Norberto%Ortego Centeno%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ding%Shi%NULL%1,    Wenrui%Wu%NULL%0,    Qing%Wang%NULL%1,    Kaijin%Xu%NULL%1,    Jiaojiao%Xie%NULL%1,    Jingjing%Wu%NULL%1,    Longxian%Lv%NULL%1,    Jifang%Sheng%NULL%0,    Jing%Guo%NULL%1,    Kaicen%Wang%NULL%1,    Daiqiong%Fang%NULL%1,    Yating%Li%NULL%1,    Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%2,    Weiwei%Jiang%NULL%1,    Qi%He%NULL%1,    Cheng%Wang%NULL%1,    Baoju%Wang%NULL%1,    Pan%Zhou%NULL%1,    Nianguo%Dong%dongnianguo63@gmail.com%1,    Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%3,    Xian%Zhou%NULL%1,    Tao%Li%NULL%0,    Shiji%Chan%NULL%1,    Yiqi%Yu%NULL%1,    Jing-Wen%Ai%NULL%1,    Haocheng%Zhang%NULL%1,    Feng%Sun%NULL%1,    Qiran%Zhang%NULL%1,    Lei%Zhu%NULL%1,    Lingyun%Shao%NULL%1,    Bin%Xu%NULL%1,    Wenhong%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Liu%NULL%1,    Xiaobin%Zheng%NULL%1,    Yiying%Huang%NULL%1,    Hong%Shan%shanhong@mail.sysu.edu.cn%1,    Jin%Huang%hjin@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiang-Hong%Yang%NULL%1,    Ran-Ran%Li%NULL%1,    Ren-Hua%Sun%NULL%1,    Jiao%Liu%NULL%1,    De-Chang%Chen%NULL%1,    Peng%Lyu%NULL%2,    Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%2,    Taige%Chen%NULL%1,    Yang%Wang%NULL%1,    Jun%Wang%NULL%1,    Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yiming%Ma%NULL%1,    Huihui%Zeng%NULL%1,    Zijie%Zhan%NULL%1,    Huanhuan%Lu%NULL%1,    Zihang%Zeng%NULL%1,    Chenjie%He%NULL%1,    Xiangming%Liu%NULL%1,    Chen%Chen%NULL%1,    Qingwu%Qin%NULL%1,    Jia%He%NULL%1,    Zhiguo%Zhou%NULL%1,    Peng%Huang%NULL%1,    Mingyan%Jiang%NULL%1,    Dingding%Deng%NULL%1,    Xin%Liao%NULL%1,    Zhi%Xiang%NULL%1,    Xiaoying%Huang%NULL%1,    Yan%Chen%NULL%1,    Ping%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Monil%Majmundar%NULL%1,    Tikal%Kansara%NULL%2,    Tikal%Kansara%NULL%0,    Joanna Marta%Lenik%NULL%1,    Hansang%Park%NULL%1,    Kuldeep%Ghosh%NULL%1,    Rajkumar%Doshi%NULL%1,    Palak%Shah%NULL%1,    Ashish%Kumar%NULL%1,    Hossam%Amin%NULL%2,    Hossam%Amin%NULL%0,    Shobhana%Chaudhari%NULL%1,    Imnett%Habtes%NULL%1,    Muhammad%Adrish%NULL%8,    Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Malgorzata%Mikulska%NULL%1,    Laura Ambra%Nicolini%NULL%2,    Laura Ambra%Nicolini%NULL%0,    Alessio%Signori%NULL%1,    Antonio%Di Biagio%NULL%1,    Chiara%Sepulcri%NULL%2,    Chiara%Sepulcri%NULL%0,    Chiara%Russo%NULL%1,    Silvia%Dettori%NULL%1,    Marco%Berruti%NULL%1,    Maria Pia%Sormani%NULL%1,    Daniele Roberto%Giacobbe%NULL%1,    Antonio%Vena%NULL%2,    Antonio%Vena%NULL%0,    Andrea%De Maria%NULL%1,    Chiara%Dentone%NULL%1,    Lucia%Taramasso%NULL%1,    Michele%Mirabella%NULL%2,    Michele%Mirabella%NULL%0,    Laura%Magnasco%NULL%1,    Sara%Mora%NULL%1,    Emanuele%Delfino%NULL%1,    Federica%Toscanini%NULL%1,    Elisa%Balletto%NULL%1,    Anna Ida%Alessandrini%NULL%1,    Federico%Baldi%NULL%1,    Federica%Briano%NULL%1,    Marco%Camera%NULL%1,    Ferdinando%Dodi%NULL%1,    Antonio%Ferrazin%NULL%1,    Laura%Labate%NULL%1,    Giovanni%Mazzarello%NULL%1,    Rachele%Pincino%NULL%1,    Federica%Portunato%NULL%1,    Stefania%Tutino%NULL%1,    Emanuela%Barisione%NULL%1,    Bianca%Bruzzone%NULL%1,    Andrea%Orsi%NULL%1,    Eva%Schenone%NULL%1,    Nirmala%Rosseti%NULL%1,    Elisabetta%Sasso%NULL%1,    Giorgio%Da Rin%NULL%1,    Paolo%Pelosi%NULL%1,    Sabrina%Beltramini%NULL%1,    Mauro%Giacomini%NULL%1,    Giancarlo%Icardi%NULL%2,    Giancarlo%Icardi%NULL%0,    Angelo%Gratarola%NULL%1,    Matteo%Bassetti%NULL%1,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mao%Huang%NULL%2,    Yi%Yang%NULL%1,    Futai%Shang%NULL%1,    Yishan%Zheng%NULL%1,    Wenjing%Zhao%NULL%1,    Liang%Luo%NULL%1,    Xudong%Han%NULL%1,    Aihua%Lin%NULL%1,    Hongsheng%Zhao%NULL%1,    Qing%Gu%NULL%1,    Yi%Shi%NULL%1,    Jun%Li%NULL%1,    Xingxiang%Xu%NULL%1,    Kexi%Liu%NULL%1,    YiJun%Deng%NULL%1,    Quan%Cao%NULL%1,    Weiwei%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%4,    Yun%Ling%NULL%0,    Yun%Ling%NULL%0,    Tao%Bai%NULL%2,    Tao%Bai%NULL%0,    Yusang%Xie%NULL%1,    Jie%Huang%NULL%2,    Jie%Huang%NULL%0,    Jian%Li%NULL%1,    Weining%Xiong%NULL%1,    Dexiang%Yang%NULL%1,    Rong%Chen%NULL%1,    Fangying%Lu%NULL%1,    Yunfei%Lu%NULL%1,    Xuhui%Liu%NULL%1,    Yuqing%Chen%NULL%2,    Yuqing%Chen%NULL%0,    Xin%Li%NULL%1,    Yong%Li%NULL%1,    Hanssa Dwarka%Summah%NULL%1,    Huihuang%Lin%NULL%1,    Jiayang%Yan%NULL%1,    Min%Zhou%NULL%1,    Hongzhou%Lu%NULL%0,    Hongzhou%Lu%NULL%0,    Jieming%Qu%NULL%2,    Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana%Fernández-Cruz%NULL%1,    Belén%Ruiz-Antorán%NULL%2,    Belén%Ruiz-Antorán%NULL%0,    Ana%Muñoz-Gómez%NULL%1,    Aránzazu%Sancho-López%NULL%1,    Patricia%Mills-Sánchez%NULL%1,    Gustavo Adolfo%Centeno-Soto%NULL%1,    Silvia%Blanco-Alonso%NULL%1,    Laura%Javaloyes-Garachana%NULL%1,    Amy%Galán-Gómez%NULL%1,    Ángela%Valencia-Alijo%NULL%1,    Javier%Gómez-Irusta%NULL%1,    Concepción%Payares-Herrera%NULL%1,    Ignacio%Morrás-Torre%NULL%1,    Enrique%Sánchez-Chica%NULL%1,    Laura%Delgado-Téllez-de-Cepeda%NULL%1,    Alejandro%Callejas-Díaz%NULL%1,    Antonio%Ramos-Martínez%NULL%1,    Elena%Múñez-Rubio%NULL%2,    Elena%Múñez-Rubio%NULL%0,    Cristina%Avendaño-Solá%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmine%Gazzaruso%c.gazzaruso@gmail.com%1,    Nicoletta%Carlo Stella%NULL%2,    Nicoletta%Carlo Stella%NULL%0,    Giuseppe%Mariani%NULL%1,    Anna%Tamburlini%NULL%1,    Pietro%Garini%NULL%1,    Elena%Freddi%NULL%1,    Carolina%Ravetto%NULL%1,    Adriana%Coppola%NULL%1,    Pietro%Gallotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Hu%NULL%2,    Tingping%Wang%NULL%2,    Zhimin%Hu%NULL%2,    Xuan%Wang%NULL%2,    Zhengbin%Zhang%NULL%2,    Li%Li%NULL%3,    Peng%Peng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Yan%Hu%NULL%0,    Tingping%Wang%NULL%0,    Zhimin%Hu%NULL%0,    Xuan%Wang%NULL%0,    Zhengbin%Zhang%NULL%0,    Li%Li%NULL%0,    Peng%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,    Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,    Wenlin%Cheng%NULL%1,    Lei%Yu%NULL%1,    Ya-Kun%Liu%NULL%1,    Xiaoyong%Hu%NULL%1,    Qiang%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Firouzé%Bani-Sadr%NULL%1,    Maxime%Hentzien%NULL%1,    Madeline%Pascard%NULL%1,    Yohan%N'Guyen%NULL%1,    Amélie%Servettaz%NULL%1,    Laurent%Andreoletti%NULL%1,    Lukshe%Kanagaratnam%NULL%1,    Damien%Jolly%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Annane%Djillali%coreGivesNoEmail%2,  Aubron%C\u00e9cile%coreGivesNoEmail%2,  Badi\u00e9%Julio%coreGivesNoEmail%2,  Bourgoin%H\u00e9l\u00e8ne%coreGivesNoEmail%2,  Caille-F\u00e9n\u00e9rol%Caroline%coreGivesNoEmail%2,  Coffre%Carine%coreGivesNoEmail%2,  Dequin%Pierre-Fran\u00e7ois%coreGivesNoEmail%2,  Ehrmann%Stephan%coreGivesNoEmail%2,  Fran\u00e7ois%Bruno%coreGivesNoEmail%2,  Giraudeau%Bruno%coreGivesNoEmail%2,  Guillon%Antoine%coreGivesNoEmail%2,  Heming%Nicholas%coreGivesNoEmail%2,  Jouan%Youenn%coreGivesNoEmail%2,  Le%Gouge Am\u00e9lie%coreGivesNoEmail%2,  Leclerc%Marie%coreGivesNoEmail%2,  Lengell\u00e9%C\u00e9line%coreGivesNoEmail%2,  Meziani%Ferhat%coreGivesNoEmail%2,  Plantef\u00e8ve%Ga\u00ebtan%coreGivesNoEmail%2,  Ricard%Jean-Damien%coreGivesNoEmail%2,  Tavernier%Elsa%coreGivesNoEmail%2,  Voiriot%Guillaume%coreGivesNoEmail%2,  Zohar%Sarah%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%2,    Austin R%Morrison%NULL%1,    Amit%Vahia%NULL%1,    Zachary R%Smith%NULL%1,    Zohra%Chaudhry%NULL%1,    Pallavi%Bhargava%NULL%1,    Joseph%Miller%NULL%1,    Rachel M%Kenney%NULL%1,    George%Alangaden%NULL%1,    Mayur S%Ramesh%mramesh1@hfhs.org%1,    Varidhi%Nauriyal%NULL%1,    Jayanth%Lakshmikanth%NULL%1,    Asif%Abdul Hamed%NULL%1,    Owais%Nadeem%NULL%1,    Kristin%Griebe%NULL%1,    Joseph M%Johnson%NULL%1,    Patrick%Bradley%NULL%1,    Junior%Uduman%NULL%1,    Sara%Hegab%NULL%1,    Jennifer%Swiderek%NULL%1,    Amanda%Godfrey%NULL%1,    Jeffrey%Jennings%NULL%1,    Jayna%Gardner-Gray%NULL%1,    Adam%Ackerman%NULL%1,    Jonathan%Lezotte%NULL%1,    Joseph%Ruhala%NULL%1,    Linoj%Samuel%NULL%1,    Robert J%Tibbetts%NULL%1,    Indira%Brar%NULL%1,    John%McKinnon%NULL%1,    Geehan%Suleyman%NULL%1,    Nicholas%Yared%NULL%1,    Erica%Herc%NULL%1,    Jonathan%Williams%NULL%1,    Odaliz Abreu%Lanfranco%NULL%1,    Anne%Chen%NULL%1,    Marcus%Zervos%NULL%1,    Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tomasz%Chroboczek%tchroboczek@gmail.com%1,    Marie%Lacoste%NULL%2,    Marie%Lacoste%NULL%0,    Chloe%Wackenheim%NULL%1,    Thibaut%Challan-Belval%NULL%1,    Benjamin%Amar%NULL%1,    Thomas%Boisson%NULL%1,    Jason%Hubac%NULL%1,    Dominique%Leduc%NULL%1,    Colleen%Masse%NULL%1,    Victor%Dechaene%NULL%1,    Laetitia%Touihri-Maximin%NULL%1,    Sandrine%Megessier%NULL%1,    Camille%Lassale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christiane Maria Prado%Jeronimo%NULL%2,    Maria Eduarda Leão%Farias%NULL%1,    Fernando Fonseca Almeida%Val%NULL%1,    Vanderson Souza%Sampaio%NULL%1,    Marcia Almeida Araújo%Alexandre%NULL%1,    Gisely Cardoso%Melo%NULL%1,    Izabella Picinin%Safe%NULL%1,    Mayla Gabriela Silva%Borba%NULL%1,    Rebeca Linhares%Abreu-Netto%NULL%1,    Alex Bezerra Silva%Maciel%NULL%1,    João Ricardo Silva%Neto%NULL%1,    Lucas Barbosa%Oliveira%NULL%1,    Erick Frota Gomes%Figueiredo%NULL%1,    Kelry Mazurega Oliveira%Dinelly%NULL%1,    Maria Gabriela de Almeida%Rodrigues%NULL%1,    Marcelo%Brito%NULL%1,    Maria Paula Gomes%Mourão%NULL%1,    Guilherme Augusto%Pivoto João%NULL%1,    Ludhmila Abrahão%Hajjar%NULL%1,    Quique%Bassat%NULL%1,    Gustavo Adolfo Sierra%Romero%NULL%1,    Felipe Gomes%Naveca%NULL%1,    Heline Lira%Vasconcelos%NULL%1,    Michel de Araújo%Tavares%NULL%1,    José Diego%Brito-Sousa%NULL%1,    Fabio Trindade Maranhão%Costa%NULL%1,    Maurício Lacerda%Nogueira%NULL%1,    Djane%Baía-da-Silva%NULL%1,    Mariana Simão%Xavier%NULL%1,    Wuelton Marcelo%Monteiro%NULL%1,    Marcus Vinícius Guimarães%Lacerda%marcuslacerda.br@gmail.com%1,    NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qiang%Li%NULL%1,    Weixia%Li%NULL%1,    Yinpeng%Jin%NULL%1,    Wei%Xu%NULL%1,    Chenlu%Huang%NULL%1,    Li%Li%NULL%0,    Yuxian%Huang%NULL%1,    Qingchun%Fu%fuqingchun@shphc.org.cn%1,    Liang%Chen%chenliang@shphc.org.cn%1]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%2,    Zhigang%Hu%NULL%1,    Xinyu%Song%songxinyu@ctgu.edu.cn%2,    Xinyu%Song%songxinyu@ctgu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Brian C%Nelson%brn9016@nyp.org%1,    Justin%Laracy%NULL%1,    Sherif%Shoucri%NULL%1,    Donald%Dietz%NULL%1,    Jason%Zucker%NULL%1,    Nina%Patel%NULL%1,    Magdalena E%Sobieszczyk%NULL%1,    Christine J%Kubin%NULL%1,    Angela%Gomez-Simmonds%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexandre%B. Cavalcanti%coreGivesNoEmail%2,  Alvaro%Avezum%coreGivesNoEmail%2,  Andre%N. Costa%coreGivesNoEmail%2,  Bruno%M. Tomazini%coreGivesNoEmail%2,  Caio%C. F. Fernandes%coreGivesNoEmail%2,  Cassia%Righy%coreGivesNoEmail%2,  Cristina%P. Amendola%coreGivesNoEmail%2,  Daniel%N. Forte%coreGivesNoEmail%2,  Daniela%H. M. Freitas%coreGivesNoEmail%2,  Douglas%Costa Morais%coreGivesNoEmail%2,  Eduardo%L. V. Costa%coreGivesNoEmail%2,  Fernando%G. Zampieri%coreGivesNoEmail%2,  Flavia%R. Bueno%coreGivesNoEmail%2,  Fl\u00e1via%R. Machado%coreGivesNoEmail%2,  Fl\u00e1vio%G. R. Freitas%coreGivesNoEmail%2,  Franca%P. Baldassare%coreGivesNoEmail%2,  Gedealvares%F. S. Junior%coreGivesNoEmail%2,  Guilherme%B. Olivato%coreGivesNoEmail%2,  Israel%S. Maia%coreGivesNoEmail%2,  Let\u00edcia%Kawano-Dourado%coreGivesNoEmail%2,  Livia%M. G. Melro%coreGivesNoEmail%2,  Lucas%P. Damiani%coreGivesNoEmail%2,  Luciano%C. P. Azevedo%coreGivesNoEmail%2,  Maria%Vitoria A. O. Silva%coreGivesNoEmail%2,  Michele%O. Honorato%coreGivesNoEmail%2,  Otavio%Berwanger%coreGivesNoEmail%2,  Regis%G. Rosa%coreGivesNoEmail%2,  Renato%D. Lopes%coreGivesNoEmail%2,  Ricardo%A. B. Moura%coreGivesNoEmail%2,  Roberta%M. L. Roepke%coreGivesNoEmail%2,  Stevin%Zung%coreGivesNoEmail%2,  Thiago%Lisboa%coreGivesNoEmail%2,  Viviane%C. Veiga%coreGivesNoEmail%2]</t>
   </si>
 </sst>
 </file>
@@ -1585,6 +1690,9 @@
       <c r="I1" t="s">
         <v>191</v>
       </c>
+      <c r="J1" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1614,6 +1722,9 @@
       <c r="I2" t="s">
         <v>58</v>
       </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -1629,7 +1740,7 @@
         <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
@@ -1642,6 +1753,9 @@
       </c>
       <c r="I3" t="s">
         <v>193</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1658,7 +1772,7 @@
         <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="F4" t="s">
         <v>60</v>
@@ -1671,6 +1785,9 @@
       </c>
       <c r="I4" t="s">
         <v>195</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -1687,7 +1804,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="F5" t="s">
         <v>65</v>
@@ -1700,6 +1817,9 @@
       </c>
       <c r="I5" t="s">
         <v>193</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -1716,7 +1836,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="F6" t="s">
         <v>69</v>
@@ -1729,6 +1849,9 @@
       </c>
       <c r="I6" t="s">
         <v>193</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -1745,7 +1868,7 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -1758,6 +1881,9 @@
       </c>
       <c r="I7" t="s">
         <v>195</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1774,7 +1900,7 @@
         <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="F8" t="s">
         <v>77</v>
@@ -1787,6 +1913,9 @@
       </c>
       <c r="I8" t="s">
         <v>193</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
@@ -1803,7 +1932,7 @@
         <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="F9" t="s">
         <v>82</v>
@@ -1816,6 +1945,9 @@
       </c>
       <c r="I9" t="s">
         <v>193</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -1832,7 +1964,7 @@
         <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>234</v>
+        <v>276</v>
       </c>
       <c r="F10" t="s">
         <v>87</v>
@@ -1845,6 +1977,9 @@
       </c>
       <c r="I10" t="s">
         <v>193</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -1861,7 +1996,7 @@
         <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -1874,6 +2009,9 @@
       </c>
       <c r="I11" t="s">
         <v>203</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12">
@@ -1890,7 +2028,7 @@
         <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="F12" t="s">
         <v>96</v>
@@ -1903,6 +2041,9 @@
       </c>
       <c r="I12" t="s">
         <v>193</v>
+      </c>
+      <c r="J12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -1919,7 +2060,7 @@
         <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
       <c r="F13" t="s">
         <v>100</v>
@@ -1932,6 +2073,9 @@
       </c>
       <c r="I13" t="s">
         <v>195</v>
+      </c>
+      <c r="J13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -1948,7 +2092,7 @@
         <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>238</v>
+        <v>280</v>
       </c>
       <c r="F14" t="s">
         <v>105</v>
@@ -1961,6 +2105,9 @@
       </c>
       <c r="I14" t="s">
         <v>193</v>
+      </c>
+      <c r="J14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -1977,7 +2124,7 @@
         <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="F15" t="s">
         <v>108</v>
@@ -1990,6 +2137,9 @@
       </c>
       <c r="I15" t="s">
         <v>203</v>
+      </c>
+      <c r="J15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16">
@@ -2020,6 +2170,9 @@
       <c r="I16" t="s">
         <v>58</v>
       </c>
+      <c r="J16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
@@ -2035,7 +2188,7 @@
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>240</v>
+        <v>282</v>
       </c>
       <c r="F17" t="s">
         <v>111</v>
@@ -2048,6 +2201,9 @@
       </c>
       <c r="I17" t="s">
         <v>193</v>
+      </c>
+      <c r="J17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
@@ -2064,7 +2220,7 @@
         <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="F18" t="s">
         <v>114</v>
@@ -2077,6 +2233,9 @@
       </c>
       <c r="I18" t="s">
         <v>195</v>
+      </c>
+      <c r="J18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -2093,7 +2252,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -2106,6 +2265,9 @@
       </c>
       <c r="I19" t="s">
         <v>193</v>
+      </c>
+      <c r="J19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
@@ -2122,7 +2284,7 @@
         <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -2135,6 +2297,9 @@
       </c>
       <c r="I20" t="s">
         <v>193</v>
+      </c>
+      <c r="J20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21">
@@ -2151,7 +2316,7 @@
         <v>127</v>
       </c>
       <c r="E21" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="F21" t="s">
         <v>129</v>
@@ -2164,6 +2329,9 @@
       </c>
       <c r="I21" t="s">
         <v>193</v>
+      </c>
+      <c r="J21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22">
@@ -2180,7 +2348,7 @@
         <v>132</v>
       </c>
       <c r="E22" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="F22" t="s">
         <v>134</v>
@@ -2193,6 +2361,9 @@
       </c>
       <c r="I22" t="s">
         <v>203</v>
+      </c>
+      <c r="J22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23">
@@ -2209,7 +2380,7 @@
         <v>137</v>
       </c>
       <c r="E23" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="F23" t="s">
         <v>139</v>
@@ -2222,6 +2393,9 @@
       </c>
       <c r="I23" t="s">
         <v>193</v>
+      </c>
+      <c r="J23" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24">
@@ -2238,7 +2412,7 @@
         <v>142</v>
       </c>
       <c r="E24" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="F24" t="s">
         <v>144</v>
@@ -2251,6 +2425,9 @@
       </c>
       <c r="I24" t="s">
         <v>193</v>
+      </c>
+      <c r="J24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25">
@@ -2267,7 +2444,7 @@
         <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="F25" t="s">
         <v>148</v>
@@ -2280,6 +2457,9 @@
       </c>
       <c r="I25" t="s">
         <v>195</v>
+      </c>
+      <c r="J25" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26">
@@ -2296,7 +2476,7 @@
         <v>151</v>
       </c>
       <c r="E26" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="F26" t="s">
         <v>153</v>
@@ -2309,6 +2489,9 @@
       </c>
       <c r="I26" t="s">
         <v>203</v>
+      </c>
+      <c r="J26" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="27">
@@ -2339,6 +2522,9 @@
       <c r="I27" t="s">
         <v>193</v>
       </c>
+      <c r="J27" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -2354,7 +2540,7 @@
         <v>151</v>
       </c>
       <c r="E28" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="F28" t="s">
         <v>153</v>
@@ -2367,6 +2553,9 @@
       </c>
       <c r="I28" t="s">
         <v>203</v>
+      </c>
+      <c r="J28" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29">
@@ -2383,7 +2572,7 @@
         <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="F29" t="s">
         <v>163</v>
@@ -2396,6 +2585,9 @@
       </c>
       <c r="I29" t="s">
         <v>193</v>
+      </c>
+      <c r="J29" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -2411,9 +2603,7 @@
       <c r="D30" t="s">
         <v>253</v>
       </c>
-      <c r="E30" t="s">
-        <v>254</v>
-      </c>
+      <c r="E30"/>
       <c r="F30" t="s">
         <v>29</v>
       </c>
@@ -2424,6 +2614,9 @@
         <v>51</v>
       </c>
       <c r="I30" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2441,7 +2634,7 @@
         <v>165</v>
       </c>
       <c r="E31" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="F31" t="s">
         <v>167</v>
@@ -2454,6 +2647,9 @@
       </c>
       <c r="I31" t="s">
         <v>203</v>
+      </c>
+      <c r="J31" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="32">
@@ -2470,7 +2666,7 @@
         <v>258</v>
       </c>
       <c r="E32" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="F32" t="s">
         <v>31</v>
@@ -2482,6 +2678,9 @@
         <v>51</v>
       </c>
       <c r="I32" t="s">
+        <v>58</v>
+      </c>
+      <c r="J32" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2499,7 +2698,7 @@
         <v>169</v>
       </c>
       <c r="E33" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="F33" t="s">
         <v>171</v>
@@ -2512,6 +2711,9 @@
       </c>
       <c r="I33" t="s">
         <v>193</v>
+      </c>
+      <c r="J33" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34">
@@ -2528,7 +2730,7 @@
         <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="F34" t="s">
         <v>175</v>
@@ -2541,6 +2743,9 @@
       </c>
       <c r="I34" t="s">
         <v>193</v>
+      </c>
+      <c r="J34" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="35">
@@ -2571,6 +2776,9 @@
       <c r="I35" t="s">
         <v>58</v>
       </c>
+      <c r="J35" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -2586,7 +2794,7 @@
         <v>177</v>
       </c>
       <c r="E36" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="F36" t="s">
         <v>179</v>
@@ -2599,6 +2807,9 @@
       </c>
       <c r="I36" t="s">
         <v>193</v>
+      </c>
+      <c r="J36" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="37">
@@ -2615,7 +2826,7 @@
         <v>181</v>
       </c>
       <c r="E37" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="F37" t="s">
         <v>183</v>
@@ -2628,6 +2839,9 @@
       </c>
       <c r="I37" t="s">
         <v>195</v>
+      </c>
+      <c r="J37" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="38">
@@ -2644,7 +2858,7 @@
         <v>58</v>
       </c>
       <c r="E38" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="F38" t="s">
         <v>186</v>
@@ -2657,6 +2871,9 @@
       </c>
       <c r="I38" t="s">
         <v>193</v>
+      </c>
+      <c r="J38" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="39">
@@ -2673,7 +2890,7 @@
         <v>188</v>
       </c>
       <c r="E39" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="F39" t="s">
         <v>190</v>
@@ -2686,6 +2903,9 @@
       </c>
       <c r="I39" t="s">
         <v>193</v>
+      </c>
+      <c r="J39" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="40">
@@ -2702,7 +2922,7 @@
         <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="F40" t="s">
         <v>39</v>
@@ -2714,6 +2934,9 @@
         <v>51</v>
       </c>
       <c r="I40" t="s">
+        <v>58</v>
+      </c>
+      <c r="J40" t="s">
         <v>58</v>
       </c>
     </row>

--- a/Covid_19_Dataset_and_References/References/18.xlsx
+++ b/Covid_19_Dataset_and_References/References/18.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="383">
   <si>
     <t>Doi</t>
   </si>
@@ -1309,6 +1309,267 @@
   </si>
   <si>
     <t>[Alexandre%B. Cavalcanti%coreGivesNoEmail%2,  Alvaro%Avezum%coreGivesNoEmail%2,  Andre%N. Costa%coreGivesNoEmail%2,  Bruno%M. Tomazini%coreGivesNoEmail%2,  Caio%C. F. Fernandes%coreGivesNoEmail%2,  Cassia%Righy%coreGivesNoEmail%2,  Cristina%P. Amendola%coreGivesNoEmail%2,  Daniel%N. Forte%coreGivesNoEmail%2,  Daniela%H. M. Freitas%coreGivesNoEmail%2,  Douglas%Costa Morais%coreGivesNoEmail%2,  Eduardo%L. V. Costa%coreGivesNoEmail%2,  Fernando%G. Zampieri%coreGivesNoEmail%2,  Flavia%R. Bueno%coreGivesNoEmail%2,  Fl\u00e1via%R. Machado%coreGivesNoEmail%2,  Fl\u00e1vio%G. R. Freitas%coreGivesNoEmail%2,  Franca%P. Baldassare%coreGivesNoEmail%2,  Gedealvares%F. S. Junior%coreGivesNoEmail%2,  Guilherme%B. Olivato%coreGivesNoEmail%2,  Israel%S. Maia%coreGivesNoEmail%2,  Let\u00edcia%Kawano-Dourado%coreGivesNoEmail%2,  Livia%M. G. Melro%coreGivesNoEmail%2,  Lucas%P. Damiani%coreGivesNoEmail%2,  Luciano%C. P. Azevedo%coreGivesNoEmail%2,  Maria%Vitoria A. O. Silva%coreGivesNoEmail%2,  Michele%O. Honorato%coreGivesNoEmail%2,  Otavio%Berwanger%coreGivesNoEmail%2,  Regis%G. Rosa%coreGivesNoEmail%2,  Renato%D. Lopes%coreGivesNoEmail%2,  Ricardo%A. B. Moura%coreGivesNoEmail%2,  Roberta%M. L. Roepke%coreGivesNoEmail%2,  Stevin%Zung%coreGivesNoEmail%2,  Thiago%Lisboa%coreGivesNoEmail%2,  Viviane%C. Veiga%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>Risk Factors Associated With Acute Respiratory Distress Syndrome and Death in Patients With Coronavirus Disease 2019 Pneumonia in Wuhan, China.</t>
+  </si>
+  <si>
+    <t>Importance Coronavirus disease 2019 (COVID-19) is an emerging infectious disease that was first reported in Wuhan, China, and has subsequently spread worldwide. Risk factors for the clinical outcomes of COVID-19 pneumonia have not yet been well delineated. Objective To describe the clinical characteristics and outcomes in patients with COVID-19 pneumonia who developed acute respiratory distress syndrome (ARDS) or died. Design, Setting, and Participants Retrospective cohort study of 201 patients with confirmed COVID-19 pneumonia admitted to Wuhan Jinyintan Hospital in China between December 25, 2019, and January 26, 2020. The final date of follow-up was February 13, 2020. Exposures Confirmed COVID-19 pneumonia. Main Outcomes and Measures The development of ARDS and death. Epidemiological, demographic, clinical, laboratory, management, treatment, and outcome data were also collected and analyzed. Results Of 201 patients, the median age was 51 years (interquartile range, 43-60 years), and 128 (63.7%) patients were men. Eighty-four patients (41.8%) developed ARDS, and of those 84 patients, 44 (52.4%) died. In those who developed ARDS, compared with those who did not, more patients presented with dyspnea (50 of 84 [59.5%] patients and 30 of 117 [25.6%] patients, respectively [difference, 33.9%; 95% CI, 19.7%-48.1%]) and had comorbidities such as hypertension (23 of 84 [27.4%] patients and 16 of 117 [13.7%] patients, respectively [difference, 13.7%; 95% CI, 1.3%-26.1%]) and diabetes (16 of 84 [19.0%] patients and 6 of 117 [5.1%] patients, respectively [difference, 13.9%; 95% CI, 3.6%-24.2%]). In bivariate Cox regression analysis, risk factors associated with the development of ARDS and progression from ARDS to death included older age (hazard ratio [HR], 3.26; 95% CI 2.08-5.11; and HR, 6.17; 95% CI, 3.26-11.67, respectively), neutrophilia (HR, 1.14; 95% CI, 1.09-1.19; and HR, 1.08; 95% CI, 1.01-1.17, respectively), and organ and coagulation dysfunction (eg, higher lactate dehydrogenase [HR, 1.61; 95% CI, 1.44-1.79; and HR, 1.30; 95% CI, 1.11-1.52, respectively] and D-dimer [HR, 1.03; 95% CI, 1.01-1.04; and HR, 1.02; 95% CI, 1.01-1.04, respectively]). High fever (≥39 °C) was associated with higher likelihood of ARDS development (HR, 1.77; 95% CI, 1.11-2.84) and lower likelihood of death (HR, 0.41; 95% CI, 0.21-0.82). Among patients with ARDS, treatment with methylprednisolone decreased the risk of death (HR, 0.38; 95% CI, 0.20-0.72). Conclusions and Relevance Older age was associated with greater risk of development of ARDS and death likely owing to less rigorous immune response. Although high fever was associated with the development of ARDS, it was also associated with better outcomes among patients with ARDS. Moreover, treatment with methylprednisolone may be beneficial for patients who develop ARDS.</t>
+  </si>
+  <si>
+    <t>[ Chaomin%Wu%elasticNoEmail%1,  Xiaoyan% Chen%elasticNoEmail%1,  Yanping% Cai%elasticNoEmail%1,  Jia'an% Xia%elasticNoEmail%1,  Xing% Zhou%elasticNoEmail%1,  Sha% Xu%elasticNoEmail%1,  Hanping% Huang%elasticNoEmail%1,  Li% Zhang%elasticNoEmail%1,  Xia% Zhou%elasticNoEmail%1,  Chunling% Du%elasticNoEmail%1,  Yuye% Zhang%elasticNoEmail%1,  Juan% Song%elasticNoEmail%1,  Sijiao% Wang%elasticNoEmail%1,  Yencheng% Chao%elasticNoEmail%1,  Zeyong% Yang%elasticNoEmail%1,  Jie% Xu%elasticNoEmail%1,  Xin% Zhou%elasticNoEmail%1,  Dechang% Chen%elasticNoEmail%1,  Weining% Xiong%elasticNoEmail%1,  Lei% Xu%elasticNoEmail%1,  Feng% Zhou%elasticNoEmail%1,  Jinjun% Jiang%elasticNoEmail%1,  Chunxue% Bai%elasticNoEmail%1,  Junhua% Zheng%elasticNoEmail%1,  Yuanlin% Song%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t>ELASTIC</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,     Bohan%Yang%NULL%1,     Qianwen%Li%NULL%1,     Lu%Wen%NULL%1,     Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%2,     Zhiguo%Zhang%NULL%2,     Zhiguo%Zhang%NULL%0,     Muqing%Yu%NULL%1,     Yu%Tao%NULL%1,     Min%Xie%xie_m@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Jianfeng%Wu%NULL%1,     Jianqiang%Huang%NULL%1,     Guochao%Zhu%NULL%1,     Yihao%Liu%NULL%1,     Han%Xiao%NULL%1,     Qian%Zhou%NULL%1,     Xiang%Si%NULL%1,     Hui%Yi%NULL%1,     Cuiping%Wang%NULL%1,     Daya%Yang%NULL%1,     Shuling%Chen%NULL%1,     Xin%Liu%NULL%1,     Zelong%Liu%NULL%1,     Qiongya%Wang%NULL%1,     Qingquan%Lv%NULL%1,     Ying%Huang%NULL%1,     Yang%Yu%NULL%1,     Xiangdong%Guan%NULL%1,     Yanbing%Li%NULL%1,     Krishnarajah%Nirantharakumar%NULL%1,     KarKeung%Cheng%NULL%1,     Sui%Peng%pengsui@vip.163.com%1,     Haipeng%Xiao%xiaohp@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kaijin%Xu%NULL%1,     Yanfei%Chen%NULL%1,     Jing%Yuan%NULL%1,     Ping%Yi%NULL%1,     Cheng%Ding%NULL%1,     Wenrui%Wu%NULL%2,     Yongtao%Li%NULL%1,     Qin%Ni%NULL%1,     Rongrong%Zou%NULL%1,     Xiaohe%Li%NULL%1,     Min%Xu%NULL%1,     Ying%Zhang%NULL%1,     Hong%Zhao%NULL%1,     Xuan%Zhang%NULL%1,     Liang%Yu%NULL%1,     Junwei%Su%NULL%1,     Guanjing%Lang%NULL%1,     Jun%Liu%NULL%1,     Xiaoxin%Wu%NULL%1,     Yongzheng%Guo%NULL%1,     Jingjing%Tao%NULL%1,     Ding%Shi%NULL%1,     Ling%Yu%NULL%1,     Qing%Cao%NULL%1,     Bing%Ruan%NULL%1,     Lei%Liu%NULL%1,     Zhaoqin%Wang%NULL%1,     Yan%Xu%NULL%1,     Yingxia%Liu%NULL%1,     Jifang%Sheng%NULL%2,     Lanjuan%Li%ljli@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Stephen Su%Yang%stephen.yang@mail.mcgill.ca%1,     Jed%Lipes%NULL%2,     Jed%Lipes%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%2,     Shirong%Li%NULL%1,     Lingling%Pan%NULL%1,     Boris%Tefsen%NULL%1,     Yeshan%Li%NULL%1,     Neil%French%NULL%1,     Liyun%Chen%NULL%1,     Gang%Yang%NULL%1,     Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Salton%NULL%1,     Paola%Confalonieri%NULL%1,     G Umberto%Meduri%NULL%1,     Pierachille%Santus%NULL%1,     Sergio%Harari%NULL%1,     Raffaele%Scala%NULL%1,     Simone%Lanini%NULL%1,     Valentina%Vertui%NULL%1,     Tiberio%Oggionni%NULL%1,     Antonella%Caminati%NULL%1,     Vincenzo%Patruno%NULL%1,     Mario%Tamburrini%NULL%1,     Alessandro%Scartabellati%NULL%1,     Mara%Parati%NULL%1,     Massimiliano%Villani%NULL%1,     Dejan%Radovanovic%NULL%1,     Sara%Tomassetti%NULL%1,     Claudia%Ravaglia%NULL%1,     Venerino%Poletti%NULL%1,     Andrea%Vianello%NULL%1,     Anna Talia%Gaccione%NULL%1,     Luca%Guidelli%NULL%1,     Rita%Raccanelli%NULL%1,     Paolo%Lucernoni%NULL%1,     Donato%Lacedonia%NULL%1,     Maria Pia%Foschino Barbaro%NULL%1,     Stefano%Centanni%NULL%1,     Michele%Mondoni%NULL%1,     Matteo%Davì%NULL%1,     Alberto%Fantin%NULL%1,     Xueyuan%Cao%NULL%1,     Lucio%Torelli%NULL%1,     Antonella%Zucchetto%NULL%1,     Marcella%Montico%NULL%1,     Annalisa%Casarin%NULL%1,     Micaela%Romagnoli%NULL%1,     Stefano%Gasparini%NULL%1,     Martina%Bonifazi%NULL%1,     Pierlanfranco%D’Agaro%NULL%1,     Alessandro%Marcello%NULL%1,     Danilo%Licastro%NULL%1,     Barbara%Ruaro%NULL%1,     Maria Concetta%Volpe%NULL%1,     Reba%Umberger%NULL%1,     Marco%Confalonieri%mconfalonieri@units.it%1]</t>
+  </si>
+  <si>
+    <t>[Yinzhong%Shen%NULL%2,     Fang%Zheng%NULL%2,     Fang%Zheng%NULL%0,     Danfeng%Sun%NULL%1,     Yun%Ling%NULL%3,     Jun%Chen%NULL%1,     Feng%Li%NULL%2,     Feng%Li%NULL%0,     Tao%Li%NULL%2,     Zhiping%Qian%NULL%1,     Yuyi%Zhang%NULL%1,     Qingnian%Xu%NULL%1,     Li%Liu%NULL%1,     Qin%Huang%NULL%1,     Fei%Shan%NULL%1,     Lie%Xu%NULL%1,     Jun%Wu%NULL%1,     Zhaoqin%Zhu%NULL%1,     Zhigang%Song%NULL%1,     Shenyang%Li%NULL%1,     Yuxin%Shi%NULL%1,     Jianliang%Zhang%NULL%1,     Xueyun%Wu%NULL%1,     Joshua B.%Mendelsohn%NULL%2,     Joshua B.%Mendelsohn%NULL%0,     Tongyu%Zhu%NULL%1,     Hongzhou%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[José Luis%Callejas Rubio%jlcalleja@telefonica.net%1,     Juan de Dios%Luna del Castillo%NULL%1,     Javier%de la Hera Fernández%NULL%1,     Emilio%Guirao Arrabal%NULL%1,     Manuel%Colmenero Ruiz%NULL%1,     Norberto%Ortego Centeno%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ding%Shi%NULL%1,     Wenrui%Wu%NULL%0,     Qing%Wang%NULL%1,     Kaijin%Xu%NULL%1,     Jiaojiao%Xie%NULL%1,     Jingjing%Wu%NULL%1,     Longxian%Lv%NULL%1,     Jifang%Sheng%NULL%0,     Jing%Guo%NULL%1,     Kaicen%Wang%NULL%1,     Daiqiong%Fang%NULL%1,     Yating%Li%NULL%1,     Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%2,     Weiwei%Jiang%NULL%1,     Qi%He%NULL%1,     Cheng%Wang%NULL%1,     Baoju%Wang%NULL%1,     Pan%Zhou%NULL%1,     Nianguo%Dong%dongnianguo63@gmail.com%1,     Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%3,     Xian%Zhou%NULL%1,     Tao%Li%NULL%0,     Shiji%Chan%NULL%1,     Yiqi%Yu%NULL%1,     Jing-Wen%Ai%NULL%1,     Haocheng%Zhang%NULL%1,     Feng%Sun%NULL%1,     Qiran%Zhang%NULL%1,     Lei%Zhu%NULL%1,     Lingyun%Shao%NULL%1,     Bin%Xu%NULL%1,     Wenhong%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Liu%NULL%1,     Xiaobin%Zheng%NULL%1,     Yiying%Huang%NULL%1,     Hong%Shan%shanhong@mail.sysu.edu.cn%1,     Jin%Huang%hjin@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>Effect of Systemic Glucocorticoids on Mortality or Mechanical Ventilation in Patients With COVID-19.</t>
+  </si>
+  <si>
+    <t>The efficacy of glucocorticoids in COVID-19 is unclear. This study was designed to determine whether systemic glucocorticoid treatment in COVID-19 patients is associated with reduced mortality or mechanical ventilation. This observational study included 1,806 hospitalized COVID-19 patients; 140 were treated with glucocorticoids within 48 hours of admission. Early use of glucocorticoids was not associated with mortality or mechanical ventilation. However, glucocorticoid treatment of patients with initial C-reactive protein (CRP) ≥20 mg/dL was associated with significantly reduced risk of mortality or mechanical ventilation (odds ratio, 0.23; 95% CI, 0.08-0.70), while glucocorticoid treatment of patients with CRP &lt;10 mg/dL was associated with significantly increased risk of mortality or mechanical ventilation (OR, 2.64; 95% CI, 1.39-5.03). Whether glucocorticoid treatment is associated with changes in mortality or mechanical ventilation in patients with high or low CRP needs study in prospective, randomized clinical trials.</t>
+  </si>
+  <si>
+    <t>[ Marla J%Keller%elasticNoEmail%1,  Elizabeth A% Kitsis%elasticNoEmail%1,  Shitij% Arora%elasticNoEmail%1,  Jen-Ting% Chen%elasticNoEmail%1,  Shivani% Agarwal%elasticNoEmail%1,  Michael J% Ross%elasticNoEmail%1,  Yaron% Tomer%elasticNoEmail%1,  William% Southern%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t>2020-08-01</t>
+  </si>
+  <si>
+    <t>[Xiang-Hong%Yang%NULL%1,     Ran-Ran%Li%NULL%1,     Ren-Hua%Sun%NULL%1,     Jiao%Liu%NULL%1,     De-Chang%Chen%NULL%1,     Peng%Lyu%NULL%2,     Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%2,     Taige%Chen%NULL%1,     Yang%Wang%NULL%1,     Jun%Wang%NULL%1,     Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yiming%Ma%NULL%1,     Huihui%Zeng%NULL%1,     Zijie%Zhan%NULL%1,     Huanhuan%Lu%NULL%1,     Zihang%Zeng%NULL%1,     Chenjie%He%NULL%1,     Xiangming%Liu%NULL%1,     Chen%Chen%NULL%1,     Qingwu%Qin%NULL%1,     Jia%He%NULL%1,     Zhiguo%Zhou%NULL%1,     Peng%Huang%NULL%1,     Mingyan%Jiang%NULL%1,     Dingding%Deng%NULL%1,     Xin%Liao%NULL%1,     Zhi%Xiang%NULL%1,     Xiaoying%Huang%NULL%1,     Yan%Chen%NULL%1,     Ping%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Monil%Majmundar%NULL%1,     Tikal%Kansara%NULL%2,     Tikal%Kansara%NULL%0,     Joanna Marta%Lenik%NULL%1,     Hansang%Park%NULL%1,     Kuldeep%Ghosh%NULL%1,     Rajkumar%Doshi%NULL%1,     Palak%Shah%NULL%1,     Ashish%Kumar%NULL%1,     Hossam%Amin%NULL%2,     Hossam%Amin%NULL%0,     Shobhana%Chaudhari%NULL%1,     Imnett%Habtes%NULL%1,     Muhammad%Adrish%NULL%8,     Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Malgorzata%Mikulska%NULL%1,     Laura Ambra%Nicolini%NULL%2,     Laura Ambra%Nicolini%NULL%0,     Alessio%Signori%NULL%1,     Antonio%Di Biagio%NULL%1,     Chiara%Sepulcri%NULL%2,     Chiara%Sepulcri%NULL%0,     Chiara%Russo%NULL%1,     Silvia%Dettori%NULL%1,     Marco%Berruti%NULL%1,     Maria Pia%Sormani%NULL%1,     Daniele Roberto%Giacobbe%NULL%1,     Antonio%Vena%NULL%2,     Antonio%Vena%NULL%0,     Andrea%De Maria%NULL%1,     Chiara%Dentone%NULL%1,     Lucia%Taramasso%NULL%1,     Michele%Mirabella%NULL%2,     Michele%Mirabella%NULL%0,     Laura%Magnasco%NULL%1,     Sara%Mora%NULL%1,     Emanuele%Delfino%NULL%1,     Federica%Toscanini%NULL%1,     Elisa%Balletto%NULL%1,     Anna Ida%Alessandrini%NULL%1,     Federico%Baldi%NULL%1,     Federica%Briano%NULL%1,     Marco%Camera%NULL%1,     Ferdinando%Dodi%NULL%1,     Antonio%Ferrazin%NULL%1,     Laura%Labate%NULL%1,     Giovanni%Mazzarello%NULL%1,     Rachele%Pincino%NULL%1,     Federica%Portunato%NULL%1,     Stefania%Tutino%NULL%1,     Emanuela%Barisione%NULL%1,     Bianca%Bruzzone%NULL%1,     Andrea%Orsi%NULL%1,     Eva%Schenone%NULL%1,     Nirmala%Rosseti%NULL%1,     Elisabetta%Sasso%NULL%1,     Giorgio%Da Rin%NULL%1,     Paolo%Pelosi%NULL%1,     Sabrina%Beltramini%NULL%1,     Mauro%Giacomini%NULL%1,     Giancarlo%Icardi%NULL%2,     Giancarlo%Icardi%NULL%0,     Angelo%Gratarola%NULL%1,     Matteo%Bassetti%NULL%1,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mao%Huang%NULL%2,     Yi%Yang%NULL%1,     Futai%Shang%NULL%1,     Yishan%Zheng%NULL%1,     Wenjing%Zhao%NULL%1,     Liang%Luo%NULL%1,     Xudong%Han%NULL%1,     Aihua%Lin%NULL%1,     Hongsheng%Zhao%NULL%1,     Qing%Gu%NULL%1,     Yi%Shi%NULL%1,     Jun%Li%NULL%1,     Xingxiang%Xu%NULL%1,     Kexi%Liu%NULL%1,     YiJun%Deng%NULL%1,     Quan%Cao%NULL%1,     Weiwei%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%4,     Yun%Ling%NULL%0,     Yun%Ling%NULL%0,     Tao%Bai%NULL%2,     Tao%Bai%NULL%0,     Yusang%Xie%NULL%1,     Jie%Huang%NULL%2,     Jie%Huang%NULL%0,     Jian%Li%NULL%1,     Weining%Xiong%NULL%1,     Dexiang%Yang%NULL%1,     Rong%Chen%NULL%1,     Fangying%Lu%NULL%1,     Yunfei%Lu%NULL%1,     Xuhui%Liu%NULL%1,     Yuqing%Chen%NULL%2,     Yuqing%Chen%NULL%0,     Xin%Li%NULL%1,     Yong%Li%NULL%1,     Hanssa Dwarka%Summah%NULL%1,     Huihuang%Lin%NULL%1,     Jiayang%Yan%NULL%1,     Min%Zhou%NULL%1,     Hongzhou%Lu%NULL%0,     Hongzhou%Lu%NULL%0,     Jieming%Qu%NULL%2,     Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana%Fernández-Cruz%NULL%1,     Belén%Ruiz-Antorán%NULL%2,     Belén%Ruiz-Antorán%NULL%0,     Ana%Muñoz-Gómez%NULL%1,     Aránzazu%Sancho-López%NULL%1,     Patricia%Mills-Sánchez%NULL%1,     Gustavo Adolfo%Centeno-Soto%NULL%1,     Silvia%Blanco-Alonso%NULL%1,     Laura%Javaloyes-Garachana%NULL%1,     Amy%Galán-Gómez%NULL%1,     Ángela%Valencia-Alijo%NULL%1,     Javier%Gómez-Irusta%NULL%1,     Concepción%Payares-Herrera%NULL%1,     Ignacio%Morrás-Torre%NULL%1,     Enrique%Sánchez-Chica%NULL%1,     Laura%Delgado-Téllez-de-Cepeda%NULL%1,     Alejandro%Callejas-Díaz%NULL%1,     Antonio%Ramos-Martínez%NULL%1,     Elena%Múñez-Rubio%NULL%2,     Elena%Múñez-Rubio%NULL%0,     Cristina%Avendaño-Solá%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmine%Gazzaruso%c.gazzaruso@gmail.com%1,     Nicoletta%Carlo Stella%NULL%2,     Nicoletta%Carlo Stella%NULL%0,     Giuseppe%Mariani%NULL%1,     Anna%Tamburlini%NULL%1,     Pietro%Garini%NULL%1,     Elena%Freddi%NULL%1,     Carolina%Ravetto%NULL%1,     Adriana%Coppola%NULL%1,     Pietro%Gallotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Hu%NULL%2,     Tingping%Wang%NULL%2,     Zhimin%Hu%NULL%2,     Xuan%Wang%NULL%2,     Zhengbin%Zhang%NULL%2,     Li%Li%NULL%3,     Peng%Peng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Yan%Hu%NULL%0,     Tingping%Wang%NULL%0,     Zhimin%Hu%NULL%0,     Xuan%Wang%NULL%0,     Zhengbin%Zhang%NULL%0,     Li%Li%NULL%0,     Peng%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,     Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,     Wenlin%Cheng%NULL%1,     Lei%Yu%NULL%1,     Ya-Kun%Liu%NULL%1,     Xiaoyong%Hu%NULL%1,     Qiang%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Firouzé%Bani-Sadr%NULL%1,     Maxime%Hentzien%NULL%1,     Madeline%Pascard%NULL%1,     Yohan%N'Guyen%NULL%1,     Amélie%Servettaz%NULL%1,     Laurent%Andreoletti%NULL%1,     Lukshe%Kanagaratnam%NULL%1,     Damien%Jolly%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Annane%Djillali%coreGivesNoEmail%2,   Aubron%C\u00e9cile%coreGivesNoEmail%2,   Badi\u00e9%Julio%coreGivesNoEmail%2,   Bourgoin%H\u00e9l\u00e8ne%coreGivesNoEmail%2,   Caille-F\u00e9n\u00e9rol%Caroline%coreGivesNoEmail%2,   Coffre%Carine%coreGivesNoEmail%2,   Dequin%Pierre-Fran\u00e7ois%coreGivesNoEmail%2,   Ehrmann%Stephan%coreGivesNoEmail%2,   Fran\u00e7ois%Bruno%coreGivesNoEmail%2,   Giraudeau%Bruno%coreGivesNoEmail%2,   Guillon%Antoine%coreGivesNoEmail%2,   Heming%Nicholas%coreGivesNoEmail%2,   Jouan%Youenn%coreGivesNoEmail%2,   Le%Gouge Am\u00e9lie%coreGivesNoEmail%2,   Leclerc%Marie%coreGivesNoEmail%2,   Lengell\u00e9%C\u00e9line%coreGivesNoEmail%2,   Meziani%Ferhat%coreGivesNoEmail%2,   Plantef\u00e8ve%Ga\u00ebtan%coreGivesNoEmail%2,   Ricard%Jean-Damien%coreGivesNoEmail%2,   Tavernier%Elsa%coreGivesNoEmail%2,   Voiriot%Guillaume%coreGivesNoEmail%2,   Zohar%Sarah%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%2,     Austin R%Morrison%NULL%1,     Amit%Vahia%NULL%1,     Zachary R%Smith%NULL%1,     Zohra%Chaudhry%NULL%1,     Pallavi%Bhargava%NULL%1,     Joseph%Miller%NULL%1,     Rachel M%Kenney%NULL%1,     George%Alangaden%NULL%1,     Mayur S%Ramesh%mramesh1@hfhs.org%1,     Varidhi%Nauriyal%NULL%1,     Jayanth%Lakshmikanth%NULL%1,     Asif%Abdul Hamed%NULL%1,     Owais%Nadeem%NULL%1,     Kristin%Griebe%NULL%1,     Joseph M%Johnson%NULL%1,     Patrick%Bradley%NULL%1,     Junior%Uduman%NULL%1,     Sara%Hegab%NULL%1,     Jennifer%Swiderek%NULL%1,     Amanda%Godfrey%NULL%1,     Jeffrey%Jennings%NULL%1,     Jayna%Gardner-Gray%NULL%1,     Adam%Ackerman%NULL%1,     Jonathan%Lezotte%NULL%1,     Joseph%Ruhala%NULL%1,     Linoj%Samuel%NULL%1,     Robert J%Tibbetts%NULL%1,     Indira%Brar%NULL%1,     John%McKinnon%NULL%1,     Geehan%Suleyman%NULL%1,     Nicholas%Yared%NULL%1,     Erica%Herc%NULL%1,     Jonathan%Williams%NULL%1,     Odaliz Abreu%Lanfranco%NULL%1,     Anne%Chen%NULL%1,     Marcus%Zervos%NULL%1,     Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tomasz%Chroboczek%tchroboczek@gmail.com%1,     Marie%Lacoste%NULL%2,     Marie%Lacoste%NULL%0,     Chloe%Wackenheim%NULL%1,     Thibaut%Challan-Belval%NULL%1,     Benjamin%Amar%NULL%1,     Thomas%Boisson%NULL%1,     Jason%Hubac%NULL%1,     Dominique%Leduc%NULL%1,     Colleen%Masse%NULL%1,     Victor%Dechaene%NULL%1,     Laetitia%Touihri-Maximin%NULL%1,     Sandrine%Megessier%NULL%1,     Camille%Lassale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christiane Maria Prado%Jeronimo%NULL%2,     Maria Eduarda Leão%Farias%NULL%1,     Fernando Fonseca Almeida%Val%NULL%1,     Vanderson Souza%Sampaio%NULL%1,     Marcia Almeida Araújo%Alexandre%NULL%1,     Gisely Cardoso%Melo%NULL%1,     Izabella Picinin%Safe%NULL%1,     Mayla Gabriela Silva%Borba%NULL%1,     Rebeca Linhares%Abreu-Netto%NULL%1,     Alex Bezerra Silva%Maciel%NULL%1,     João Ricardo Silva%Neto%NULL%1,     Lucas Barbosa%Oliveira%NULL%1,     Erick Frota Gomes%Figueiredo%NULL%1,     Kelry Mazurega Oliveira%Dinelly%NULL%1,     Maria Gabriela de Almeida%Rodrigues%NULL%1,     Marcelo%Brito%NULL%1,     Maria Paula Gomes%Mourão%NULL%1,     Guilherme Augusto%Pivoto João%NULL%1,     Ludhmila Abrahão%Hajjar%NULL%1,     Quique%Bassat%NULL%1,     Gustavo Adolfo Sierra%Romero%NULL%1,     Felipe Gomes%Naveca%NULL%1,     Heline Lira%Vasconcelos%NULL%1,     Michel de Araújo%Tavares%NULL%1,     José Diego%Brito-Sousa%NULL%1,     Fabio Trindade Maranhão%Costa%NULL%1,     Maurício Lacerda%Nogueira%NULL%1,     Djane%Baía-da-Silva%NULL%1,     Mariana Simão%Xavier%NULL%1,     Wuelton Marcelo%Monteiro%NULL%1,     Marcus Vinícius Guimarães%Lacerda%marcuslacerda.br@gmail.com%1,     NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qiang%Li%NULL%1,     Weixia%Li%NULL%1,     Yinpeng%Jin%NULL%1,     Wei%Xu%NULL%1,     Chenlu%Huang%NULL%1,     Li%Li%NULL%0,     Yuxian%Huang%NULL%1,     Qingchun%Fu%fuqingchun@shphc.org.cn%1,     Liang%Chen%chenliang@shphc.org.cn%1]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%2,     Zhigang%Hu%NULL%1,     Xinyu%Song%songxinyu@ctgu.edu.cn%2,     Xinyu%Song%songxinyu@ctgu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Brian C%Nelson%brn9016@nyp.org%1,     Justin%Laracy%NULL%1,     Sherif%Shoucri%NULL%1,     Donald%Dietz%NULL%1,     Jason%Zucker%NULL%1,     Nina%Patel%NULL%1,     Magdalena E%Sobieszczyk%NULL%1,     Christine J%Kubin%NULL%1,     Angela%Gomez-Simmonds%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexandre%B. Cavalcanti%coreGivesNoEmail%2,   Alvaro%Avezum%coreGivesNoEmail%2,   Andre%N. Costa%coreGivesNoEmail%2,   Bruno%M. Tomazini%coreGivesNoEmail%2,   Caio%C. F. Fernandes%coreGivesNoEmail%2,   Cassia%Righy%coreGivesNoEmail%2,   Cristina%P. Amendola%coreGivesNoEmail%2,   Daniel%N. Forte%coreGivesNoEmail%2,   Daniela%H. M. Freitas%coreGivesNoEmail%2,   Douglas%Costa Morais%coreGivesNoEmail%2,   Eduardo%L. V. Costa%coreGivesNoEmail%2,   Fernando%G. Zampieri%coreGivesNoEmail%2,   Flavia%R. Bueno%coreGivesNoEmail%2,   Fl\u00e1via%R. Machado%coreGivesNoEmail%2,   Fl\u00e1vio%G. R. Freitas%coreGivesNoEmail%2,   Franca%P. Baldassare%coreGivesNoEmail%2,   Gedealvares%F. S. Junior%coreGivesNoEmail%2,   Guilherme%B. Olivato%coreGivesNoEmail%2,   Israel%S. Maia%coreGivesNoEmail%2,   Let\u00edcia%Kawano-Dourado%coreGivesNoEmail%2,   Livia%M. G. Melro%coreGivesNoEmail%2,   Lucas%P. Damiani%coreGivesNoEmail%2,   Luciano%C. P. Azevedo%coreGivesNoEmail%2,   Maria%Vitoria A. O. Silva%coreGivesNoEmail%2,   Michele%O. Honorato%coreGivesNoEmail%2,   Otavio%Berwanger%coreGivesNoEmail%2,   Regis%G. Rosa%coreGivesNoEmail%2,   Renato%D. Lopes%coreGivesNoEmail%2,   Ricardo%A. B. Moura%coreGivesNoEmail%2,   Roberta%M. L. Roepke%coreGivesNoEmail%2,   Stevin%Zung%coreGivesNoEmail%2,   Thiago%Lisboa%coreGivesNoEmail%2,   Viviane%C. Veiga%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importance Coronavirus disease 2019 (COVID-19) is an emerging infectious disease that was first reported in Wuhan, China, and has subsequently spread worldwide.
+ Risk factors for the clinical outcomes of COVID-19 pneumonia have not yet been well delineated.
+ Objective To describe the clinical characteristics and outcomes in patients with COVID-19 pneumonia who developed acute respiratory distress syndrome (ARDS) or died.
+ Design, Setting, and Participants Retrospective cohort study of 201 patients with confirmed COVID-19 pneumonia admitted to Wuhan Jinyintan Hospital in China between December 25, 2019, and January 26, 2020. The final date of follow-up was February 13, 2020. Exposures Confirmed COVID-19 pneumonia.
+ Main Outcomes and Measures The development of ARDS and death.
+ Epidemiological, demographic, clinical, laboratory, management, treatment, and outcome data were also collected and analyzed.
+ Results Of 201 patients, the median age was 51 years (interquartile range, 43-60 years), and 128 (63.7%) patients were men.
+ Eighty-four patients (41.8%) developed ARDS, and of those 84 patients, 44 (52.4%) died.
+ In those who developed ARDS, compared with those who did not, more patients presented with dyspnea (50 of 84 [59.5%] patients and 30 of 117 [25.6%] patients, respectively [difference, 33.9%; 95% CI, 19.7%-48.1%]) and had comorbidities such as hypertension (23 of 84 [27.4%] patients and 16 of 117 [13.7%] patients, respectively [difference, 13.7%; 95% CI, 1.3%-26.1%]) and diabetes (16 of 84 [19.0%] patients and 6 of 117 [5.1%] patients, respectively [difference, 13.9%; 95% CI, 3.6%-24.2%]).
+ In bivariate Cox regression analysis, risk factors associated with the development of ARDS and progression from ARDS to death included older age (hazard ratio [HR], 3.26; 95% CI 2.08-5.11; and HR, 6.17; 95% CI, 3.26-11.67, respectively), neutrophilia (HR, 1.14; 95% CI, 1.09-1.19; and HR, 1.08; 95% CI, 1.01-1.17, respectively), and organ and coagulation dysfunction (eg, higher lactate dehydrogenase [HR, 1.61; 95% CI, 1.44-1.79; and HR, 1.30; 95% CI, 1.11-1.52, respectively] and D-dimer [HR, 1.03; 95% CI, 1.01-1.04; and HR, 1.02; 95% CI, 1.01-1.04, respectively]).
+ High fever (≥39 °C) was associated with higher likelihood of ARDS development (HR, 1.77; 95% CI, 1.11-2.84) and lower likelihood of death (HR, 0.41; 95% CI, 0.21-0.82).
+ Among patients with ARDS, treatment with methylprednisolone decreased the risk of death (HR, 0.38; 95% CI, 0.20-0.72).
+ Conclusions and Relevance Older age was associated with greater risk of development of ARDS and death likely owing to less rigorous immune response.
+ Although high fever was associated with the development of ARDS, it was also associated with better outcomes among patients with ARDS.
+ Moreover, treatment with methylprednisolone may be beneficial for patients who develop ARDS.
+</t>
+  </si>
+  <si>
+    <t>[ Chaomin%Wu%elasticNoEmail%1,   Xiaoyan% Chen%elasticNoEmail%1,   Yanping% Cai%elasticNoEmail%1,   Jia'an% Xia%elasticNoEmail%1,   Xing% Zhou%elasticNoEmail%1,   Sha% Xu%elasticNoEmail%1,   Hanping% Huang%elasticNoEmail%1,   Li% Zhang%elasticNoEmail%1,   Xia% Zhou%elasticNoEmail%1,   Chunling% Du%elasticNoEmail%1,   Yuye% Zhang%elasticNoEmail%1,   Juan% Song%elasticNoEmail%1,   Sijiao% Wang%elasticNoEmail%1,   Yencheng% Chao%elasticNoEmail%1,   Zeyong% Yang%elasticNoEmail%1,   Jie% Xu%elasticNoEmail%1,   Xin% Zhou%elasticNoEmail%1,   Dechang% Chen%elasticNoEmail%1,   Weining% Xiong%elasticNoEmail%1,   Lei% Xu%elasticNoEmail%1,   Feng% Zhou%elasticNoEmail%1,   Jinjun% Jiang%elasticNoEmail%1,   Chunxue% Bai%elasticNoEmail%1,   Junhua% Zheng%elasticNoEmail%1,   Yuanlin% Song%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,      Bohan%Yang%NULL%1,      Qianwen%Li%NULL%1,      Lu%Wen%NULL%1,      Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%2,      Zhiguo%Zhang%NULL%2,      Zhiguo%Zhang%NULL%0,      Muqing%Yu%NULL%1,      Yu%Tao%NULL%1,      Min%Xie%xie_m@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Jianfeng%Wu%NULL%1,      Jianqiang%Huang%NULL%1,      Guochao%Zhu%NULL%1,      Yihao%Liu%NULL%1,      Han%Xiao%NULL%1,      Qian%Zhou%NULL%1,      Xiang%Si%NULL%1,      Hui%Yi%NULL%1,      Cuiping%Wang%NULL%1,      Daya%Yang%NULL%1,      Shuling%Chen%NULL%1,      Xin%Liu%NULL%1,      Zelong%Liu%NULL%1,      Qiongya%Wang%NULL%1,      Qingquan%Lv%NULL%1,      Ying%Huang%NULL%1,      Yang%Yu%NULL%1,      Xiangdong%Guan%NULL%1,      Yanbing%Li%NULL%1,      Krishnarajah%Nirantharakumar%NULL%1,      KarKeung%Cheng%NULL%1,      Sui%Peng%pengsui@vip.163.com%1,      Haipeng%Xiao%xiaohp@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kaijin%Xu%NULL%1,      Yanfei%Chen%NULL%1,      Jing%Yuan%NULL%1,      Ping%Yi%NULL%1,      Cheng%Ding%NULL%1,      Wenrui%Wu%NULL%2,      Yongtao%Li%NULL%1,      Qin%Ni%NULL%1,      Rongrong%Zou%NULL%1,      Xiaohe%Li%NULL%1,      Min%Xu%NULL%1,      Ying%Zhang%NULL%1,      Hong%Zhao%NULL%1,      Xuan%Zhang%NULL%1,      Liang%Yu%NULL%1,      Junwei%Su%NULL%1,      Guanjing%Lang%NULL%1,      Jun%Liu%NULL%1,      Xiaoxin%Wu%NULL%1,      Yongzheng%Guo%NULL%1,      Jingjing%Tao%NULL%1,      Ding%Shi%NULL%1,      Ling%Yu%NULL%1,      Qing%Cao%NULL%1,      Bing%Ruan%NULL%1,      Lei%Liu%NULL%1,      Zhaoqin%Wang%NULL%1,      Yan%Xu%NULL%1,      Yingxia%Liu%NULL%1,      Jifang%Sheng%NULL%2,      Lanjuan%Li%ljli@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Stephen Su%Yang%stephen.yang@mail.mcgill.ca%1,      Jed%Lipes%NULL%2,      Jed%Lipes%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%2,      Shirong%Li%NULL%1,      Lingling%Pan%NULL%1,      Boris%Tefsen%NULL%1,      Yeshan%Li%NULL%1,      Neil%French%NULL%1,      Liyun%Chen%NULL%1,      Gang%Yang%NULL%1,      Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Salton%NULL%1,      Paola%Confalonieri%NULL%1,      G Umberto%Meduri%NULL%1,      Pierachille%Santus%NULL%1,      Sergio%Harari%NULL%1,      Raffaele%Scala%NULL%1,      Simone%Lanini%NULL%1,      Valentina%Vertui%NULL%1,      Tiberio%Oggionni%NULL%1,      Antonella%Caminati%NULL%1,      Vincenzo%Patruno%NULL%1,      Mario%Tamburrini%NULL%1,      Alessandro%Scartabellati%NULL%1,      Mara%Parati%NULL%1,      Massimiliano%Villani%NULL%1,      Dejan%Radovanovic%NULL%1,      Sara%Tomassetti%NULL%1,      Claudia%Ravaglia%NULL%1,      Venerino%Poletti%NULL%1,      Andrea%Vianello%NULL%1,      Anna Talia%Gaccione%NULL%1,      Luca%Guidelli%NULL%1,      Rita%Raccanelli%NULL%1,      Paolo%Lucernoni%NULL%1,      Donato%Lacedonia%NULL%1,      Maria Pia%Foschino Barbaro%NULL%1,      Stefano%Centanni%NULL%1,      Michele%Mondoni%NULL%1,      Matteo%Davì%NULL%1,      Alberto%Fantin%NULL%1,      Xueyuan%Cao%NULL%1,      Lucio%Torelli%NULL%1,      Antonella%Zucchetto%NULL%1,      Marcella%Montico%NULL%1,      Annalisa%Casarin%NULL%1,      Micaela%Romagnoli%NULL%1,      Stefano%Gasparini%NULL%1,      Martina%Bonifazi%NULL%1,      Pierlanfranco%D’Agaro%NULL%1,      Alessandro%Marcello%NULL%1,      Danilo%Licastro%NULL%1,      Barbara%Ruaro%NULL%1,      Maria Concetta%Volpe%NULL%1,      Reba%Umberger%NULL%1,      Marco%Confalonieri%mconfalonieri@units.it%1]</t>
+  </si>
+  <si>
+    <t>[Yinzhong%Shen%NULL%2,      Fang%Zheng%NULL%2,      Fang%Zheng%NULL%0,      Danfeng%Sun%NULL%1,      Yun%Ling%NULL%3,      Jun%Chen%NULL%1,      Feng%Li%NULL%2,      Feng%Li%NULL%0,      Tao%Li%NULL%2,      Zhiping%Qian%NULL%1,      Yuyi%Zhang%NULL%1,      Qingnian%Xu%NULL%1,      Li%Liu%NULL%1,      Qin%Huang%NULL%1,      Fei%Shan%NULL%1,      Lie%Xu%NULL%1,      Jun%Wu%NULL%1,      Zhaoqin%Zhu%NULL%1,      Zhigang%Song%NULL%1,      Shenyang%Li%NULL%1,      Yuxin%Shi%NULL%1,      Jianliang%Zhang%NULL%1,      Xueyun%Wu%NULL%1,      Joshua B.%Mendelsohn%NULL%2,      Joshua B.%Mendelsohn%NULL%0,      Tongyu%Zhu%NULL%1,      Hongzhou%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[José Luis%Callejas Rubio%jlcalleja@telefonica.net%1,      Juan de Dios%Luna del Castillo%NULL%1,      Javier%de la Hera Fernández%NULL%1,      Emilio%Guirao Arrabal%NULL%1,      Manuel%Colmenero Ruiz%NULL%1,      Norberto%Ortego Centeno%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ding%Shi%NULL%1,      Wenrui%Wu%NULL%0,      Qing%Wang%NULL%1,      Kaijin%Xu%NULL%1,      Jiaojiao%Xie%NULL%1,      Jingjing%Wu%NULL%1,      Longxian%Lv%NULL%1,      Jifang%Sheng%NULL%0,      Jing%Guo%NULL%1,      Kaicen%Wang%NULL%1,      Daiqiong%Fang%NULL%1,      Yating%Li%NULL%1,      Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%2,      Weiwei%Jiang%NULL%1,      Qi%He%NULL%1,      Cheng%Wang%NULL%1,      Baoju%Wang%NULL%1,      Pan%Zhou%NULL%1,      Nianguo%Dong%dongnianguo63@gmail.com%1,      Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%3,      Xian%Zhou%NULL%1,      Tao%Li%NULL%0,      Shiji%Chan%NULL%1,      Yiqi%Yu%NULL%1,      Jing-Wen%Ai%NULL%1,      Haocheng%Zhang%NULL%1,      Feng%Sun%NULL%1,      Qiran%Zhang%NULL%1,      Lei%Zhu%NULL%1,      Lingyun%Shao%NULL%1,      Bin%Xu%NULL%1,      Wenhong%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Liu%NULL%1,      Xiaobin%Zheng%NULL%1,      Yiying%Huang%NULL%1,      Hong%Shan%shanhong@mail.sysu.edu.cn%1,      Jin%Huang%hjin@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The efficacy of glucocorticoids in COVID-19 is unclear.
+ This study was designed to determine whether systemic glucocorticoid treatment in COVID-19 patients is associated with reduced mortality or mechanical ventilation.
+ This observational study included 1,806 hospitalized COVID-19 patients; 140 were treated with glucocorticoids within 48 hours of admission.
+ Early use of glucocorticoids was not associated with mortality or mechanical ventilation.
+ However, glucocorticoid treatment of patients with initial C-reactive protein (CRP) ≥20 mg/dL was associated with significantly reduced risk of mortality or mechanical ventilation (odds ratio, 0.23; 95% CI, 0.08-0.70), while glucocorticoid treatment of patients with CRP &lt;10 mg/dL was associated with significantly increased risk of mortality or mechanical ventilation (OR, 2.64; 95% CI, 1.39-5.03).
+ Whether glucocorticoid treatment is associated with changes in mortality or mechanical ventilation in patients with high or low CRP needs study in prospective, randomized clinical trials.
+</t>
+  </si>
+  <si>
+    <t>[ Marla J%Keller%elasticNoEmail%1,   Elizabeth A% Kitsis%elasticNoEmail%1,   Shitij% Arora%elasticNoEmail%1,   Jen-Ting% Chen%elasticNoEmail%1,   Shivani% Agarwal%elasticNoEmail%1,   Michael J% Ross%elasticNoEmail%1,   Yaron% Tomer%elasticNoEmail%1,   William% Southern%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xiang-Hong%Yang%NULL%1,      Ran-Ran%Li%NULL%1,      Ren-Hua%Sun%NULL%1,      Jiao%Liu%NULL%1,      De-Chang%Chen%NULL%1,      Peng%Lyu%NULL%2,      Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%2,      Taige%Chen%NULL%1,      Yang%Wang%NULL%1,      Jun%Wang%NULL%1,      Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yiming%Ma%NULL%1,      Huihui%Zeng%NULL%1,      Zijie%Zhan%NULL%1,      Huanhuan%Lu%NULL%1,      Zihang%Zeng%NULL%1,      Chenjie%He%NULL%1,      Xiangming%Liu%NULL%1,      Chen%Chen%NULL%1,      Qingwu%Qin%NULL%1,      Jia%He%NULL%1,      Zhiguo%Zhou%NULL%1,      Peng%Huang%NULL%1,      Mingyan%Jiang%NULL%1,      Dingding%Deng%NULL%1,      Xin%Liao%NULL%1,      Zhi%Xiang%NULL%1,      Xiaoying%Huang%NULL%1,      Yan%Chen%NULL%1,      Ping%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Monil%Majmundar%NULL%1,      Tikal%Kansara%NULL%2,      Tikal%Kansara%NULL%0,      Joanna Marta%Lenik%NULL%1,      Hansang%Park%NULL%1,      Kuldeep%Ghosh%NULL%1,      Rajkumar%Doshi%NULL%1,      Palak%Shah%NULL%1,      Ashish%Kumar%NULL%1,      Hossam%Amin%NULL%2,      Hossam%Amin%NULL%0,      Shobhana%Chaudhari%NULL%1,      Imnett%Habtes%NULL%1,      Muhammad%Adrish%NULL%8,      Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Malgorzata%Mikulska%NULL%1,      Laura Ambra%Nicolini%NULL%2,      Laura Ambra%Nicolini%NULL%0,      Alessio%Signori%NULL%1,      Antonio%Di Biagio%NULL%1,      Chiara%Sepulcri%NULL%2,      Chiara%Sepulcri%NULL%0,      Chiara%Russo%NULL%1,      Silvia%Dettori%NULL%1,      Marco%Berruti%NULL%1,      Maria Pia%Sormani%NULL%1,      Daniele Roberto%Giacobbe%NULL%1,      Antonio%Vena%NULL%2,      Antonio%Vena%NULL%0,      Andrea%De Maria%NULL%1,      Chiara%Dentone%NULL%1,      Lucia%Taramasso%NULL%1,      Michele%Mirabella%NULL%2,      Michele%Mirabella%NULL%0,      Laura%Magnasco%NULL%1,      Sara%Mora%NULL%1,      Emanuele%Delfino%NULL%1,      Federica%Toscanini%NULL%1,      Elisa%Balletto%NULL%1,      Anna Ida%Alessandrini%NULL%1,      Federico%Baldi%NULL%1,      Federica%Briano%NULL%1,      Marco%Camera%NULL%1,      Ferdinando%Dodi%NULL%1,      Antonio%Ferrazin%NULL%1,      Laura%Labate%NULL%1,      Giovanni%Mazzarello%NULL%1,      Rachele%Pincino%NULL%1,      Federica%Portunato%NULL%1,      Stefania%Tutino%NULL%1,      Emanuela%Barisione%NULL%1,      Bianca%Bruzzone%NULL%1,      Andrea%Orsi%NULL%1,      Eva%Schenone%NULL%1,      Nirmala%Rosseti%NULL%1,      Elisabetta%Sasso%NULL%1,      Giorgio%Da Rin%NULL%1,      Paolo%Pelosi%NULL%1,      Sabrina%Beltramini%NULL%1,      Mauro%Giacomini%NULL%1,      Giancarlo%Icardi%NULL%2,      Giancarlo%Icardi%NULL%0,      Angelo%Gratarola%NULL%1,      Matteo%Bassetti%NULL%1,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mao%Huang%NULL%2,      Yi%Yang%NULL%1,      Futai%Shang%NULL%1,      Yishan%Zheng%NULL%1,      Wenjing%Zhao%NULL%1,      Liang%Luo%NULL%1,      Xudong%Han%NULL%1,      Aihua%Lin%NULL%1,      Hongsheng%Zhao%NULL%1,      Qing%Gu%NULL%1,      Yi%Shi%NULL%1,      Jun%Li%NULL%1,      Xingxiang%Xu%NULL%1,      Kexi%Liu%NULL%1,      YiJun%Deng%NULL%1,      Quan%Cao%NULL%1,      Weiwei%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%4,      Yun%Ling%NULL%0,      Yun%Ling%NULL%0,      Tao%Bai%NULL%2,      Tao%Bai%NULL%0,      Yusang%Xie%NULL%1,      Jie%Huang%NULL%2,      Jie%Huang%NULL%0,      Jian%Li%NULL%1,      Weining%Xiong%NULL%1,      Dexiang%Yang%NULL%1,      Rong%Chen%NULL%1,      Fangying%Lu%NULL%1,      Yunfei%Lu%NULL%1,      Xuhui%Liu%NULL%1,      Yuqing%Chen%NULL%2,      Yuqing%Chen%NULL%0,      Xin%Li%NULL%1,      Yong%Li%NULL%1,      Hanssa Dwarka%Summah%NULL%1,      Huihuang%Lin%NULL%1,      Jiayang%Yan%NULL%1,      Min%Zhou%NULL%1,      Hongzhou%Lu%NULL%0,      Hongzhou%Lu%NULL%0,      Jieming%Qu%NULL%2,      Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana%Fernández-Cruz%NULL%1,      Belén%Ruiz-Antorán%NULL%2,      Belén%Ruiz-Antorán%NULL%0,      Ana%Muñoz-Gómez%NULL%1,      Aránzazu%Sancho-López%NULL%1,      Patricia%Mills-Sánchez%NULL%1,      Gustavo Adolfo%Centeno-Soto%NULL%1,      Silvia%Blanco-Alonso%NULL%1,      Laura%Javaloyes-Garachana%NULL%1,      Amy%Galán-Gómez%NULL%1,      Ángela%Valencia-Alijo%NULL%1,      Javier%Gómez-Irusta%NULL%1,      Concepción%Payares-Herrera%NULL%1,      Ignacio%Morrás-Torre%NULL%1,      Enrique%Sánchez-Chica%NULL%1,      Laura%Delgado-Téllez-de-Cepeda%NULL%1,      Alejandro%Callejas-Díaz%NULL%1,      Antonio%Ramos-Martínez%NULL%1,      Elena%Múñez-Rubio%NULL%2,      Elena%Múñez-Rubio%NULL%0,      Cristina%Avendaño-Solá%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmine%Gazzaruso%c.gazzaruso@gmail.com%1,      Nicoletta%Carlo Stella%NULL%2,      Nicoletta%Carlo Stella%NULL%0,      Giuseppe%Mariani%NULL%1,      Anna%Tamburlini%NULL%1,      Pietro%Garini%NULL%1,      Elena%Freddi%NULL%1,      Carolina%Ravetto%NULL%1,      Adriana%Coppola%NULL%1,      Pietro%Gallotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Hu%NULL%2,      Tingping%Wang%NULL%2,      Zhimin%Hu%NULL%2,      Xuan%Wang%NULL%2,      Zhengbin%Zhang%NULL%2,      Li%Li%NULL%3,      Peng%Peng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Yan%Hu%NULL%0,      Tingping%Wang%NULL%0,      Zhimin%Hu%NULL%0,      Xuan%Wang%NULL%0,      Zhengbin%Zhang%NULL%0,      Li%Li%NULL%0,      Peng%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,      Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,      Wenlin%Cheng%NULL%1,      Lei%Yu%NULL%1,      Ya-Kun%Liu%NULL%1,      Xiaoyong%Hu%NULL%1,      Qiang%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Firouzé%Bani-Sadr%NULL%1,      Maxime%Hentzien%NULL%1,      Madeline%Pascard%NULL%1,      Yohan%N'Guyen%NULL%1,      Amélie%Servettaz%NULL%1,      Laurent%Andreoletti%NULL%1,      Lukshe%Kanagaratnam%NULL%1,      Damien%Jolly%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Annane%Djillali%coreGivesNoEmail%2,    Aubron%C\u00e9cile%coreGivesNoEmail%2,    Badi\u00e9%Julio%coreGivesNoEmail%2,    Bourgoin%H\u00e9l\u00e8ne%coreGivesNoEmail%2,    Caille-F\u00e9n\u00e9rol%Caroline%coreGivesNoEmail%2,    Coffre%Carine%coreGivesNoEmail%2,    Dequin%Pierre-Fran\u00e7ois%coreGivesNoEmail%2,    Ehrmann%Stephan%coreGivesNoEmail%2,    Fran\u00e7ois%Bruno%coreGivesNoEmail%2,    Giraudeau%Bruno%coreGivesNoEmail%2,    Guillon%Antoine%coreGivesNoEmail%2,    Heming%Nicholas%coreGivesNoEmail%2,    Jouan%Youenn%coreGivesNoEmail%2,    Le%Gouge Am\u00e9lie%coreGivesNoEmail%2,    Leclerc%Marie%coreGivesNoEmail%2,    Lengell\u00e9%C\u00e9line%coreGivesNoEmail%2,    Meziani%Ferhat%coreGivesNoEmail%2,    Plantef\u00e8ve%Ga\u00ebtan%coreGivesNoEmail%2,    Ricard%Jean-Damien%coreGivesNoEmail%2,    Tavernier%Elsa%coreGivesNoEmail%2,    Voiriot%Guillaume%coreGivesNoEmail%2,    Zohar%Sarah%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%2,      Austin R%Morrison%NULL%1,      Amit%Vahia%NULL%1,      Zachary R%Smith%NULL%1,      Zohra%Chaudhry%NULL%1,      Pallavi%Bhargava%NULL%1,      Joseph%Miller%NULL%1,      Rachel M%Kenney%NULL%1,      George%Alangaden%NULL%1,      Mayur S%Ramesh%mramesh1@hfhs.org%1,      Varidhi%Nauriyal%NULL%1,      Jayanth%Lakshmikanth%NULL%1,      Asif%Abdul Hamed%NULL%1,      Owais%Nadeem%NULL%1,      Kristin%Griebe%NULL%1,      Joseph M%Johnson%NULL%1,      Patrick%Bradley%NULL%1,      Junior%Uduman%NULL%1,      Sara%Hegab%NULL%1,      Jennifer%Swiderek%NULL%1,      Amanda%Godfrey%NULL%1,      Jeffrey%Jennings%NULL%1,      Jayna%Gardner-Gray%NULL%1,      Adam%Ackerman%NULL%1,      Jonathan%Lezotte%NULL%1,      Joseph%Ruhala%NULL%1,      Linoj%Samuel%NULL%1,      Robert J%Tibbetts%NULL%1,      Indira%Brar%NULL%1,      John%McKinnon%NULL%1,      Geehan%Suleyman%NULL%1,      Nicholas%Yared%NULL%1,      Erica%Herc%NULL%1,      Jonathan%Williams%NULL%1,      Odaliz Abreu%Lanfranco%NULL%1,      Anne%Chen%NULL%1,      Marcus%Zervos%NULL%1,      Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tomasz%Chroboczek%tchroboczek@gmail.com%1,      Marie%Lacoste%NULL%2,      Marie%Lacoste%NULL%0,      Chloe%Wackenheim%NULL%1,      Thibaut%Challan-Belval%NULL%1,      Benjamin%Amar%NULL%1,      Thomas%Boisson%NULL%1,      Jason%Hubac%NULL%1,      Dominique%Leduc%NULL%1,      Colleen%Masse%NULL%1,      Victor%Dechaene%NULL%1,      Laetitia%Touihri-Maximin%NULL%1,      Sandrine%Megessier%NULL%1,      Camille%Lassale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christiane Maria Prado%Jeronimo%NULL%2,      Maria Eduarda Leão%Farias%NULL%1,      Fernando Fonseca Almeida%Val%NULL%1,      Vanderson Souza%Sampaio%NULL%1,      Marcia Almeida Araújo%Alexandre%NULL%1,      Gisely Cardoso%Melo%NULL%1,      Izabella Picinin%Safe%NULL%1,      Mayla Gabriela Silva%Borba%NULL%1,      Rebeca Linhares%Abreu-Netto%NULL%1,      Alex Bezerra Silva%Maciel%NULL%1,      João Ricardo Silva%Neto%NULL%1,      Lucas Barbosa%Oliveira%NULL%1,      Erick Frota Gomes%Figueiredo%NULL%1,      Kelry Mazurega Oliveira%Dinelly%NULL%1,      Maria Gabriela de Almeida%Rodrigues%NULL%1,      Marcelo%Brito%NULL%1,      Maria Paula Gomes%Mourão%NULL%1,      Guilherme Augusto%Pivoto João%NULL%1,      Ludhmila Abrahão%Hajjar%NULL%1,      Quique%Bassat%NULL%1,      Gustavo Adolfo Sierra%Romero%NULL%1,      Felipe Gomes%Naveca%NULL%1,      Heline Lira%Vasconcelos%NULL%1,      Michel de Araújo%Tavares%NULL%1,      José Diego%Brito-Sousa%NULL%1,      Fabio Trindade Maranhão%Costa%NULL%1,      Maurício Lacerda%Nogueira%NULL%1,      Djane%Baía-da-Silva%NULL%1,      Mariana Simão%Xavier%NULL%1,      Wuelton Marcelo%Monteiro%NULL%1,      Marcus Vinícius Guimarães%Lacerda%marcuslacerda.br@gmail.com%1,      NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qiang%Li%NULL%1,      Weixia%Li%NULL%1,      Yinpeng%Jin%NULL%1,      Wei%Xu%NULL%1,      Chenlu%Huang%NULL%1,      Li%Li%NULL%0,      Yuxian%Huang%NULL%1,      Qingchun%Fu%fuqingchun@shphc.org.cn%1,      Liang%Chen%chenliang@shphc.org.cn%1]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%2,      Zhigang%Hu%NULL%1,      Xinyu%Song%songxinyu@ctgu.edu.cn%2,      Xinyu%Song%songxinyu@ctgu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Brian C%Nelson%brn9016@nyp.org%1,      Justin%Laracy%NULL%1,      Sherif%Shoucri%NULL%1,      Donald%Dietz%NULL%1,      Jason%Zucker%NULL%1,      Nina%Patel%NULL%1,      Magdalena E%Sobieszczyk%NULL%1,      Christine J%Kubin%NULL%1,      Angela%Gomez-Simmonds%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexandre%B. Cavalcanti%coreGivesNoEmail%2,    Alvaro%Avezum%coreGivesNoEmail%2,    Andre%N. Costa%coreGivesNoEmail%2,    Bruno%M. Tomazini%coreGivesNoEmail%2,    Caio%C. F. Fernandes%coreGivesNoEmail%2,    Cassia%Righy%coreGivesNoEmail%2,    Cristina%P. Amendola%coreGivesNoEmail%2,    Daniel%N. Forte%coreGivesNoEmail%2,    Daniela%H. M. Freitas%coreGivesNoEmail%2,    Douglas%Costa Morais%coreGivesNoEmail%2,    Eduardo%L. V. Costa%coreGivesNoEmail%2,    Fernando%G. Zampieri%coreGivesNoEmail%2,    Flavia%R. Bueno%coreGivesNoEmail%2,    Fl\u00e1via%R. Machado%coreGivesNoEmail%2,    Fl\u00e1vio%G. R. Freitas%coreGivesNoEmail%2,    Franca%P. Baldassare%coreGivesNoEmail%2,    Gedealvares%F. S. Junior%coreGivesNoEmail%2,    Guilherme%B. Olivato%coreGivesNoEmail%2,    Israel%S. Maia%coreGivesNoEmail%2,    Let\u00edcia%Kawano-Dourado%coreGivesNoEmail%2,    Livia%M. G. Melro%coreGivesNoEmail%2,    Lucas%P. Damiani%coreGivesNoEmail%2,    Luciano%C. P. Azevedo%coreGivesNoEmail%2,    Maria%Vitoria A. O. Silva%coreGivesNoEmail%2,    Michele%O. Honorato%coreGivesNoEmail%2,    Otavio%Berwanger%coreGivesNoEmail%2,    Regis%G. Rosa%coreGivesNoEmail%2,    Renato%D. Lopes%coreGivesNoEmail%2,    Ricardo%A. B. Moura%coreGivesNoEmail%2,    Roberta%M. L. Roepke%coreGivesNoEmail%2,    Stevin%Zung%coreGivesNoEmail%2,    Thiago%Lisboa%coreGivesNoEmail%2,    Viviane%C. Veiga%coreGivesNoEmail%2]</t>
   </si>
 </sst>
 </file>
@@ -1702,22 +1963,22 @@
         <v>44013.0</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>303</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>345</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>346</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
         <v>58</v>
@@ -1740,7 +2001,7 @@
         <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>269</v>
+        <v>347</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
@@ -1772,7 +2033,7 @@
         <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>270</v>
+        <v>348</v>
       </c>
       <c r="F4" t="s">
         <v>60</v>
@@ -1804,7 +2065,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>271</v>
+        <v>349</v>
       </c>
       <c r="F5" t="s">
         <v>65</v>
@@ -1836,7 +2097,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>272</v>
+        <v>350</v>
       </c>
       <c r="F6" t="s">
         <v>69</v>
@@ -1868,7 +2129,7 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -1900,7 +2161,7 @@
         <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>352</v>
       </c>
       <c r="F8" t="s">
         <v>77</v>
@@ -1932,7 +2193,7 @@
         <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>275</v>
+        <v>353</v>
       </c>
       <c r="F9" t="s">
         <v>82</v>
@@ -1964,7 +2225,7 @@
         <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>276</v>
+        <v>354</v>
       </c>
       <c r="F10" t="s">
         <v>87</v>
@@ -1996,7 +2257,7 @@
         <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>277</v>
+        <v>355</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -2028,7 +2289,7 @@
         <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>278</v>
+        <v>356</v>
       </c>
       <c r="F12" t="s">
         <v>96</v>
@@ -2060,7 +2321,7 @@
         <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>279</v>
+        <v>357</v>
       </c>
       <c r="F13" t="s">
         <v>100</v>
@@ -2092,7 +2353,7 @@
         <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>280</v>
+        <v>358</v>
       </c>
       <c r="F14" t="s">
         <v>105</v>
@@ -2124,7 +2385,7 @@
         <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>281</v>
+        <v>359</v>
       </c>
       <c r="F15" t="s">
         <v>108</v>
@@ -2150,22 +2411,22 @@
         <v>44044.0</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>320</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>360</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>361</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>323</v>
       </c>
       <c r="I16" t="s">
         <v>58</v>
@@ -2188,7 +2449,7 @@
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>282</v>
+        <v>362</v>
       </c>
       <c r="F17" t="s">
         <v>111</v>
@@ -2220,7 +2481,7 @@
         <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>283</v>
+        <v>363</v>
       </c>
       <c r="F18" t="s">
         <v>114</v>
@@ -2252,7 +2513,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>284</v>
+        <v>364</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -2284,7 +2545,7 @@
         <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>285</v>
+        <v>365</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -2316,7 +2577,7 @@
         <v>127</v>
       </c>
       <c r="E21" t="s">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="F21" t="s">
         <v>129</v>
@@ -2348,7 +2609,7 @@
         <v>132</v>
       </c>
       <c r="E22" t="s">
-        <v>287</v>
+        <v>367</v>
       </c>
       <c r="F22" t="s">
         <v>134</v>
@@ -2380,7 +2641,7 @@
         <v>137</v>
       </c>
       <c r="E23" t="s">
-        <v>288</v>
+        <v>368</v>
       </c>
       <c r="F23" t="s">
         <v>139</v>
@@ -2412,7 +2673,7 @@
         <v>142</v>
       </c>
       <c r="E24" t="s">
-        <v>289</v>
+        <v>369</v>
       </c>
       <c r="F24" t="s">
         <v>144</v>
@@ -2444,7 +2705,7 @@
         <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="F25" t="s">
         <v>148</v>
@@ -2476,7 +2737,7 @@
         <v>151</v>
       </c>
       <c r="E26" t="s">
-        <v>291</v>
+        <v>371</v>
       </c>
       <c r="F26" t="s">
         <v>153</v>
@@ -2540,7 +2801,7 @@
         <v>151</v>
       </c>
       <c r="E28" t="s">
-        <v>292</v>
+        <v>372</v>
       </c>
       <c r="F28" t="s">
         <v>153</v>
@@ -2572,7 +2833,7 @@
         <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>293</v>
+        <v>373</v>
       </c>
       <c r="F29" t="s">
         <v>163</v>
@@ -2603,7 +2864,9 @@
       <c r="D30" t="s">
         <v>253</v>
       </c>
-      <c r="E30"/>
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
       <c r="F30" t="s">
         <v>29</v>
       </c>
@@ -2634,7 +2897,7 @@
         <v>165</v>
       </c>
       <c r="E31" t="s">
-        <v>294</v>
+        <v>374</v>
       </c>
       <c r="F31" t="s">
         <v>167</v>
@@ -2666,7 +2929,7 @@
         <v>258</v>
       </c>
       <c r="E32" t="s">
-        <v>295</v>
+        <v>375</v>
       </c>
       <c r="F32" t="s">
         <v>31</v>
@@ -2698,7 +2961,7 @@
         <v>169</v>
       </c>
       <c r="E33" t="s">
-        <v>296</v>
+        <v>376</v>
       </c>
       <c r="F33" t="s">
         <v>171</v>
@@ -2730,7 +2993,7 @@
         <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>297</v>
+        <v>377</v>
       </c>
       <c r="F34" t="s">
         <v>175</v>
@@ -2794,7 +3057,7 @@
         <v>177</v>
       </c>
       <c r="E36" t="s">
-        <v>298</v>
+        <v>378</v>
       </c>
       <c r="F36" t="s">
         <v>179</v>
@@ -2826,7 +3089,7 @@
         <v>181</v>
       </c>
       <c r="E37" t="s">
-        <v>299</v>
+        <v>379</v>
       </c>
       <c r="F37" t="s">
         <v>183</v>
@@ -2858,7 +3121,7 @@
         <v>58</v>
       </c>
       <c r="E38" t="s">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="F38" t="s">
         <v>186</v>
@@ -2890,7 +3153,7 @@
         <v>188</v>
       </c>
       <c r="E39" t="s">
-        <v>301</v>
+        <v>381</v>
       </c>
       <c r="F39" t="s">
         <v>190</v>
@@ -2922,7 +3185,7 @@
         <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>302</v>
+        <v>382</v>
       </c>
       <c r="F40" t="s">
         <v>39</v>
